--- a/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(トークテーマ投稿画面).xlsx
+++ b/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(トークテーマ投稿画面).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="2"/>
+    <workbookView xWindow="38260" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'画面仕様(トークテーマ投稿画面 - 入力)'!#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(トークテーマ投稿画面 - 入力)'!$A$1:$BV$95</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(トークテーマ投稿画面 - 入力)'!$A$1:$BV$97</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面仕様(トークテーマ投稿画面 - 入力)'!$1:$4</definedName>
     <definedName name="改訂者">変更履歴!$E$5:$E$25</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="133">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -469,34 +469,7 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t xml:space="preserve">  トークテーマの説明を入力</t>
-    <rPh sb="9" eb="11">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>▼</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー名を入力</t>
-    <rPh sb="6" eb="8">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>トークテーマに関連するリンクを入力</t>
-    <rPh sb="7" eb="9">
-      <t>カンレンスル</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -547,13 +520,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>タグ選択</t>
-    <rPh sb="2" eb="4">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>タグを選択</t>
     <rPh sb="3" eb="5">
       <t>センタク</t>
@@ -571,10 +537,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>タグ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>トークテーマ詳細入力フォーム</t>
     <rPh sb="8" eb="10">
       <t>ニュウリョク</t>
@@ -595,13 +557,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>タグの新規作成</t>
-    <rPh sb="3" eb="7">
-      <t>シンキサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>入力</t>
     <rPh sb="0" eb="2">
       <t>ニュウリョク</t>
@@ -867,6 +822,142 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>センイスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリを選択</t>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>1.0.1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  トークテーマの説明</t>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマのタイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマに関連するリンク</t>
+    <rPh sb="7" eb="9">
+      <t>カンレンスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリ選択</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリタグ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>インクリメンタルサーチ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリ追加ボタン</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>選択したカテゴリタグを追加する</t>
+    <rPh sb="0" eb="2">
+      <t>センタクシタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ツイカスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>トークテーマの説明を入力する</t>
+    <rPh sb="7" eb="9">
+      <t>セツメイヲ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ニュウリョクスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリ追加ボタン押下</t>
+    <rPh sb="4" eb="6">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>カテゴリタグの×ボタンを押下</t>
+    <rPh sb="12" eb="14">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>対象のタグが消える</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キエル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>TODO：Phase2では新規タグ追加機能を追加する</t>
+    <rPh sb="13" eb="15">
+      <t>シンキタグ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キノウヲ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ツイカスル</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面仕様
+・カテゴリ追加ボタンの追加</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -1496,7 +1587,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1752,6 +1843,99 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1764,30 +1948,75 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1797,142 +2026,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="24" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1981,7 +2096,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2000,7 +2115,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2065,7 +2180,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2130,7 +2245,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2195,7 +2310,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2260,7 +2375,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2325,7 +2440,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2390,7 +2505,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2462,7 +2577,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2534,7 +2649,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2588,7 +2703,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年10月7日日曜日</a:t>
+              <a:t>2018年10月7日 日曜日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2606,7 +2721,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2678,7 +2793,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2732,7 +2847,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>2018年11月17日 土曜日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2750,7 +2865,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2804,7 +2919,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t> </a:t>
+              <a:t>柴</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -3645,16 +3760,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3663,7 +3778,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2717800" y="12141200"/>
+          <a:off x="1066800" y="13220700"/>
           <a:ext cx="1206500" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3728,99 +3843,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="角丸四角形 34"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4038600" y="12141200"/>
-          <a:ext cx="1206500" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>📎関連タグ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>  ×</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3829,7 +3861,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4127500" y="12141200"/>
+          <a:off x="2476500" y="13220700"/>
           <a:ext cx="1206500" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3896,13 +3928,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3970,13 +4002,13 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>73</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3985,7 +4017,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="2717800"/>
+          <a:off x="304800" y="2743200"/>
           <a:ext cx="17132300" cy="7975600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4029,264 +4061,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="角丸四角形 37"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2717800" y="12471400"/>
-          <a:ext cx="1206500" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>📎関連タグ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>  ×</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="角丸四角形 38"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4038600" y="12471400"/>
-          <a:ext cx="1206500" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>📎関連タグ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>  ×</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="角丸四角形 39"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4127500" y="12471400"/>
-          <a:ext cx="1206500" cy="241300"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>📎関連タグ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>  ×</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4359,10 +4142,10 @@
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>51</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>38</xdr:row>
-          <xdr:rowOff>190500</xdr:rowOff>
+          <xdr:col>50</xdr:col>
+          <xdr:colOff>228600</xdr:colOff>
+          <xdr:row>40</xdr:row>
+          <xdr:rowOff>177800</xdr:rowOff>
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
@@ -4371,7 +4154,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$47:$AI$69" spid="_x0000_s1027"/>
+                  <a14:cameraTool cellRange="$D$47:$AI$71" spid="_x0000_s1059"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4386,7 +4169,7 @@
           <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="4394200" y="3733800"/>
-              <a:ext cx="7734300" cy="5702300"/>
+              <a:ext cx="7721600" cy="6172200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4416,6 +4199,76 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>23178</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>231172</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>91278</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>36572</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="角丸四角形 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3947478" y="12753372"/>
+          <a:ext cx="792000" cy="288000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 18421"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1">
+            <a:lumMod val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4760,30 +4613,30 @@
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="90"/>
-      <c r="D13" s="90"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="90"/>
-      <c r="J13" s="90"/>
-      <c r="K13" s="90"/>
-      <c r="L13" s="90"/>
-      <c r="M13" s="90"/>
-      <c r="N13" s="90"/>
-      <c r="O13" s="90"/>
-      <c r="P13" s="90"/>
-      <c r="Q13" s="90"/>
-      <c r="R13" s="90"/>
-      <c r="S13" s="90"/>
-      <c r="T13" s="90"/>
-      <c r="U13" s="90"/>
-      <c r="V13" s="90"/>
-      <c r="W13" s="90"/>
-      <c r="X13" s="90"/>
-      <c r="Y13" s="90"/>
-      <c r="Z13" s="90"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121"/>
+      <c r="U13" s="121"/>
+      <c r="V13" s="121"/>
+      <c r="W13" s="121"/>
+      <c r="X13" s="121"/>
+      <c r="Y13" s="121"/>
+      <c r="Z13" s="121"/>
     </row>
     <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
@@ -4843,33 +4696,33 @@
       </c>
     </row>
     <row r="27" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AO27" s="87">
+      <c r="AO27" s="118">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43380</v>
-      </c>
-      <c r="AP27" s="88"/>
-      <c r="AQ27" s="88"/>
-      <c r="AR27" s="88"/>
-      <c r="AS27" s="88"/>
-      <c r="AT27" s="88"/>
-      <c r="AU27" s="88"/>
-      <c r="AV27" s="88"/>
-      <c r="AW27" s="88"/>
-      <c r="AX27" s="88"/>
-      <c r="AY27" s="88"/>
+        <v>43421</v>
+      </c>
+      <c r="AP27" s="119"/>
+      <c r="AQ27" s="119"/>
+      <c r="AR27" s="119"/>
+      <c r="AS27" s="119"/>
+      <c r="AT27" s="119"/>
+      <c r="AU27" s="119"/>
+      <c r="AV27" s="119"/>
+      <c r="AW27" s="119"/>
+      <c r="AX27" s="119"/>
+      <c r="AY27" s="119"/>
     </row>
     <row r="28" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AR28" s="89" t="str">
+      <c r="AR28" s="120" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>1.0.0</v>
-      </c>
-      <c r="AS28" s="89"/>
-      <c r="AT28" s="89"/>
-      <c r="AU28" s="89"/>
-      <c r="AV28" s="89"/>
-      <c r="AW28" s="89"/>
-      <c r="AX28" s="89"/>
-      <c r="AY28" s="89"/>
+        <v>1.0.1</v>
+      </c>
+      <c r="AS28" s="120"/>
+      <c r="AT28" s="120"/>
+      <c r="AU28" s="120"/>
+      <c r="AV28" s="120"/>
+      <c r="AW28" s="120"/>
+      <c r="AX28" s="120"/>
+      <c r="AY28" s="120"/>
     </row>
     <row r="31" spans="2:51" x14ac:dyDescent="0.25">
       <c r="AR31" s="6"/>
@@ -4940,11 +4793,19 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="36"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="8"/>
+    <row r="6" spans="2:5" ht="38" x14ac:dyDescent="0.25">
+      <c r="B6" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="9">
+        <v>43421</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="36"/>
@@ -5072,10 +4933,10 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:EK96"/>
+  <dimension ref="B1:EK101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -5123,8 +4984,12 @@
       <c r="CA3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="13"/>
+      <c r="CB3" s="14">
+        <v>43421</v>
+      </c>
+      <c r="CC3" s="13" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="2:141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:141" x14ac:dyDescent="0.25">
@@ -5715,11 +5580,11 @@
       <c r="BN15" s="60"/>
       <c r="BO15" s="61"/>
       <c r="BP15" s="27"/>
-      <c r="BQ15" s="108" t="s">
+      <c r="BQ15" s="133" t="s">
         <v>36</v>
       </c>
-      <c r="BR15" s="109"/>
-      <c r="BS15" s="110"/>
+      <c r="BR15" s="134"/>
+      <c r="BS15" s="135"/>
       <c r="BT15" s="54"/>
       <c r="BU15" s="20"/>
       <c r="EE15" s="19"/>
@@ -6909,11 +6774,11 @@
       <c r="H33" s="65"/>
       <c r="I33" s="65"/>
       <c r="J33" s="65"/>
-      <c r="K33" s="111" t="s">
+      <c r="K33" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="L33" s="111"/>
-      <c r="M33" s="111"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
       <c r="N33" s="65"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
@@ -7596,7 +7461,7 @@
     </row>
     <row r="46" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C46" s="19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D46" s="19"/>
       <c r="AK46" s="19"/>
@@ -7639,38 +7504,38 @@
     </row>
     <row r="47" spans="3:141" x14ac:dyDescent="0.25">
       <c r="C47" s="19"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="116"/>
-      <c r="F47" s="116"/>
-      <c r="G47" s="116"/>
-      <c r="H47" s="116"/>
-      <c r="I47" s="116"/>
-      <c r="J47" s="116"/>
-      <c r="K47" s="116"/>
-      <c r="L47" s="116"/>
-      <c r="M47" s="116"/>
-      <c r="N47" s="116"/>
-      <c r="O47" s="116"/>
-      <c r="P47" s="116"/>
-      <c r="Q47" s="116"/>
-      <c r="R47" s="116"/>
-      <c r="S47" s="116"/>
-      <c r="T47" s="116"/>
-      <c r="U47" s="116"/>
-      <c r="V47" s="116"/>
-      <c r="W47" s="116"/>
-      <c r="X47" s="116"/>
-      <c r="Y47" s="116"/>
-      <c r="Z47" s="116"/>
-      <c r="AA47" s="116"/>
-      <c r="AB47" s="116"/>
-      <c r="AC47" s="116"/>
-      <c r="AD47" s="116"/>
-      <c r="AE47" s="116"/>
-      <c r="AF47" s="116"/>
-      <c r="AG47" s="116"/>
-      <c r="AH47" s="116"/>
-      <c r="AI47" s="117"/>
+      <c r="D47" s="94"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="95"/>
+      <c r="G47" s="95"/>
+      <c r="H47" s="95"/>
+      <c r="I47" s="95"/>
+      <c r="J47" s="95"/>
+      <c r="K47" s="95"/>
+      <c r="L47" s="95"/>
+      <c r="M47" s="95"/>
+      <c r="N47" s="95"/>
+      <c r="O47" s="95"/>
+      <c r="P47" s="95"/>
+      <c r="Q47" s="95"/>
+      <c r="R47" s="95"/>
+      <c r="S47" s="95"/>
+      <c r="T47" s="95"/>
+      <c r="U47" s="95"/>
+      <c r="V47" s="95"/>
+      <c r="W47" s="95"/>
+      <c r="X47" s="95"/>
+      <c r="Y47" s="95"/>
+      <c r="Z47" s="95"/>
+      <c r="AA47" s="95"/>
+      <c r="AB47" s="95"/>
+      <c r="AC47" s="95"/>
+      <c r="AD47" s="95"/>
+      <c r="AE47" s="95"/>
+      <c r="AF47" s="95"/>
+      <c r="AG47" s="95"/>
+      <c r="AH47" s="95"/>
+      <c r="AI47" s="96"/>
       <c r="AK47" s="19"/>
       <c r="AL47" s="19"/>
       <c r="AM47" s="19"/>
@@ -7711,42 +7576,42 @@
     </row>
     <row r="48" spans="3:141" ht="26" x14ac:dyDescent="0.25">
       <c r="C48" s="19"/>
-      <c r="D48" s="118"/>
-      <c r="E48" s="119"/>
-      <c r="F48" s="120" t="s">
-        <v>74</v>
-      </c>
-      <c r="G48" s="121"/>
-      <c r="H48" s="121"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="121"/>
-      <c r="K48" s="121"/>
-      <c r="L48" s="121"/>
-      <c r="M48" s="121"/>
-      <c r="N48" s="121"/>
-      <c r="O48" s="121"/>
-      <c r="P48" s="121"/>
-      <c r="Q48" s="121"/>
-      <c r="R48" s="121"/>
-      <c r="S48" s="121"/>
-      <c r="T48" s="121"/>
-      <c r="U48" s="121"/>
-      <c r="V48" s="121"/>
-      <c r="W48" s="121"/>
-      <c r="X48" s="121"/>
-      <c r="Y48" s="121"/>
-      <c r="Z48" s="121"/>
-      <c r="AA48" s="121"/>
-      <c r="AB48" s="121"/>
-      <c r="AC48" s="121"/>
-      <c r="AD48" s="121"/>
-      <c r="AE48" s="121"/>
-      <c r="AF48" s="121"/>
-      <c r="AG48" s="147" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH48" s="119"/>
-      <c r="AI48" s="122"/>
+      <c r="D48" s="97"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="99" t="s">
+        <v>71</v>
+      </c>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
+      <c r="J48" s="100"/>
+      <c r="K48" s="100"/>
+      <c r="L48" s="100"/>
+      <c r="M48" s="100"/>
+      <c r="N48" s="100"/>
+      <c r="O48" s="100"/>
+      <c r="P48" s="100"/>
+      <c r="Q48" s="100"/>
+      <c r="R48" s="100"/>
+      <c r="S48" s="100"/>
+      <c r="T48" s="100"/>
+      <c r="U48" s="100"/>
+      <c r="V48" s="100"/>
+      <c r="W48" s="100"/>
+      <c r="X48" s="100"/>
+      <c r="Y48" s="100"/>
+      <c r="Z48" s="100"/>
+      <c r="AA48" s="100"/>
+      <c r="AB48" s="100"/>
+      <c r="AC48" s="100"/>
+      <c r="AD48" s="100"/>
+      <c r="AE48" s="100"/>
+      <c r="AF48" s="100"/>
+      <c r="AG48" s="117" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH48" s="98"/>
+      <c r="AI48" s="101"/>
       <c r="AK48" s="19"/>
       <c r="AL48" s="19"/>
       <c r="AM48" s="19"/>
@@ -7787,38 +7652,38 @@
     </row>
     <row r="49" spans="3:73" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C49" s="19"/>
-      <c r="D49" s="118"/>
-      <c r="E49" s="119"/>
-      <c r="F49" s="119"/>
-      <c r="G49" s="119"/>
-      <c r="H49" s="119"/>
-      <c r="I49" s="119"/>
-      <c r="J49" s="119"/>
-      <c r="K49" s="119"/>
-      <c r="L49" s="119"/>
-      <c r="M49" s="119"/>
-      <c r="N49" s="119"/>
-      <c r="O49" s="119"/>
-      <c r="P49" s="119"/>
-      <c r="Q49" s="119"/>
-      <c r="R49" s="119"/>
-      <c r="S49" s="119"/>
-      <c r="T49" s="119"/>
-      <c r="U49" s="119"/>
-      <c r="V49" s="119"/>
-      <c r="W49" s="119"/>
-      <c r="X49" s="119"/>
-      <c r="Y49" s="119"/>
-      <c r="Z49" s="119"/>
-      <c r="AA49" s="119"/>
-      <c r="AB49" s="119"/>
-      <c r="AC49" s="119"/>
-      <c r="AD49" s="119"/>
-      <c r="AE49" s="119"/>
-      <c r="AF49" s="119"/>
-      <c r="AG49" s="119"/>
-      <c r="AH49" s="119"/>
-      <c r="AI49" s="122"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="98"/>
+      <c r="G49" s="98"/>
+      <c r="H49" s="98"/>
+      <c r="I49" s="98"/>
+      <c r="J49" s="98"/>
+      <c r="K49" s="98"/>
+      <c r="L49" s="98"/>
+      <c r="M49" s="98"/>
+      <c r="N49" s="98"/>
+      <c r="O49" s="98"/>
+      <c r="P49" s="98"/>
+      <c r="Q49" s="98"/>
+      <c r="R49" s="98"/>
+      <c r="S49" s="98"/>
+      <c r="T49" s="98"/>
+      <c r="U49" s="98"/>
+      <c r="V49" s="98"/>
+      <c r="W49" s="98"/>
+      <c r="X49" s="98"/>
+      <c r="Y49" s="98"/>
+      <c r="Z49" s="98"/>
+      <c r="AA49" s="98"/>
+      <c r="AB49" s="98"/>
+      <c r="AC49" s="98"/>
+      <c r="AD49" s="98"/>
+      <c r="AE49" s="98"/>
+      <c r="AF49" s="98"/>
+      <c r="AG49" s="98"/>
+      <c r="AH49" s="98"/>
+      <c r="AI49" s="101"/>
       <c r="AK49" s="19"/>
       <c r="AL49" s="19"/>
       <c r="AM49" s="19"/>
@@ -7859,40 +7724,40 @@
     </row>
     <row r="50" spans="3:73" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C50" s="19"/>
-      <c r="D50" s="118"/>
-      <c r="E50" s="119"/>
-      <c r="F50" s="138" t="s">
-        <v>69</v>
-      </c>
-      <c r="G50" s="139"/>
-      <c r="H50" s="139"/>
-      <c r="I50" s="139"/>
-      <c r="J50" s="139"/>
-      <c r="K50" s="139"/>
-      <c r="L50" s="139"/>
-      <c r="M50" s="139"/>
-      <c r="N50" s="139"/>
-      <c r="O50" s="139"/>
-      <c r="P50" s="139"/>
-      <c r="Q50" s="139"/>
-      <c r="R50" s="139"/>
-      <c r="S50" s="139"/>
-      <c r="T50" s="139"/>
-      <c r="U50" s="139"/>
-      <c r="V50" s="139"/>
-      <c r="W50" s="139"/>
-      <c r="X50" s="139"/>
-      <c r="Y50" s="139"/>
-      <c r="Z50" s="139"/>
-      <c r="AA50" s="139"/>
-      <c r="AB50" s="139"/>
-      <c r="AC50" s="139"/>
-      <c r="AD50" s="139"/>
-      <c r="AE50" s="139"/>
-      <c r="AF50" s="139"/>
-      <c r="AG50" s="140"/>
-      <c r="AH50" s="119"/>
-      <c r="AI50" s="122"/>
+      <c r="D50" s="97"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="139" t="s">
+        <v>119</v>
+      </c>
+      <c r="G50" s="140"/>
+      <c r="H50" s="140"/>
+      <c r="I50" s="140"/>
+      <c r="J50" s="140"/>
+      <c r="K50" s="140"/>
+      <c r="L50" s="140"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="140"/>
+      <c r="O50" s="140"/>
+      <c r="P50" s="140"/>
+      <c r="Q50" s="140"/>
+      <c r="R50" s="140"/>
+      <c r="S50" s="140"/>
+      <c r="T50" s="140"/>
+      <c r="U50" s="140"/>
+      <c r="V50" s="140"/>
+      <c r="W50" s="140"/>
+      <c r="X50" s="140"/>
+      <c r="Y50" s="140"/>
+      <c r="Z50" s="140"/>
+      <c r="AA50" s="140"/>
+      <c r="AB50" s="140"/>
+      <c r="AC50" s="140"/>
+      <c r="AD50" s="140"/>
+      <c r="AE50" s="140"/>
+      <c r="AF50" s="140"/>
+      <c r="AG50" s="141"/>
+      <c r="AH50" s="98"/>
+      <c r="AI50" s="101"/>
       <c r="AK50" s="19"/>
       <c r="AL50" s="19"/>
       <c r="AM50" s="19"/>
@@ -7933,38 +7798,38 @@
     </row>
     <row r="51" spans="3:73" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C51" s="19"/>
-      <c r="D51" s="118"/>
-      <c r="E51" s="119"/>
-      <c r="F51" s="141"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="142"/>
-      <c r="K51" s="142"/>
-      <c r="L51" s="142"/>
-      <c r="M51" s="142"/>
-      <c r="N51" s="142"/>
-      <c r="O51" s="142"/>
-      <c r="P51" s="142"/>
-      <c r="Q51" s="142"/>
-      <c r="R51" s="142"/>
-      <c r="S51" s="142"/>
-      <c r="T51" s="142"/>
-      <c r="U51" s="142"/>
-      <c r="V51" s="142"/>
-      <c r="W51" s="142"/>
-      <c r="X51" s="142"/>
-      <c r="Y51" s="142"/>
-      <c r="Z51" s="142"/>
-      <c r="AA51" s="142"/>
-      <c r="AB51" s="142"/>
-      <c r="AC51" s="142"/>
-      <c r="AD51" s="142"/>
-      <c r="AE51" s="142"/>
-      <c r="AF51" s="142"/>
-      <c r="AG51" s="143"/>
-      <c r="AH51" s="119"/>
-      <c r="AI51" s="122"/>
+      <c r="D51" s="97"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="143"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="143"/>
+      <c r="J51" s="143"/>
+      <c r="K51" s="143"/>
+      <c r="L51" s="143"/>
+      <c r="M51" s="143"/>
+      <c r="N51" s="143"/>
+      <c r="O51" s="143"/>
+      <c r="P51" s="143"/>
+      <c r="Q51" s="143"/>
+      <c r="R51" s="143"/>
+      <c r="S51" s="143"/>
+      <c r="T51" s="143"/>
+      <c r="U51" s="143"/>
+      <c r="V51" s="143"/>
+      <c r="W51" s="143"/>
+      <c r="X51" s="143"/>
+      <c r="Y51" s="143"/>
+      <c r="Z51" s="143"/>
+      <c r="AA51" s="143"/>
+      <c r="AB51" s="143"/>
+      <c r="AC51" s="143"/>
+      <c r="AD51" s="143"/>
+      <c r="AE51" s="143"/>
+      <c r="AF51" s="143"/>
+      <c r="AG51" s="144"/>
+      <c r="AH51" s="98"/>
+      <c r="AI51" s="101"/>
       <c r="AK51" s="19"/>
       <c r="AL51" s="19"/>
       <c r="AM51" s="19"/>
@@ -8005,38 +7870,38 @@
     </row>
     <row r="52" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C52" s="19"/>
-      <c r="D52" s="118"/>
-      <c r="E52" s="119"/>
-      <c r="F52" s="119"/>
-      <c r="G52" s="119"/>
-      <c r="H52" s="119"/>
-      <c r="I52" s="119"/>
-      <c r="J52" s="119"/>
-      <c r="K52" s="119"/>
-      <c r="L52" s="119"/>
-      <c r="M52" s="119"/>
-      <c r="N52" s="119"/>
-      <c r="O52" s="119"/>
-      <c r="P52" s="119"/>
-      <c r="Q52" s="119"/>
-      <c r="R52" s="119"/>
-      <c r="S52" s="119"/>
-      <c r="T52" s="119"/>
-      <c r="U52" s="119"/>
-      <c r="V52" s="119"/>
-      <c r="W52" s="119"/>
-      <c r="X52" s="119"/>
-      <c r="Y52" s="119"/>
-      <c r="Z52" s="119"/>
-      <c r="AA52" s="119"/>
-      <c r="AB52" s="119"/>
-      <c r="AC52" s="119"/>
-      <c r="AD52" s="119"/>
-      <c r="AE52" s="119"/>
-      <c r="AF52" s="119"/>
-      <c r="AG52" s="119"/>
-      <c r="AH52" s="119"/>
-      <c r="AI52" s="122"/>
+      <c r="D52" s="97"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="98"/>
+      <c r="G52" s="98"/>
+      <c r="H52" s="98"/>
+      <c r="I52" s="98"/>
+      <c r="J52" s="98"/>
+      <c r="K52" s="98"/>
+      <c r="L52" s="98"/>
+      <c r="M52" s="98"/>
+      <c r="N52" s="98"/>
+      <c r="O52" s="98"/>
+      <c r="P52" s="98"/>
+      <c r="Q52" s="98"/>
+      <c r="R52" s="98"/>
+      <c r="S52" s="98"/>
+      <c r="T52" s="98"/>
+      <c r="U52" s="98"/>
+      <c r="V52" s="98"/>
+      <c r="W52" s="98"/>
+      <c r="X52" s="98"/>
+      <c r="Y52" s="98"/>
+      <c r="Z52" s="98"/>
+      <c r="AA52" s="98"/>
+      <c r="AB52" s="98"/>
+      <c r="AC52" s="98"/>
+      <c r="AD52" s="98"/>
+      <c r="AE52" s="98"/>
+      <c r="AF52" s="98"/>
+      <c r="AG52" s="98"/>
+      <c r="AH52" s="98"/>
+      <c r="AI52" s="101"/>
       <c r="AK52" s="19"/>
       <c r="AL52" s="19"/>
       <c r="AM52" s="19"/>
@@ -8077,43 +7942,45 @@
     </row>
     <row r="53" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C53" s="19"/>
-      <c r="D53" s="118"/>
-      <c r="E53" s="119"/>
-      <c r="F53" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="K53" s="119"/>
-      <c r="L53" s="119"/>
-      <c r="M53" s="119"/>
-      <c r="N53" s="119"/>
-      <c r="O53" s="119"/>
-      <c r="P53" s="119"/>
-      <c r="Q53" s="119"/>
-      <c r="R53" s="119"/>
-      <c r="S53" s="119"/>
-      <c r="T53" s="119"/>
-      <c r="U53" s="119"/>
-      <c r="V53" s="119"/>
-      <c r="W53" s="119"/>
-      <c r="X53" s="119"/>
-      <c r="Y53" s="119"/>
-      <c r="Z53" s="119"/>
-      <c r="AA53" s="119"/>
-      <c r="AB53" s="119"/>
-      <c r="AC53" s="119"/>
-      <c r="AD53" s="119"/>
-      <c r="AE53" s="119"/>
-      <c r="AF53" s="119"/>
-      <c r="AG53" s="119"/>
-      <c r="AH53" s="119"/>
-      <c r="AI53" s="122"/>
-      <c r="AK53" s="19"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="113" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" s="102"/>
+      <c r="H53" s="102"/>
+      <c r="I53" s="102"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="102"/>
+      <c r="M53" s="102"/>
+      <c r="N53" s="154" t="s">
+        <v>70</v>
+      </c>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="98"/>
+      <c r="R53" s="98"/>
+      <c r="S53" s="98"/>
+      <c r="T53" s="98"/>
+      <c r="U53" s="98"/>
+      <c r="V53" s="98"/>
+      <c r="W53" s="98"/>
+      <c r="X53" s="98"/>
+      <c r="Y53" s="98"/>
+      <c r="Z53" s="98"/>
+      <c r="AA53" s="98"/>
+      <c r="AB53" s="98"/>
+      <c r="AC53" s="98"/>
+      <c r="AD53" s="98"/>
+      <c r="AE53" s="98"/>
+      <c r="AF53" s="98"/>
+      <c r="AG53" s="98"/>
+      <c r="AH53" s="98"/>
+      <c r="AI53" s="101"/>
+      <c r="AK53" s="155" t="s">
+        <v>131</v>
+      </c>
       <c r="AL53" s="19"/>
       <c r="AM53" s="19"/>
       <c r="AN53" s="19"/>
@@ -8153,38 +8020,38 @@
     </row>
     <row r="54" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C54" s="19"/>
-      <c r="D54" s="118"/>
-      <c r="E54" s="119"/>
-      <c r="F54" s="119"/>
-      <c r="G54" s="119"/>
-      <c r="H54" s="119"/>
-      <c r="I54" s="119"/>
-      <c r="J54" s="119"/>
-      <c r="K54" s="119"/>
-      <c r="L54" s="119"/>
-      <c r="M54" s="119"/>
-      <c r="N54" s="119"/>
-      <c r="O54" s="119"/>
-      <c r="P54" s="119"/>
-      <c r="Q54" s="119"/>
-      <c r="R54" s="119"/>
-      <c r="S54" s="119"/>
-      <c r="T54" s="119"/>
-      <c r="U54" s="119"/>
-      <c r="V54" s="119"/>
-      <c r="W54" s="119"/>
-      <c r="X54" s="119"/>
-      <c r="Y54" s="119"/>
-      <c r="Z54" s="119"/>
-      <c r="AA54" s="119"/>
-      <c r="AB54" s="119"/>
-      <c r="AC54" s="119"/>
-      <c r="AD54" s="119"/>
-      <c r="AE54" s="119"/>
-      <c r="AF54" s="119"/>
-      <c r="AG54" s="119"/>
-      <c r="AH54" s="119"/>
-      <c r="AI54" s="122"/>
+      <c r="D54" s="97"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="98"/>
+      <c r="G54" s="98"/>
+      <c r="H54" s="98"/>
+      <c r="I54" s="98"/>
+      <c r="J54" s="98"/>
+      <c r="K54" s="98"/>
+      <c r="L54" s="98"/>
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="98"/>
+      <c r="R54" s="98"/>
+      <c r="S54" s="98"/>
+      <c r="T54" s="98"/>
+      <c r="U54" s="98"/>
+      <c r="V54" s="98"/>
+      <c r="W54" s="98"/>
+      <c r="X54" s="98"/>
+      <c r="Y54" s="98"/>
+      <c r="Z54" s="98"/>
+      <c r="AA54" s="98"/>
+      <c r="AB54" s="98"/>
+      <c r="AC54" s="98"/>
+      <c r="AD54" s="98"/>
+      <c r="AE54" s="98"/>
+      <c r="AF54" s="98"/>
+      <c r="AG54" s="98"/>
+      <c r="AH54" s="98"/>
+      <c r="AI54" s="101"/>
       <c r="AK54" s="19"/>
       <c r="AL54" s="19"/>
       <c r="AM54" s="19"/>
@@ -8225,40 +8092,38 @@
     </row>
     <row r="55" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C55" s="19"/>
-      <c r="D55" s="118"/>
-      <c r="E55" s="119"/>
-      <c r="F55" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" s="127"/>
-      <c r="H55" s="127"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="127"/>
-      <c r="K55" s="127"/>
-      <c r="L55" s="127"/>
-      <c r="M55" s="127"/>
-      <c r="N55" s="127"/>
-      <c r="O55" s="127"/>
-      <c r="P55" s="127"/>
-      <c r="Q55" s="127"/>
-      <c r="R55" s="127"/>
-      <c r="S55" s="127"/>
-      <c r="T55" s="127"/>
-      <c r="U55" s="127"/>
-      <c r="V55" s="127"/>
-      <c r="W55" s="127"/>
-      <c r="X55" s="127"/>
-      <c r="Y55" s="127"/>
-      <c r="Z55" s="127"/>
-      <c r="AA55" s="127"/>
-      <c r="AB55" s="127"/>
-      <c r="AC55" s="127"/>
-      <c r="AD55" s="127"/>
-      <c r="AE55" s="127"/>
-      <c r="AF55" s="127"/>
-      <c r="AG55" s="128"/>
-      <c r="AH55" s="119"/>
-      <c r="AI55" s="122"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="98"/>
+      <c r="F55" s="98"/>
+      <c r="G55" s="98"/>
+      <c r="H55" s="98"/>
+      <c r="I55" s="98"/>
+      <c r="J55" s="98"/>
+      <c r="K55" s="98"/>
+      <c r="L55" s="98"/>
+      <c r="M55" s="98"/>
+      <c r="N55" s="98"/>
+      <c r="O55" s="98"/>
+      <c r="P55" s="98"/>
+      <c r="Q55" s="98"/>
+      <c r="R55" s="98"/>
+      <c r="S55" s="98"/>
+      <c r="T55" s="98"/>
+      <c r="U55" s="98"/>
+      <c r="V55" s="98"/>
+      <c r="W55" s="98"/>
+      <c r="X55" s="98"/>
+      <c r="Y55" s="98"/>
+      <c r="Z55" s="98"/>
+      <c r="AA55" s="98"/>
+      <c r="AB55" s="98"/>
+      <c r="AC55" s="98"/>
+      <c r="AD55" s="98"/>
+      <c r="AE55" s="98"/>
+      <c r="AF55" s="98"/>
+      <c r="AG55" s="98"/>
+      <c r="AH55" s="98"/>
+      <c r="AI55" s="101"/>
       <c r="AK55" s="19"/>
       <c r="AL55" s="19"/>
       <c r="AM55" s="19"/>
@@ -8299,40 +8164,38 @@
     </row>
     <row r="56" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C56" s="19"/>
-      <c r="D56" s="118"/>
-      <c r="E56" s="119"/>
-      <c r="F56" s="129" t="s">
-        <v>88</v>
-      </c>
-      <c r="G56" s="130"/>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130"/>
-      <c r="K56" s="130"/>
-      <c r="L56" s="130"/>
-      <c r="M56" s="130"/>
-      <c r="N56" s="130"/>
-      <c r="O56" s="130"/>
-      <c r="P56" s="130"/>
-      <c r="Q56" s="130"/>
-      <c r="R56" s="130"/>
-      <c r="S56" s="130"/>
-      <c r="T56" s="130"/>
-      <c r="U56" s="130"/>
-      <c r="V56" s="130"/>
-      <c r="W56" s="130"/>
-      <c r="X56" s="130"/>
-      <c r="Y56" s="130"/>
-      <c r="Z56" s="130"/>
-      <c r="AA56" s="130"/>
-      <c r="AB56" s="130"/>
-      <c r="AC56" s="130"/>
-      <c r="AD56" s="130"/>
-      <c r="AE56" s="130"/>
-      <c r="AF56" s="130"/>
-      <c r="AG56" s="131"/>
-      <c r="AH56" s="119"/>
-      <c r="AI56" s="122"/>
+      <c r="D56" s="97"/>
+      <c r="E56" s="98"/>
+      <c r="F56" s="98"/>
+      <c r="G56" s="98"/>
+      <c r="H56" s="98"/>
+      <c r="I56" s="98"/>
+      <c r="J56" s="98"/>
+      <c r="K56" s="98"/>
+      <c r="L56" s="98"/>
+      <c r="M56" s="98"/>
+      <c r="N56" s="98"/>
+      <c r="O56" s="98"/>
+      <c r="P56" s="98"/>
+      <c r="Q56" s="98"/>
+      <c r="R56" s="98"/>
+      <c r="S56" s="98"/>
+      <c r="T56" s="98"/>
+      <c r="U56" s="98"/>
+      <c r="V56" s="98"/>
+      <c r="W56" s="98"/>
+      <c r="X56" s="98"/>
+      <c r="Y56" s="98"/>
+      <c r="Z56" s="98"/>
+      <c r="AA56" s="98"/>
+      <c r="AB56" s="98"/>
+      <c r="AC56" s="98"/>
+      <c r="AD56" s="98"/>
+      <c r="AE56" s="98"/>
+      <c r="AF56" s="98"/>
+      <c r="AG56" s="98"/>
+      <c r="AH56" s="98"/>
+      <c r="AI56" s="101"/>
       <c r="AK56" s="19"/>
       <c r="AL56" s="19"/>
       <c r="AM56" s="19"/>
@@ -8373,38 +8236,40 @@
     </row>
     <row r="57" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C57" s="19"/>
-      <c r="D57" s="118"/>
-      <c r="E57" s="119"/>
-      <c r="F57" s="129"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="130"/>
-      <c r="K57" s="130"/>
-      <c r="L57" s="130"/>
-      <c r="M57" s="130"/>
-      <c r="N57" s="130"/>
-      <c r="O57" s="130"/>
-      <c r="P57" s="130"/>
-      <c r="Q57" s="130"/>
-      <c r="R57" s="130"/>
-      <c r="S57" s="130"/>
-      <c r="T57" s="130"/>
-      <c r="U57" s="130"/>
-      <c r="V57" s="130"/>
-      <c r="W57" s="130"/>
-      <c r="X57" s="130"/>
-      <c r="Y57" s="130"/>
-      <c r="Z57" s="130"/>
-      <c r="AA57" s="130"/>
-      <c r="AB57" s="130"/>
-      <c r="AC57" s="130"/>
-      <c r="AD57" s="130"/>
-      <c r="AE57" s="130"/>
-      <c r="AF57" s="130"/>
-      <c r="AG57" s="131"/>
-      <c r="AH57" s="119"/>
-      <c r="AI57" s="122"/>
+      <c r="D57" s="97"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="104" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
+      <c r="J57" s="105"/>
+      <c r="K57" s="105"/>
+      <c r="L57" s="105"/>
+      <c r="M57" s="105"/>
+      <c r="N57" s="105"/>
+      <c r="O57" s="105"/>
+      <c r="P57" s="105"/>
+      <c r="Q57" s="105"/>
+      <c r="R57" s="105"/>
+      <c r="S57" s="105"/>
+      <c r="T57" s="105"/>
+      <c r="U57" s="105"/>
+      <c r="V57" s="105"/>
+      <c r="W57" s="105"/>
+      <c r="X57" s="105"/>
+      <c r="Y57" s="105"/>
+      <c r="Z57" s="105"/>
+      <c r="AA57" s="105"/>
+      <c r="AB57" s="105"/>
+      <c r="AC57" s="105"/>
+      <c r="AD57" s="105"/>
+      <c r="AE57" s="105"/>
+      <c r="AF57" s="105"/>
+      <c r="AG57" s="106"/>
+      <c r="AH57" s="98"/>
+      <c r="AI57" s="101"/>
       <c r="AK57" s="19"/>
       <c r="AL57" s="19"/>
       <c r="AM57" s="19"/>
@@ -8445,38 +8310,40 @@
     </row>
     <row r="58" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C58" s="19"/>
-      <c r="D58" s="118"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="129"/>
-      <c r="G58" s="130"/>
-      <c r="H58" s="130"/>
-      <c r="I58" s="130"/>
-      <c r="J58" s="130"/>
-      <c r="K58" s="130"/>
-      <c r="L58" s="130"/>
-      <c r="M58" s="130"/>
-      <c r="N58" s="130"/>
-      <c r="O58" s="130"/>
-      <c r="P58" s="130"/>
-      <c r="Q58" s="130"/>
-      <c r="R58" s="130"/>
-      <c r="S58" s="130"/>
-      <c r="T58" s="130"/>
-      <c r="U58" s="130"/>
-      <c r="V58" s="130"/>
-      <c r="W58" s="130"/>
-      <c r="X58" s="130"/>
-      <c r="Y58" s="130"/>
-      <c r="Z58" s="130"/>
-      <c r="AA58" s="130"/>
-      <c r="AB58" s="130"/>
-      <c r="AC58" s="130"/>
-      <c r="AD58" s="130"/>
-      <c r="AE58" s="130"/>
-      <c r="AF58" s="130"/>
-      <c r="AG58" s="131"/>
-      <c r="AH58" s="119"/>
-      <c r="AI58" s="122"/>
+      <c r="D58" s="97"/>
+      <c r="E58" s="98"/>
+      <c r="F58" s="107" t="s">
+        <v>82</v>
+      </c>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+      <c r="J58" s="108"/>
+      <c r="K58" s="108"/>
+      <c r="L58" s="108"/>
+      <c r="M58" s="108"/>
+      <c r="N58" s="108"/>
+      <c r="O58" s="108"/>
+      <c r="P58" s="108"/>
+      <c r="Q58" s="108"/>
+      <c r="R58" s="108"/>
+      <c r="S58" s="108"/>
+      <c r="T58" s="108"/>
+      <c r="U58" s="108"/>
+      <c r="V58" s="108"/>
+      <c r="W58" s="108"/>
+      <c r="X58" s="108"/>
+      <c r="Y58" s="108"/>
+      <c r="Z58" s="108"/>
+      <c r="AA58" s="108"/>
+      <c r="AB58" s="108"/>
+      <c r="AC58" s="108"/>
+      <c r="AD58" s="108"/>
+      <c r="AE58" s="108"/>
+      <c r="AF58" s="108"/>
+      <c r="AG58" s="109"/>
+      <c r="AH58" s="98"/>
+      <c r="AI58" s="101"/>
       <c r="AK58" s="19"/>
       <c r="AL58" s="19"/>
       <c r="AM58" s="19"/>
@@ -8517,38 +8384,38 @@
     </row>
     <row r="59" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C59" s="19"/>
-      <c r="D59" s="118"/>
-      <c r="E59" s="119"/>
-      <c r="F59" s="132"/>
-      <c r="G59" s="133"/>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
-      <c r="J59" s="133"/>
-      <c r="K59" s="133"/>
-      <c r="L59" s="133"/>
-      <c r="M59" s="133"/>
-      <c r="N59" s="133"/>
-      <c r="O59" s="133"/>
-      <c r="P59" s="133"/>
-      <c r="Q59" s="133"/>
-      <c r="R59" s="133"/>
-      <c r="S59" s="133"/>
-      <c r="T59" s="133"/>
-      <c r="U59" s="133"/>
-      <c r="V59" s="133"/>
-      <c r="W59" s="133"/>
-      <c r="X59" s="133"/>
-      <c r="Y59" s="133"/>
-      <c r="Z59" s="133"/>
-      <c r="AA59" s="133"/>
-      <c r="AB59" s="133"/>
-      <c r="AC59" s="133"/>
-      <c r="AD59" s="133"/>
-      <c r="AE59" s="133"/>
-      <c r="AF59" s="133"/>
-      <c r="AG59" s="134"/>
-      <c r="AH59" s="119"/>
-      <c r="AI59" s="122"/>
+      <c r="D59" s="97"/>
+      <c r="E59" s="98"/>
+      <c r="F59" s="107"/>
+      <c r="G59" s="108"/>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+      <c r="J59" s="108"/>
+      <c r="K59" s="108"/>
+      <c r="L59" s="108"/>
+      <c r="M59" s="108"/>
+      <c r="N59" s="108"/>
+      <c r="O59" s="108"/>
+      <c r="P59" s="108"/>
+      <c r="Q59" s="108"/>
+      <c r="R59" s="108"/>
+      <c r="S59" s="108"/>
+      <c r="T59" s="108"/>
+      <c r="U59" s="108"/>
+      <c r="V59" s="108"/>
+      <c r="W59" s="108"/>
+      <c r="X59" s="108"/>
+      <c r="Y59" s="108"/>
+      <c r="Z59" s="108"/>
+      <c r="AA59" s="108"/>
+      <c r="AB59" s="108"/>
+      <c r="AC59" s="108"/>
+      <c r="AD59" s="108"/>
+      <c r="AE59" s="108"/>
+      <c r="AF59" s="108"/>
+      <c r="AG59" s="109"/>
+      <c r="AH59" s="98"/>
+      <c r="AI59" s="101"/>
       <c r="AK59" s="19"/>
       <c r="AL59" s="19"/>
       <c r="AM59" s="19"/>
@@ -8589,38 +8456,38 @@
     </row>
     <row r="60" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C60" s="19"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
-      <c r="Q60" s="119"/>
-      <c r="R60" s="119"/>
-      <c r="S60" s="119"/>
-      <c r="T60" s="119"/>
-      <c r="U60" s="119"/>
-      <c r="V60" s="119"/>
-      <c r="W60" s="119"/>
-      <c r="X60" s="119"/>
-      <c r="Y60" s="119"/>
-      <c r="Z60" s="119"/>
-      <c r="AA60" s="119"/>
-      <c r="AB60" s="119"/>
-      <c r="AC60" s="119"/>
-      <c r="AD60" s="119"/>
-      <c r="AE60" s="119"/>
-      <c r="AF60" s="119"/>
-      <c r="AG60" s="119"/>
-      <c r="AH60" s="119"/>
-      <c r="AI60" s="122"/>
+      <c r="D60" s="97"/>
+      <c r="E60" s="98"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+      <c r="J60" s="108"/>
+      <c r="K60" s="108"/>
+      <c r="L60" s="108"/>
+      <c r="M60" s="108"/>
+      <c r="N60" s="108"/>
+      <c r="O60" s="108"/>
+      <c r="P60" s="108"/>
+      <c r="Q60" s="108"/>
+      <c r="R60" s="108"/>
+      <c r="S60" s="108"/>
+      <c r="T60" s="108"/>
+      <c r="U60" s="108"/>
+      <c r="V60" s="108"/>
+      <c r="W60" s="108"/>
+      <c r="X60" s="108"/>
+      <c r="Y60" s="108"/>
+      <c r="Z60" s="108"/>
+      <c r="AA60" s="108"/>
+      <c r="AB60" s="108"/>
+      <c r="AC60" s="108"/>
+      <c r="AD60" s="108"/>
+      <c r="AE60" s="108"/>
+      <c r="AF60" s="108"/>
+      <c r="AG60" s="109"/>
+      <c r="AH60" s="98"/>
+      <c r="AI60" s="101"/>
       <c r="AK60" s="19"/>
       <c r="AL60" s="19"/>
       <c r="AM60" s="19"/>
@@ -8661,40 +8528,38 @@
     </row>
     <row r="61" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C61" s="19"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="119"/>
-      <c r="F61" s="135" t="s">
-        <v>72</v>
-      </c>
-      <c r="G61" s="124"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="124"/>
-      <c r="J61" s="124"/>
-      <c r="K61" s="124"/>
-      <c r="L61" s="124"/>
-      <c r="M61" s="124"/>
-      <c r="N61" s="124"/>
-      <c r="O61" s="124"/>
-      <c r="P61" s="124"/>
-      <c r="Q61" s="124"/>
-      <c r="R61" s="124"/>
-      <c r="S61" s="124"/>
-      <c r="T61" s="124"/>
-      <c r="U61" s="124"/>
-      <c r="V61" s="124"/>
-      <c r="W61" s="124"/>
-      <c r="X61" s="124"/>
-      <c r="Y61" s="124"/>
-      <c r="Z61" s="124"/>
-      <c r="AA61" s="124"/>
-      <c r="AB61" s="124"/>
-      <c r="AC61" s="124"/>
-      <c r="AD61" s="124"/>
-      <c r="AE61" s="124"/>
-      <c r="AF61" s="124"/>
-      <c r="AG61" s="125"/>
-      <c r="AH61" s="119"/>
-      <c r="AI61" s="122"/>
+      <c r="D61" s="97"/>
+      <c r="E61" s="98"/>
+      <c r="F61" s="110"/>
+      <c r="G61" s="111"/>
+      <c r="H61" s="111"/>
+      <c r="I61" s="111"/>
+      <c r="J61" s="111"/>
+      <c r="K61" s="111"/>
+      <c r="L61" s="111"/>
+      <c r="M61" s="111"/>
+      <c r="N61" s="111"/>
+      <c r="O61" s="111"/>
+      <c r="P61" s="111"/>
+      <c r="Q61" s="111"/>
+      <c r="R61" s="111"/>
+      <c r="S61" s="111"/>
+      <c r="T61" s="111"/>
+      <c r="U61" s="111"/>
+      <c r="V61" s="111"/>
+      <c r="W61" s="111"/>
+      <c r="X61" s="111"/>
+      <c r="Y61" s="111"/>
+      <c r="Z61" s="111"/>
+      <c r="AA61" s="111"/>
+      <c r="AB61" s="111"/>
+      <c r="AC61" s="111"/>
+      <c r="AD61" s="111"/>
+      <c r="AE61" s="111"/>
+      <c r="AF61" s="111"/>
+      <c r="AG61" s="112"/>
+      <c r="AH61" s="98"/>
+      <c r="AI61" s="101"/>
       <c r="AK61" s="19"/>
       <c r="AL61" s="19"/>
       <c r="AM61" s="19"/>
@@ -8735,38 +8600,38 @@
     </row>
     <row r="62" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C62" s="19"/>
-      <c r="D62" s="118"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="119"/>
-      <c r="G62" s="119"/>
-      <c r="H62" s="119"/>
-      <c r="I62" s="119"/>
-      <c r="J62" s="119"/>
-      <c r="K62" s="119"/>
-      <c r="L62" s="119"/>
-      <c r="M62" s="119"/>
-      <c r="N62" s="119"/>
-      <c r="O62" s="119"/>
-      <c r="P62" s="119"/>
-      <c r="Q62" s="119"/>
-      <c r="R62" s="119"/>
-      <c r="S62" s="119"/>
-      <c r="T62" s="119"/>
-      <c r="U62" s="119"/>
-      <c r="V62" s="119"/>
-      <c r="W62" s="119"/>
-      <c r="X62" s="119"/>
-      <c r="Y62" s="119"/>
-      <c r="Z62" s="119"/>
-      <c r="AA62" s="119"/>
-      <c r="AB62" s="119"/>
-      <c r="AC62" s="119"/>
-      <c r="AD62" s="119"/>
-      <c r="AE62" s="119"/>
-      <c r="AF62" s="119"/>
-      <c r="AG62" s="119"/>
-      <c r="AH62" s="119"/>
-      <c r="AI62" s="122"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="98"/>
+      <c r="F62" s="98"/>
+      <c r="G62" s="98"/>
+      <c r="H62" s="98"/>
+      <c r="I62" s="98"/>
+      <c r="J62" s="98"/>
+      <c r="K62" s="98"/>
+      <c r="L62" s="98"/>
+      <c r="M62" s="98"/>
+      <c r="N62" s="98"/>
+      <c r="O62" s="98"/>
+      <c r="P62" s="98"/>
+      <c r="Q62" s="98"/>
+      <c r="R62" s="98"/>
+      <c r="S62" s="98"/>
+      <c r="T62" s="98"/>
+      <c r="U62" s="98"/>
+      <c r="V62" s="98"/>
+      <c r="W62" s="98"/>
+      <c r="X62" s="98"/>
+      <c r="Y62" s="98"/>
+      <c r="Z62" s="98"/>
+      <c r="AA62" s="98"/>
+      <c r="AB62" s="98"/>
+      <c r="AC62" s="98"/>
+      <c r="AD62" s="98"/>
+      <c r="AE62" s="98"/>
+      <c r="AF62" s="98"/>
+      <c r="AG62" s="98"/>
+      <c r="AH62" s="98"/>
+      <c r="AI62" s="101"/>
       <c r="AK62" s="19"/>
       <c r="AL62" s="19"/>
       <c r="AM62" s="19"/>
@@ -8807,40 +8672,40 @@
     </row>
     <row r="63" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C63" s="19"/>
-      <c r="D63" s="118"/>
-      <c r="E63" s="119"/>
-      <c r="F63" s="135" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" s="124"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="124"/>
-      <c r="J63" s="124"/>
-      <c r="K63" s="124"/>
-      <c r="L63" s="124"/>
-      <c r="M63" s="124"/>
-      <c r="N63" s="124"/>
-      <c r="O63" s="124"/>
-      <c r="P63" s="124"/>
-      <c r="Q63" s="124"/>
-      <c r="R63" s="124"/>
-      <c r="S63" s="124"/>
-      <c r="T63" s="124"/>
-      <c r="U63" s="124"/>
-      <c r="V63" s="124"/>
-      <c r="W63" s="124"/>
-      <c r="X63" s="124"/>
-      <c r="Y63" s="124"/>
-      <c r="Z63" s="124"/>
-      <c r="AA63" s="124"/>
-      <c r="AB63" s="124"/>
-      <c r="AC63" s="124"/>
-      <c r="AD63" s="124"/>
-      <c r="AE63" s="124"/>
-      <c r="AF63" s="124"/>
-      <c r="AG63" s="125"/>
-      <c r="AH63" s="119"/>
-      <c r="AI63" s="122"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="G63" s="102"/>
+      <c r="H63" s="102"/>
+      <c r="I63" s="102"/>
+      <c r="J63" s="102"/>
+      <c r="K63" s="102"/>
+      <c r="L63" s="102"/>
+      <c r="M63" s="102"/>
+      <c r="N63" s="102"/>
+      <c r="O63" s="102"/>
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="102"/>
+      <c r="S63" s="102"/>
+      <c r="T63" s="102"/>
+      <c r="U63" s="102"/>
+      <c r="V63" s="102"/>
+      <c r="W63" s="102"/>
+      <c r="X63" s="102"/>
+      <c r="Y63" s="102"/>
+      <c r="Z63" s="102"/>
+      <c r="AA63" s="102"/>
+      <c r="AB63" s="102"/>
+      <c r="AC63" s="102"/>
+      <c r="AD63" s="102"/>
+      <c r="AE63" s="102"/>
+      <c r="AF63" s="102"/>
+      <c r="AG63" s="103"/>
+      <c r="AH63" s="98"/>
+      <c r="AI63" s="101"/>
       <c r="AK63" s="19"/>
       <c r="AL63" s="19"/>
       <c r="AM63" s="19"/>
@@ -8881,40 +8746,38 @@
     </row>
     <row r="64" spans="3:73" x14ac:dyDescent="0.25">
       <c r="C64" s="19"/>
-      <c r="D64" s="118"/>
-      <c r="E64" s="119"/>
-      <c r="F64" s="144" t="s">
-        <v>93</v>
-      </c>
-      <c r="G64" s="119"/>
-      <c r="H64" s="119"/>
-      <c r="I64" s="119"/>
-      <c r="J64" s="119"/>
-      <c r="K64" s="119"/>
-      <c r="L64" s="119"/>
-      <c r="M64" s="119"/>
-      <c r="N64" s="119"/>
-      <c r="O64" s="119"/>
-      <c r="P64" s="119"/>
-      <c r="Q64" s="119"/>
-      <c r="R64" s="119"/>
-      <c r="S64" s="119"/>
-      <c r="T64" s="119"/>
-      <c r="U64" s="119"/>
-      <c r="V64" s="119"/>
-      <c r="W64" s="119"/>
-      <c r="X64" s="119"/>
-      <c r="Y64" s="119"/>
-      <c r="Z64" s="119"/>
-      <c r="AA64" s="119"/>
-      <c r="AB64" s="119"/>
-      <c r="AC64" s="119"/>
-      <c r="AD64" s="119"/>
-      <c r="AE64" s="119"/>
-      <c r="AF64" s="119"/>
-      <c r="AG64" s="119"/>
-      <c r="AH64" s="119"/>
-      <c r="AI64" s="122"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
+      <c r="H64" s="98"/>
+      <c r="I64" s="98"/>
+      <c r="J64" s="98"/>
+      <c r="K64" s="98"/>
+      <c r="L64" s="98"/>
+      <c r="M64" s="98"/>
+      <c r="N64" s="98"/>
+      <c r="O64" s="98"/>
+      <c r="P64" s="98"/>
+      <c r="Q64" s="98"/>
+      <c r="R64" s="98"/>
+      <c r="S64" s="98"/>
+      <c r="T64" s="98"/>
+      <c r="U64" s="98"/>
+      <c r="V64" s="98"/>
+      <c r="W64" s="98"/>
+      <c r="X64" s="98"/>
+      <c r="Y64" s="98"/>
+      <c r="Z64" s="98"/>
+      <c r="AA64" s="98"/>
+      <c r="AB64" s="98"/>
+      <c r="AC64" s="98"/>
+      <c r="AD64" s="98"/>
+      <c r="AE64" s="98"/>
+      <c r="AF64" s="98"/>
+      <c r="AG64" s="98"/>
+      <c r="AH64" s="98"/>
+      <c r="AI64" s="101"/>
       <c r="AK64" s="19"/>
       <c r="AL64" s="19"/>
       <c r="AM64" s="19"/>
@@ -8955,38 +8818,40 @@
     </row>
     <row r="65" spans="2:73" x14ac:dyDescent="0.25">
       <c r="C65" s="19"/>
-      <c r="D65" s="118"/>
-      <c r="E65" s="119"/>
-      <c r="F65" s="119"/>
-      <c r="G65" s="119"/>
-      <c r="H65" s="119"/>
-      <c r="I65" s="119"/>
-      <c r="J65" s="119"/>
-      <c r="K65" s="119"/>
-      <c r="L65" s="119"/>
-      <c r="M65" s="119"/>
-      <c r="N65" s="119"/>
-      <c r="O65" s="119"/>
-      <c r="P65" s="119"/>
-      <c r="Q65" s="119"/>
-      <c r="R65" s="119"/>
-      <c r="S65" s="119"/>
-      <c r="T65" s="119"/>
-      <c r="U65" s="119"/>
-      <c r="V65" s="119"/>
-      <c r="W65" s="119"/>
-      <c r="X65" s="119"/>
-      <c r="Y65" s="119"/>
-      <c r="Z65" s="119"/>
-      <c r="AA65" s="119"/>
-      <c r="AB65" s="119"/>
-      <c r="AC65" s="119"/>
-      <c r="AD65" s="119"/>
-      <c r="AE65" s="119"/>
-      <c r="AF65" s="119"/>
-      <c r="AG65" s="119"/>
-      <c r="AH65" s="119"/>
-      <c r="AI65" s="122"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="113" t="s">
+        <v>120</v>
+      </c>
+      <c r="G65" s="102"/>
+      <c r="H65" s="102"/>
+      <c r="I65" s="102"/>
+      <c r="J65" s="102"/>
+      <c r="K65" s="102"/>
+      <c r="L65" s="102"/>
+      <c r="M65" s="102"/>
+      <c r="N65" s="102"/>
+      <c r="O65" s="102"/>
+      <c r="P65" s="102"/>
+      <c r="Q65" s="102"/>
+      <c r="R65" s="102"/>
+      <c r="S65" s="102"/>
+      <c r="T65" s="102"/>
+      <c r="U65" s="102"/>
+      <c r="V65" s="102"/>
+      <c r="W65" s="102"/>
+      <c r="X65" s="102"/>
+      <c r="Y65" s="102"/>
+      <c r="Z65" s="102"/>
+      <c r="AA65" s="102"/>
+      <c r="AB65" s="102"/>
+      <c r="AC65" s="102"/>
+      <c r="AD65" s="102"/>
+      <c r="AE65" s="102"/>
+      <c r="AF65" s="102"/>
+      <c r="AG65" s="103"/>
+      <c r="AH65" s="98"/>
+      <c r="AI65" s="101"/>
       <c r="AK65" s="19"/>
       <c r="AL65" s="19"/>
       <c r="AM65" s="19"/>
@@ -9027,38 +8892,40 @@
     </row>
     <row r="66" spans="2:73" x14ac:dyDescent="0.25">
       <c r="C66" s="19"/>
-      <c r="D66" s="118"/>
-      <c r="E66" s="119"/>
-      <c r="F66" s="119"/>
-      <c r="G66" s="119"/>
-      <c r="H66" s="119"/>
-      <c r="I66" s="119"/>
-      <c r="J66" s="119"/>
-      <c r="K66" s="119"/>
-      <c r="L66" s="119"/>
-      <c r="M66" s="119"/>
-      <c r="N66" s="119"/>
-      <c r="O66" s="119"/>
-      <c r="P66" s="119"/>
-      <c r="Q66" s="119"/>
-      <c r="R66" s="119"/>
-      <c r="S66" s="119"/>
-      <c r="T66" s="119"/>
-      <c r="U66" s="119"/>
-      <c r="V66" s="119"/>
-      <c r="W66" s="119"/>
-      <c r="X66" s="119"/>
-      <c r="Y66" s="119"/>
-      <c r="Z66" s="119"/>
-      <c r="AA66" s="119"/>
-      <c r="AB66" s="119"/>
-      <c r="AC66" s="119"/>
-      <c r="AD66" s="119"/>
-      <c r="AE66" s="119"/>
-      <c r="AF66" s="119"/>
-      <c r="AG66" s="119"/>
-      <c r="AH66" s="119"/>
-      <c r="AI66" s="122"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="116" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="98"/>
+      <c r="H66" s="98"/>
+      <c r="I66" s="98"/>
+      <c r="J66" s="98"/>
+      <c r="K66" s="98"/>
+      <c r="L66" s="98"/>
+      <c r="M66" s="98"/>
+      <c r="N66" s="98"/>
+      <c r="O66" s="98"/>
+      <c r="P66" s="98"/>
+      <c r="Q66" s="98"/>
+      <c r="R66" s="98"/>
+      <c r="S66" s="98"/>
+      <c r="T66" s="98"/>
+      <c r="U66" s="98"/>
+      <c r="V66" s="98"/>
+      <c r="W66" s="98"/>
+      <c r="X66" s="98"/>
+      <c r="Y66" s="98"/>
+      <c r="Z66" s="98"/>
+      <c r="AA66" s="98"/>
+      <c r="AB66" s="98"/>
+      <c r="AC66" s="98"/>
+      <c r="AD66" s="98"/>
+      <c r="AE66" s="98"/>
+      <c r="AF66" s="98"/>
+      <c r="AG66" s="98"/>
+      <c r="AH66" s="98"/>
+      <c r="AI66" s="101"/>
       <c r="AK66" s="19"/>
       <c r="AL66" s="19"/>
       <c r="AM66" s="19"/>
@@ -9099,38 +8966,38 @@
     </row>
     <row r="67" spans="2:73" x14ac:dyDescent="0.25">
       <c r="C67" s="19"/>
-      <c r="D67" s="118"/>
-      <c r="E67" s="119"/>
-      <c r="F67" s="119"/>
-      <c r="G67" s="119"/>
-      <c r="H67" s="119"/>
-      <c r="I67" s="119"/>
-      <c r="J67" s="119"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="119"/>
-      <c r="M67" s="119"/>
-      <c r="N67" s="119"/>
-      <c r="O67" s="119"/>
-      <c r="P67" s="119"/>
-      <c r="Q67" s="119"/>
-      <c r="R67" s="119"/>
-      <c r="S67" s="119"/>
-      <c r="T67" s="119"/>
-      <c r="U67" s="119"/>
-      <c r="V67" s="119"/>
-      <c r="W67" s="119"/>
-      <c r="X67" s="119"/>
-      <c r="Y67" s="119"/>
-      <c r="Z67" s="119"/>
-      <c r="AA67" s="119"/>
-      <c r="AB67" s="119"/>
-      <c r="AC67" s="119"/>
-      <c r="AD67" s="119"/>
-      <c r="AE67" s="119"/>
-      <c r="AF67" s="119"/>
-      <c r="AG67" s="119"/>
-      <c r="AH67" s="119"/>
-      <c r="AI67" s="122"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="98"/>
+      <c r="H67" s="98"/>
+      <c r="I67" s="98"/>
+      <c r="J67" s="98"/>
+      <c r="K67" s="98"/>
+      <c r="L67" s="98"/>
+      <c r="M67" s="98"/>
+      <c r="N67" s="98"/>
+      <c r="O67" s="98"/>
+      <c r="P67" s="98"/>
+      <c r="Q67" s="98"/>
+      <c r="R67" s="98"/>
+      <c r="S67" s="98"/>
+      <c r="T67" s="98"/>
+      <c r="U67" s="98"/>
+      <c r="V67" s="98"/>
+      <c r="W67" s="98"/>
+      <c r="X67" s="98"/>
+      <c r="Y67" s="98"/>
+      <c r="Z67" s="98"/>
+      <c r="AA67" s="98"/>
+      <c r="AB67" s="98"/>
+      <c r="AC67" s="98"/>
+      <c r="AD67" s="98"/>
+      <c r="AE67" s="98"/>
+      <c r="AF67" s="98"/>
+      <c r="AG67" s="98"/>
+      <c r="AH67" s="98"/>
+      <c r="AI67" s="101"/>
       <c r="AK67" s="19"/>
       <c r="AL67" s="19"/>
       <c r="AM67" s="19"/>
@@ -9171,38 +9038,38 @@
     </row>
     <row r="68" spans="2:73" x14ac:dyDescent="0.25">
       <c r="C68" s="19"/>
-      <c r="D68" s="118"/>
-      <c r="E68" s="119"/>
-      <c r="F68" s="119"/>
-      <c r="G68" s="119"/>
-      <c r="H68" s="119"/>
-      <c r="I68" s="119"/>
-      <c r="J68" s="119"/>
-      <c r="K68" s="119"/>
-      <c r="L68" s="119"/>
-      <c r="M68" s="119"/>
-      <c r="N68" s="119"/>
-      <c r="O68" s="119"/>
-      <c r="P68" s="119"/>
-      <c r="Q68" s="119"/>
-      <c r="R68" s="119"/>
-      <c r="S68" s="119"/>
-      <c r="T68" s="119"/>
-      <c r="U68" s="119"/>
-      <c r="V68" s="119"/>
-      <c r="W68" s="119"/>
-      <c r="X68" s="119"/>
-      <c r="Y68" s="119"/>
-      <c r="Z68" s="119"/>
-      <c r="AA68" s="119"/>
-      <c r="AB68" s="119"/>
-      <c r="AC68" s="119"/>
-      <c r="AD68" s="119"/>
-      <c r="AE68" s="119"/>
-      <c r="AF68" s="119"/>
-      <c r="AG68" s="119"/>
-      <c r="AH68" s="119"/>
-      <c r="AI68" s="122"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="98"/>
+      <c r="F68" s="98"/>
+      <c r="G68" s="98"/>
+      <c r="H68" s="98"/>
+      <c r="I68" s="98"/>
+      <c r="J68" s="98"/>
+      <c r="K68" s="98"/>
+      <c r="L68" s="98"/>
+      <c r="M68" s="98"/>
+      <c r="N68" s="98"/>
+      <c r="O68" s="98"/>
+      <c r="P68" s="98"/>
+      <c r="Q68" s="98"/>
+      <c r="R68" s="98"/>
+      <c r="S68" s="98"/>
+      <c r="T68" s="98"/>
+      <c r="U68" s="98"/>
+      <c r="V68" s="98"/>
+      <c r="W68" s="98"/>
+      <c r="X68" s="98"/>
+      <c r="Y68" s="98"/>
+      <c r="Z68" s="98"/>
+      <c r="AA68" s="98"/>
+      <c r="AB68" s="98"/>
+      <c r="AC68" s="98"/>
+      <c r="AD68" s="98"/>
+      <c r="AE68" s="98"/>
+      <c r="AF68" s="98"/>
+      <c r="AG68" s="98"/>
+      <c r="AH68" s="98"/>
+      <c r="AI68" s="101"/>
       <c r="AK68" s="19"/>
       <c r="AL68" s="19"/>
       <c r="AM68" s="19"/>
@@ -9243,38 +9110,38 @@
     </row>
     <row r="69" spans="2:73" x14ac:dyDescent="0.25">
       <c r="C69" s="19"/>
-      <c r="D69" s="136"/>
-      <c r="E69" s="121"/>
-      <c r="F69" s="121"/>
-      <c r="G69" s="121"/>
-      <c r="H69" s="121"/>
-      <c r="I69" s="121"/>
-      <c r="J69" s="121"/>
-      <c r="K69" s="121"/>
-      <c r="L69" s="121"/>
-      <c r="M69" s="121"/>
-      <c r="N69" s="121"/>
-      <c r="O69" s="121"/>
-      <c r="P69" s="121"/>
-      <c r="Q69" s="121"/>
-      <c r="R69" s="121"/>
-      <c r="S69" s="121"/>
-      <c r="T69" s="121"/>
-      <c r="U69" s="121"/>
-      <c r="V69" s="121"/>
-      <c r="W69" s="121"/>
-      <c r="X69" s="121"/>
-      <c r="Y69" s="121"/>
-      <c r="Z69" s="121"/>
-      <c r="AA69" s="121"/>
-      <c r="AB69" s="121"/>
-      <c r="AC69" s="121"/>
-      <c r="AD69" s="121"/>
-      <c r="AE69" s="121"/>
-      <c r="AF69" s="121"/>
-      <c r="AG69" s="121"/>
-      <c r="AH69" s="121"/>
-      <c r="AI69" s="137"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="98"/>
+      <c r="F69" s="98"/>
+      <c r="G69" s="98"/>
+      <c r="H69" s="98"/>
+      <c r="I69" s="98"/>
+      <c r="J69" s="98"/>
+      <c r="K69" s="98"/>
+      <c r="L69" s="98"/>
+      <c r="M69" s="98"/>
+      <c r="N69" s="98"/>
+      <c r="O69" s="98"/>
+      <c r="P69" s="98"/>
+      <c r="Q69" s="98"/>
+      <c r="R69" s="98"/>
+      <c r="S69" s="98"/>
+      <c r="T69" s="98"/>
+      <c r="U69" s="98"/>
+      <c r="V69" s="98"/>
+      <c r="W69" s="98"/>
+      <c r="X69" s="98"/>
+      <c r="Y69" s="98"/>
+      <c r="Z69" s="98"/>
+      <c r="AA69" s="98"/>
+      <c r="AB69" s="98"/>
+      <c r="AC69" s="98"/>
+      <c r="AD69" s="98"/>
+      <c r="AE69" s="98"/>
+      <c r="AF69" s="98"/>
+      <c r="AG69" s="98"/>
+      <c r="AH69" s="98"/>
+      <c r="AI69" s="101"/>
       <c r="AK69" s="19"/>
       <c r="AL69" s="19"/>
       <c r="AM69" s="19"/>
@@ -9315,39 +9182,38 @@
     </row>
     <row r="70" spans="2:73" x14ac:dyDescent="0.25">
       <c r="C70" s="19"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="19"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="19"/>
-      <c r="M70" s="19"/>
-      <c r="N70" s="19"/>
-      <c r="O70" s="19"/>
-      <c r="P70" s="19"/>
-      <c r="Q70" s="19"/>
-      <c r="R70" s="19"/>
-      <c r="S70" s="19"/>
-      <c r="T70" s="19"/>
-      <c r="U70" s="19"/>
-      <c r="V70" s="19"/>
-      <c r="W70" s="19"/>
-      <c r="X70" s="19"/>
-      <c r="Y70" s="19"/>
-      <c r="Z70" s="19"/>
-      <c r="AA70" s="19"/>
-      <c r="AB70" s="19"/>
-      <c r="AC70" s="19"/>
-      <c r="AD70" s="19"/>
-      <c r="AE70" s="19"/>
-      <c r="AF70" s="19"/>
-      <c r="AG70" s="19"/>
-      <c r="AH70" s="19"/>
-      <c r="AI70" s="19"/>
-      <c r="AJ70" s="19"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="98"/>
+      <c r="F70" s="98"/>
+      <c r="G70" s="98"/>
+      <c r="H70" s="98"/>
+      <c r="I70" s="98"/>
+      <c r="J70" s="98"/>
+      <c r="K70" s="98"/>
+      <c r="L70" s="98"/>
+      <c r="M70" s="98"/>
+      <c r="N70" s="98"/>
+      <c r="O70" s="98"/>
+      <c r="P70" s="98"/>
+      <c r="Q70" s="98"/>
+      <c r="R70" s="98"/>
+      <c r="S70" s="98"/>
+      <c r="T70" s="98"/>
+      <c r="U70" s="98"/>
+      <c r="V70" s="98"/>
+      <c r="W70" s="98"/>
+      <c r="X70" s="98"/>
+      <c r="Y70" s="98"/>
+      <c r="Z70" s="98"/>
+      <c r="AA70" s="98"/>
+      <c r="AB70" s="98"/>
+      <c r="AC70" s="98"/>
+      <c r="AD70" s="98"/>
+      <c r="AE70" s="98"/>
+      <c r="AF70" s="98"/>
+      <c r="AG70" s="98"/>
+      <c r="AH70" s="98"/>
+      <c r="AI70" s="101"/>
       <c r="AK70" s="19"/>
       <c r="AL70" s="19"/>
       <c r="AM70" s="19"/>
@@ -9388,39 +9254,38 @@
     </row>
     <row r="71" spans="2:73" x14ac:dyDescent="0.25">
       <c r="C71" s="19"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="19"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="19"/>
-      <c r="M71" s="19"/>
-      <c r="N71" s="19"/>
-      <c r="O71" s="19"/>
-      <c r="P71" s="19"/>
-      <c r="Q71" s="19"/>
-      <c r="R71" s="19"/>
-      <c r="S71" s="19"/>
-      <c r="T71" s="19"/>
-      <c r="U71" s="19"/>
-      <c r="V71" s="19"/>
-      <c r="W71" s="19"/>
-      <c r="X71" s="19"/>
-      <c r="Y71" s="19"/>
-      <c r="Z71" s="19"/>
-      <c r="AA71" s="19"/>
-      <c r="AB71" s="19"/>
-      <c r="AC71" s="19"/>
-      <c r="AD71" s="19"/>
-      <c r="AE71" s="19"/>
-      <c r="AF71" s="19"/>
-      <c r="AG71" s="19"/>
-      <c r="AH71" s="19"/>
-      <c r="AI71" s="19"/>
-      <c r="AJ71" s="19"/>
+      <c r="D71" s="114"/>
+      <c r="E71" s="100"/>
+      <c r="F71" s="100"/>
+      <c r="G71" s="100"/>
+      <c r="H71" s="100"/>
+      <c r="I71" s="100"/>
+      <c r="J71" s="100"/>
+      <c r="K71" s="100"/>
+      <c r="L71" s="100"/>
+      <c r="M71" s="100"/>
+      <c r="N71" s="100"/>
+      <c r="O71" s="100"/>
+      <c r="P71" s="100"/>
+      <c r="Q71" s="100"/>
+      <c r="R71" s="100"/>
+      <c r="S71" s="100"/>
+      <c r="T71" s="100"/>
+      <c r="U71" s="100"/>
+      <c r="V71" s="100"/>
+      <c r="W71" s="100"/>
+      <c r="X71" s="100"/>
+      <c r="Y71" s="100"/>
+      <c r="Z71" s="100"/>
+      <c r="AA71" s="100"/>
+      <c r="AB71" s="100"/>
+      <c r="AC71" s="100"/>
+      <c r="AD71" s="100"/>
+      <c r="AE71" s="100"/>
+      <c r="AF71" s="100"/>
+      <c r="AG71" s="100"/>
+      <c r="AH71" s="100"/>
+      <c r="AI71" s="115"/>
       <c r="AK71" s="19"/>
       <c r="AL71" s="19"/>
       <c r="AM71" s="19"/>
@@ -9460,9 +9325,7 @@
       <c r="BU71" s="19"/>
     </row>
     <row r="72" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C72" s="19" t="s">
-        <v>76</v>
-      </c>
+      <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
       <c r="F72" s="19"/>
@@ -9535,560 +9398,526 @@
       <c r="BU72" s="19"/>
     </row>
     <row r="73" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C73" s="106" t="s">
+      <c r="C73" s="19"/>
+      <c r="D73" s="19"/>
+      <c r="E73" s="19"/>
+      <c r="F73" s="19"/>
+      <c r="G73" s="19"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="19"/>
+      <c r="M73" s="19"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="19"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="19"/>
+      <c r="R73" s="19"/>
+      <c r="S73" s="19"/>
+      <c r="T73" s="19"/>
+      <c r="U73" s="19"/>
+      <c r="V73" s="19"/>
+      <c r="W73" s="19"/>
+      <c r="X73" s="19"/>
+      <c r="Y73" s="19"/>
+      <c r="Z73" s="19"/>
+      <c r="AA73" s="19"/>
+      <c r="AB73" s="19"/>
+      <c r="AC73" s="19"/>
+      <c r="AD73" s="19"/>
+      <c r="AE73" s="19"/>
+      <c r="AF73" s="19"/>
+      <c r="AG73" s="19"/>
+      <c r="AH73" s="19"/>
+      <c r="AI73" s="19"/>
+      <c r="AJ73" s="19"/>
+      <c r="AK73" s="19"/>
+      <c r="AL73" s="19"/>
+      <c r="AM73" s="19"/>
+      <c r="AN73" s="19"/>
+      <c r="AO73" s="19"/>
+      <c r="AP73" s="19"/>
+      <c r="AQ73" s="19"/>
+      <c r="AR73" s="19"/>
+      <c r="AS73" s="19"/>
+      <c r="AT73" s="19"/>
+      <c r="AU73" s="19"/>
+      <c r="AV73" s="19"/>
+      <c r="AW73" s="19"/>
+      <c r="AX73" s="19"/>
+      <c r="AY73" s="19"/>
+      <c r="AZ73" s="19"/>
+      <c r="BA73" s="19"/>
+      <c r="BB73" s="19"/>
+      <c r="BC73" s="19"/>
+      <c r="BD73" s="19"/>
+      <c r="BE73" s="19"/>
+      <c r="BF73" s="19"/>
+      <c r="BG73" s="19"/>
+      <c r="BH73" s="19"/>
+      <c r="BI73" s="19"/>
+      <c r="BJ73" s="19"/>
+      <c r="BK73" s="19"/>
+      <c r="BL73" s="19"/>
+      <c r="BM73" s="19"/>
+      <c r="BN73" s="19"/>
+      <c r="BO73" s="19"/>
+      <c r="BP73" s="19"/>
+      <c r="BQ73" s="19"/>
+      <c r="BR73" s="19"/>
+      <c r="BS73" s="19"/>
+      <c r="BT73" s="19"/>
+      <c r="BU73" s="19"/>
+    </row>
+    <row r="74" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C74" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D74" s="19"/>
+      <c r="E74" s="19"/>
+      <c r="F74" s="19"/>
+      <c r="G74" s="19"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="19"/>
+      <c r="M74" s="19"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="19"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="19"/>
+      <c r="R74" s="19"/>
+      <c r="S74" s="19"/>
+      <c r="T74" s="19"/>
+      <c r="U74" s="19"/>
+      <c r="V74" s="19"/>
+      <c r="W74" s="19"/>
+      <c r="X74" s="19"/>
+      <c r="Y74" s="19"/>
+      <c r="Z74" s="19"/>
+      <c r="AA74" s="19"/>
+      <c r="AB74" s="19"/>
+      <c r="AC74" s="19"/>
+      <c r="AD74" s="19"/>
+      <c r="AE74" s="19"/>
+      <c r="AF74" s="19"/>
+      <c r="AG74" s="19"/>
+      <c r="AH74" s="19"/>
+      <c r="AI74" s="19"/>
+      <c r="AJ74" s="19"/>
+      <c r="AK74" s="19"/>
+      <c r="AL74" s="19"/>
+      <c r="AM74" s="19"/>
+      <c r="AN74" s="19"/>
+      <c r="AO74" s="19"/>
+      <c r="AP74" s="19"/>
+      <c r="AQ74" s="19"/>
+      <c r="AR74" s="19"/>
+      <c r="AS74" s="19"/>
+      <c r="AT74" s="19"/>
+      <c r="AU74" s="19"/>
+      <c r="AV74" s="19"/>
+      <c r="AW74" s="19"/>
+      <c r="AX74" s="19"/>
+      <c r="AY74" s="19"/>
+      <c r="AZ74" s="19"/>
+      <c r="BA74" s="19"/>
+      <c r="BB74" s="19"/>
+      <c r="BC74" s="19"/>
+      <c r="BD74" s="19"/>
+      <c r="BE74" s="19"/>
+      <c r="BF74" s="19"/>
+      <c r="BG74" s="19"/>
+      <c r="BH74" s="19"/>
+      <c r="BI74" s="19"/>
+      <c r="BJ74" s="19"/>
+      <c r="BK74" s="19"/>
+      <c r="BL74" s="19"/>
+      <c r="BM74" s="19"/>
+      <c r="BN74" s="19"/>
+      <c r="BO74" s="19"/>
+      <c r="BP74" s="19"/>
+      <c r="BQ74" s="19"/>
+      <c r="BR74" s="19"/>
+      <c r="BS74" s="19"/>
+      <c r="BT74" s="19"/>
+      <c r="BU74" s="19"/>
+    </row>
+    <row r="75" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C75" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="107"/>
-      <c r="E73" s="32" t="s">
+      <c r="D75" s="138"/>
+      <c r="E75" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="33"/>
-      <c r="N73" s="32" t="s">
+      <c r="F75" s="34"/>
+      <c r="G75" s="34"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
+      <c r="L75" s="34"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="34"/>
-      <c r="V73" s="34"/>
-      <c r="W73" s="34"/>
-      <c r="X73" s="34"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="34"/>
-      <c r="AC73" s="34"/>
-      <c r="AD73" s="34"/>
-      <c r="AE73" s="34"/>
-      <c r="AF73" s="32" t="s">
+      <c r="O75" s="34"/>
+      <c r="P75" s="34"/>
+      <c r="Q75" s="34"/>
+      <c r="R75" s="34"/>
+      <c r="S75" s="34"/>
+      <c r="T75" s="34"/>
+      <c r="U75" s="34"/>
+      <c r="V75" s="34"/>
+      <c r="W75" s="34"/>
+      <c r="X75" s="34"/>
+      <c r="Y75" s="34"/>
+      <c r="Z75" s="34"/>
+      <c r="AA75" s="34"/>
+      <c r="AB75" s="34"/>
+      <c r="AC75" s="34"/>
+      <c r="AD75" s="34"/>
+      <c r="AE75" s="34"/>
+      <c r="AF75" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AG73" s="34"/>
-      <c r="AH73" s="34"/>
-      <c r="AI73" s="34"/>
-      <c r="AJ73" s="34"/>
-      <c r="AK73" s="34"/>
-      <c r="AL73" s="34"/>
-      <c r="AM73" s="34"/>
-      <c r="AN73" s="34"/>
-      <c r="AO73" s="32" t="s">
+      <c r="AG75" s="34"/>
+      <c r="AH75" s="34"/>
+      <c r="AI75" s="34"/>
+      <c r="AJ75" s="34"/>
+      <c r="AK75" s="34"/>
+      <c r="AL75" s="34"/>
+      <c r="AM75" s="34"/>
+      <c r="AN75" s="34"/>
+      <c r="AO75" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AP73" s="34"/>
-      <c r="AQ73" s="34"/>
-      <c r="AR73" s="34"/>
-      <c r="AS73" s="34"/>
-      <c r="AT73" s="32" t="s">
+      <c r="AP75" s="34"/>
+      <c r="AQ75" s="34"/>
+      <c r="AR75" s="34"/>
+      <c r="AS75" s="34"/>
+      <c r="AT75" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="AU73" s="34"/>
-      <c r="AV73" s="34"/>
-      <c r="AW73" s="34"/>
-      <c r="AX73" s="32" t="s">
+      <c r="AU75" s="34"/>
+      <c r="AV75" s="34"/>
+      <c r="AW75" s="34"/>
+      <c r="AX75" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="AY73" s="34"/>
-      <c r="AZ73" s="34"/>
-      <c r="BA73" s="34"/>
-      <c r="BB73" s="34"/>
-      <c r="BC73" s="33"/>
-      <c r="BD73" s="32" t="s">
+      <c r="AY75" s="34"/>
+      <c r="AZ75" s="34"/>
+      <c r="BA75" s="34"/>
+      <c r="BB75" s="34"/>
+      <c r="BC75" s="33"/>
+      <c r="BD75" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="BE73" s="34"/>
-      <c r="BF73" s="32" t="s">
+      <c r="BE75" s="34"/>
+      <c r="BF75" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="BG73" s="34"/>
-      <c r="BH73" s="34"/>
-      <c r="BI73" s="34"/>
-      <c r="BJ73" s="34"/>
-      <c r="BK73" s="34"/>
-      <c r="BL73" s="34"/>
-      <c r="BM73" s="34"/>
-      <c r="BN73" s="34"/>
-      <c r="BO73" s="34"/>
-      <c r="BP73" s="34"/>
-      <c r="BQ73" s="34"/>
-      <c r="BR73" s="34"/>
-      <c r="BS73" s="34"/>
-      <c r="BT73" s="34"/>
-      <c r="BU73" s="33"/>
-    </row>
-    <row r="74" spans="2:73" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="35"/>
-      <c r="C74" s="97">
-        <f>ROW()-ROW($C$73)</f>
-        <v>1</v>
-      </c>
-      <c r="D74" s="98"/>
-      <c r="E74" s="102" t="s">
-        <v>77</v>
-      </c>
-      <c r="F74" s="103"/>
-      <c r="G74" s="103"/>
-      <c r="H74" s="103"/>
-      <c r="I74" s="103"/>
-      <c r="J74" s="103"/>
-      <c r="K74" s="103"/>
-      <c r="L74" s="103"/>
-      <c r="M74" s="104"/>
-      <c r="N74" s="99" t="s">
-        <v>78</v>
-      </c>
-      <c r="O74" s="100"/>
-      <c r="P74" s="100"/>
-      <c r="Q74" s="100"/>
-      <c r="R74" s="100"/>
-      <c r="S74" s="100"/>
-      <c r="T74" s="100"/>
-      <c r="U74" s="100"/>
-      <c r="V74" s="100"/>
-      <c r="W74" s="100"/>
-      <c r="X74" s="100"/>
-      <c r="Y74" s="100"/>
-      <c r="Z74" s="100"/>
-      <c r="AA74" s="100"/>
-      <c r="AB74" s="100"/>
-      <c r="AC74" s="100"/>
-      <c r="AD74" s="100"/>
-      <c r="AE74" s="101"/>
-      <c r="AF74" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG74" s="95"/>
-      <c r="AH74" s="95"/>
-      <c r="AI74" s="95"/>
-      <c r="AJ74" s="95"/>
-      <c r="AK74" s="95"/>
-      <c r="AL74" s="95"/>
-      <c r="AM74" s="95"/>
-      <c r="AN74" s="96"/>
-      <c r="AO74" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP74" s="95"/>
-      <c r="AQ74" s="95"/>
-      <c r="AR74" s="95"/>
-      <c r="AS74" s="96"/>
-      <c r="AT74" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU74" s="95"/>
-      <c r="AV74" s="95"/>
-      <c r="AW74" s="96"/>
-      <c r="AX74" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY74" s="95"/>
-      <c r="AZ74" s="95"/>
-      <c r="BA74" s="95"/>
-      <c r="BB74" s="95"/>
-      <c r="BC74" s="96"/>
-      <c r="BD74" s="94" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE74" s="96"/>
-      <c r="BF74" s="105"/>
-      <c r="BG74" s="95"/>
-      <c r="BH74" s="95"/>
-      <c r="BI74" s="95"/>
-      <c r="BJ74" s="95"/>
-      <c r="BK74" s="95"/>
-      <c r="BL74" s="95"/>
-      <c r="BM74" s="95"/>
-      <c r="BN74" s="95"/>
-      <c r="BO74" s="95"/>
-      <c r="BP74" s="95"/>
-      <c r="BQ74" s="95"/>
-      <c r="BR74" s="95"/>
-      <c r="BS74" s="95"/>
-      <c r="BT74" s="95"/>
-      <c r="BU74" s="96"/>
-    </row>
-    <row r="75" spans="2:73" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="35"/>
-      <c r="C75" s="97">
-        <f>ROW()-ROW($C$73)</f>
-        <v>2</v>
-      </c>
-      <c r="D75" s="98"/>
-      <c r="E75" s="74" t="s">
-        <v>113</v>
-      </c>
-      <c r="F75" s="75"/>
-      <c r="G75" s="75"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="75"/>
-      <c r="J75" s="75"/>
-      <c r="K75" s="75"/>
-      <c r="L75" s="75"/>
-      <c r="M75" s="76"/>
-      <c r="N75" s="99" t="s">
-        <v>114</v>
-      </c>
-      <c r="O75" s="100"/>
-      <c r="P75" s="100"/>
-      <c r="Q75" s="100"/>
-      <c r="R75" s="100"/>
-      <c r="S75" s="100"/>
-      <c r="T75" s="100"/>
-      <c r="U75" s="100"/>
-      <c r="V75" s="100"/>
-      <c r="W75" s="100"/>
-      <c r="X75" s="100"/>
-      <c r="Y75" s="100"/>
-      <c r="Z75" s="100"/>
-      <c r="AA75" s="100"/>
-      <c r="AB75" s="100"/>
-      <c r="AC75" s="100"/>
-      <c r="AD75" s="100"/>
-      <c r="AE75" s="101"/>
-      <c r="AF75" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG75" s="72"/>
-      <c r="AH75" s="72"/>
-      <c r="AI75" s="72"/>
-      <c r="AJ75" s="72"/>
-      <c r="AK75" s="72"/>
-      <c r="AL75" s="72"/>
-      <c r="AM75" s="72"/>
-      <c r="AN75" s="73"/>
-      <c r="AO75" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP75" s="72"/>
-      <c r="AQ75" s="72"/>
-      <c r="AR75" s="72"/>
-      <c r="AS75" s="73"/>
-      <c r="AT75" s="77" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU75" s="72"/>
-      <c r="AV75" s="72"/>
-      <c r="AW75" s="73"/>
-      <c r="AX75" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY75" s="72"/>
-      <c r="AZ75" s="72"/>
-      <c r="BA75" s="72"/>
-      <c r="BB75" s="72"/>
-      <c r="BC75" s="73"/>
-      <c r="BD75" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="BE75" s="73"/>
-      <c r="BF75" s="78"/>
-      <c r="BG75" s="72"/>
-      <c r="BH75" s="72"/>
-      <c r="BI75" s="72"/>
-      <c r="BJ75" s="72"/>
-      <c r="BK75" s="72"/>
-      <c r="BL75" s="72"/>
-      <c r="BM75" s="72"/>
-      <c r="BN75" s="72"/>
-      <c r="BO75" s="72"/>
-      <c r="BP75" s="72"/>
-      <c r="BQ75" s="72"/>
-      <c r="BR75" s="72"/>
-      <c r="BS75" s="72"/>
-      <c r="BT75" s="72"/>
-      <c r="BU75" s="73"/>
+      <c r="BG75" s="34"/>
+      <c r="BH75" s="34"/>
+      <c r="BI75" s="34"/>
+      <c r="BJ75" s="34"/>
+      <c r="BK75" s="34"/>
+      <c r="BL75" s="34"/>
+      <c r="BM75" s="34"/>
+      <c r="BN75" s="34"/>
+      <c r="BO75" s="34"/>
+      <c r="BP75" s="34"/>
+      <c r="BQ75" s="34"/>
+      <c r="BR75" s="34"/>
+      <c r="BS75" s="34"/>
+      <c r="BT75" s="34"/>
+      <c r="BU75" s="33"/>
     </row>
     <row r="76" spans="2:73" ht="37" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B76" s="35"/>
-      <c r="C76" s="97">
-        <f>ROW()-ROW($C$73)</f>
+      <c r="C76" s="122">
+        <f t="shared" ref="C76:C82" si="0">ROW()-ROW($C$75)</f>
+        <v>1</v>
+      </c>
+      <c r="D76" s="123"/>
+      <c r="E76" s="127" t="s">
+        <v>74</v>
+      </c>
+      <c r="F76" s="128"/>
+      <c r="G76" s="128"/>
+      <c r="H76" s="128"/>
+      <c r="I76" s="128"/>
+      <c r="J76" s="128"/>
+      <c r="K76" s="128"/>
+      <c r="L76" s="128"/>
+      <c r="M76" s="129"/>
+      <c r="N76" s="145" t="s">
+        <v>75</v>
+      </c>
+      <c r="O76" s="146"/>
+      <c r="P76" s="146"/>
+      <c r="Q76" s="146"/>
+      <c r="R76" s="146"/>
+      <c r="S76" s="146"/>
+      <c r="T76" s="146"/>
+      <c r="U76" s="146"/>
+      <c r="V76" s="146"/>
+      <c r="W76" s="146"/>
+      <c r="X76" s="146"/>
+      <c r="Y76" s="146"/>
+      <c r="Z76" s="146"/>
+      <c r="AA76" s="146"/>
+      <c r="AB76" s="146"/>
+      <c r="AC76" s="146"/>
+      <c r="AD76" s="146"/>
+      <c r="AE76" s="147"/>
+      <c r="AF76" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG76" s="125"/>
+      <c r="AH76" s="125"/>
+      <c r="AI76" s="125"/>
+      <c r="AJ76" s="125"/>
+      <c r="AK76" s="125"/>
+      <c r="AL76" s="125"/>
+      <c r="AM76" s="125"/>
+      <c r="AN76" s="126"/>
+      <c r="AO76" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP76" s="125"/>
+      <c r="AQ76" s="125"/>
+      <c r="AR76" s="125"/>
+      <c r="AS76" s="126"/>
+      <c r="AT76" s="148" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU76" s="125"/>
+      <c r="AV76" s="125"/>
+      <c r="AW76" s="126"/>
+      <c r="AX76" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY76" s="125"/>
+      <c r="AZ76" s="125"/>
+      <c r="BA76" s="125"/>
+      <c r="BB76" s="125"/>
+      <c r="BC76" s="126"/>
+      <c r="BD76" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE76" s="126"/>
+      <c r="BF76" s="151"/>
+      <c r="BG76" s="125"/>
+      <c r="BH76" s="125"/>
+      <c r="BI76" s="125"/>
+      <c r="BJ76" s="125"/>
+      <c r="BK76" s="125"/>
+      <c r="BL76" s="125"/>
+      <c r="BM76" s="125"/>
+      <c r="BN76" s="125"/>
+      <c r="BO76" s="125"/>
+      <c r="BP76" s="125"/>
+      <c r="BQ76" s="125"/>
+      <c r="BR76" s="125"/>
+      <c r="BS76" s="125"/>
+      <c r="BT76" s="125"/>
+      <c r="BU76" s="126"/>
+    </row>
+    <row r="77" spans="2:73" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="35"/>
+      <c r="C77" s="122">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D77" s="123"/>
+      <c r="E77" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" s="75"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="75"/>
+      <c r="I77" s="75"/>
+      <c r="J77" s="75"/>
+      <c r="K77" s="75"/>
+      <c r="L77" s="75"/>
+      <c r="M77" s="76"/>
+      <c r="N77" s="145" t="s">
+        <v>108</v>
+      </c>
+      <c r="O77" s="146"/>
+      <c r="P77" s="146"/>
+      <c r="Q77" s="146"/>
+      <c r="R77" s="146"/>
+      <c r="S77" s="146"/>
+      <c r="T77" s="146"/>
+      <c r="U77" s="146"/>
+      <c r="V77" s="146"/>
+      <c r="W77" s="146"/>
+      <c r="X77" s="146"/>
+      <c r="Y77" s="146"/>
+      <c r="Z77" s="146"/>
+      <c r="AA77" s="146"/>
+      <c r="AB77" s="146"/>
+      <c r="AC77" s="146"/>
+      <c r="AD77" s="146"/>
+      <c r="AE77" s="147"/>
+      <c r="AF77" s="71" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG77" s="72"/>
+      <c r="AH77" s="72"/>
+      <c r="AI77" s="72"/>
+      <c r="AJ77" s="72"/>
+      <c r="AK77" s="72"/>
+      <c r="AL77" s="72"/>
+      <c r="AM77" s="72"/>
+      <c r="AN77" s="73"/>
+      <c r="AO77" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP77" s="72"/>
+      <c r="AQ77" s="72"/>
+      <c r="AR77" s="72"/>
+      <c r="AS77" s="73"/>
+      <c r="AT77" s="77" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU77" s="72"/>
+      <c r="AV77" s="72"/>
+      <c r="AW77" s="73"/>
+      <c r="AX77" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY77" s="72"/>
+      <c r="AZ77" s="72"/>
+      <c r="BA77" s="72"/>
+      <c r="BB77" s="72"/>
+      <c r="BC77" s="73"/>
+      <c r="BD77" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="BE77" s="73"/>
+      <c r="BF77" s="78"/>
+      <c r="BG77" s="72"/>
+      <c r="BH77" s="72"/>
+      <c r="BI77" s="72"/>
+      <c r="BJ77" s="72"/>
+      <c r="BK77" s="72"/>
+      <c r="BL77" s="72"/>
+      <c r="BM77" s="72"/>
+      <c r="BN77" s="72"/>
+      <c r="BO77" s="72"/>
+      <c r="BP77" s="72"/>
+      <c r="BQ77" s="72"/>
+      <c r="BR77" s="72"/>
+      <c r="BS77" s="72"/>
+      <c r="BT77" s="72"/>
+      <c r="BU77" s="73"/>
+    </row>
+    <row r="78" spans="2:73" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="35"/>
+      <c r="C78" s="122">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D76" s="98"/>
-      <c r="E76" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="F76" s="75"/>
-      <c r="G76" s="75"/>
-      <c r="H76" s="75"/>
-      <c r="I76" s="75"/>
-      <c r="J76" s="75"/>
-      <c r="K76" s="75"/>
-      <c r="L76" s="75"/>
-      <c r="M76" s="76"/>
-      <c r="N76" s="99" t="s">
-        <v>101</v>
-      </c>
-      <c r="O76" s="100"/>
-      <c r="P76" s="100"/>
-      <c r="Q76" s="100"/>
-      <c r="R76" s="100"/>
-      <c r="S76" s="100"/>
-      <c r="T76" s="100"/>
-      <c r="U76" s="100"/>
-      <c r="V76" s="100"/>
-      <c r="W76" s="100"/>
-      <c r="X76" s="100"/>
-      <c r="Y76" s="100"/>
-      <c r="Z76" s="100"/>
-      <c r="AA76" s="100"/>
-      <c r="AB76" s="100"/>
-      <c r="AC76" s="100"/>
-      <c r="AD76" s="100"/>
-      <c r="AE76" s="101"/>
-      <c r="AF76" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG76" s="95"/>
-      <c r="AH76" s="95"/>
-      <c r="AI76" s="95"/>
-      <c r="AJ76" s="95"/>
-      <c r="AK76" s="95"/>
-      <c r="AL76" s="95"/>
-      <c r="AM76" s="95"/>
-      <c r="AN76" s="96"/>
-      <c r="AO76" s="94" t="s">
+      <c r="D78" s="123"/>
+      <c r="E78" s="74" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78" s="75"/>
+      <c r="G78" s="75"/>
+      <c r="H78" s="75"/>
+      <c r="I78" s="75"/>
+      <c r="J78" s="75"/>
+      <c r="K78" s="75"/>
+      <c r="L78" s="75"/>
+      <c r="M78" s="76"/>
+      <c r="N78" s="145" t="s">
+        <v>95</v>
+      </c>
+      <c r="O78" s="146"/>
+      <c r="P78" s="146"/>
+      <c r="Q78" s="146"/>
+      <c r="R78" s="146"/>
+      <c r="S78" s="146"/>
+      <c r="T78" s="146"/>
+      <c r="U78" s="146"/>
+      <c r="V78" s="146"/>
+      <c r="W78" s="146"/>
+      <c r="X78" s="146"/>
+      <c r="Y78" s="146"/>
+      <c r="Z78" s="146"/>
+      <c r="AA78" s="146"/>
+      <c r="AB78" s="146"/>
+      <c r="AC78" s="146"/>
+      <c r="AD78" s="146"/>
+      <c r="AE78" s="147"/>
+      <c r="AF78" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG78" s="125"/>
+      <c r="AH78" s="125"/>
+      <c r="AI78" s="125"/>
+      <c r="AJ78" s="125"/>
+      <c r="AK78" s="125"/>
+      <c r="AL78" s="125"/>
+      <c r="AM78" s="125"/>
+      <c r="AN78" s="126"/>
+      <c r="AO78" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AP76" s="95"/>
-      <c r="AQ76" s="95"/>
-      <c r="AR76" s="95"/>
-      <c r="AS76" s="96"/>
-      <c r="AT76" s="91">
+      <c r="AP78" s="125"/>
+      <c r="AQ78" s="125"/>
+      <c r="AR78" s="125"/>
+      <c r="AS78" s="126"/>
+      <c r="AT78" s="148">
         <v>30</v>
       </c>
-      <c r="AU76" s="95"/>
-      <c r="AV76" s="95"/>
-      <c r="AW76" s="96"/>
-      <c r="AX76" s="99" t="s">
+      <c r="AU78" s="125"/>
+      <c r="AV78" s="125"/>
+      <c r="AW78" s="126"/>
+      <c r="AX78" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="AY76" s="100"/>
-      <c r="AZ76" s="100"/>
-      <c r="BA76" s="100"/>
-      <c r="BB76" s="100"/>
-      <c r="BC76" s="101"/>
-      <c r="BD76" s="94" t="s">
+      <c r="AY78" s="146"/>
+      <c r="AZ78" s="146"/>
+      <c r="BA78" s="146"/>
+      <c r="BB78" s="146"/>
+      <c r="BC78" s="147"/>
+      <c r="BD78" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="BE76" s="96"/>
-      <c r="BF76" s="78"/>
-      <c r="BG76" s="72"/>
-      <c r="BH76" s="72"/>
-      <c r="BI76" s="72"/>
-      <c r="BJ76" s="72"/>
-      <c r="BK76" s="72"/>
-      <c r="BL76" s="72"/>
-      <c r="BM76" s="72"/>
-      <c r="BN76" s="72"/>
-      <c r="BO76" s="72"/>
-      <c r="BP76" s="72"/>
-      <c r="BQ76" s="72"/>
-      <c r="BR76" s="72"/>
-      <c r="BS76" s="72"/>
-      <c r="BT76" s="72"/>
-      <c r="BU76" s="73"/>
-    </row>
-    <row r="77" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="B77" s="35"/>
-      <c r="C77" s="97">
-        <f>ROW()-ROW($C$73)</f>
+      <c r="BE78" s="126"/>
+      <c r="BF78" s="78"/>
+      <c r="BG78" s="72"/>
+      <c r="BH78" s="72"/>
+      <c r="BI78" s="72"/>
+      <c r="BJ78" s="72"/>
+      <c r="BK78" s="72"/>
+      <c r="BL78" s="72"/>
+      <c r="BM78" s="72"/>
+      <c r="BN78" s="72"/>
+      <c r="BO78" s="72"/>
+      <c r="BP78" s="72"/>
+      <c r="BQ78" s="72"/>
+      <c r="BR78" s="72"/>
+      <c r="BS78" s="72"/>
+      <c r="BT78" s="72"/>
+      <c r="BU78" s="73"/>
+    </row>
+    <row r="79" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B79" s="35"/>
+      <c r="C79" s="122">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D77" s="98"/>
-      <c r="E77" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45"/>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="46"/>
-      <c r="N77" s="94" t="s">
-        <v>81</v>
-      </c>
-      <c r="O77" s="95"/>
-      <c r="P77" s="95"/>
-      <c r="Q77" s="95"/>
-      <c r="R77" s="95"/>
-      <c r="S77" s="95"/>
-      <c r="T77" s="95"/>
-      <c r="U77" s="95"/>
-      <c r="V77" s="95"/>
-      <c r="W77" s="95"/>
-      <c r="X77" s="95"/>
-      <c r="Y77" s="95"/>
-      <c r="Z77" s="95"/>
-      <c r="AA77" s="95"/>
-      <c r="AB77" s="95"/>
-      <c r="AC77" s="95"/>
-      <c r="AD77" s="95"/>
-      <c r="AE77" s="96"/>
-      <c r="AF77" s="94" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG77" s="95"/>
-      <c r="AH77" s="95"/>
-      <c r="AI77" s="95"/>
-      <c r="AJ77" s="95"/>
-      <c r="AK77" s="95"/>
-      <c r="AL77" s="95"/>
-      <c r="AM77" s="95"/>
-      <c r="AN77" s="96"/>
-      <c r="AO77" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP77" s="95"/>
-      <c r="AQ77" s="95"/>
-      <c r="AR77" s="95"/>
-      <c r="AS77" s="96"/>
-      <c r="AT77" s="91">
-        <v>10</v>
-      </c>
-      <c r="AU77" s="95"/>
-      <c r="AV77" s="95"/>
-      <c r="AW77" s="96"/>
-      <c r="AX77" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY77" s="95"/>
-      <c r="AZ77" s="95"/>
-      <c r="BA77" s="95"/>
-      <c r="BB77" s="95"/>
-      <c r="BC77" s="96"/>
-      <c r="BD77" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE77" s="96"/>
-      <c r="BF77" s="105"/>
-      <c r="BG77" s="95"/>
-      <c r="BH77" s="95"/>
-      <c r="BI77" s="95"/>
-      <c r="BJ77" s="95"/>
-      <c r="BK77" s="95"/>
-      <c r="BL77" s="95"/>
-      <c r="BM77" s="95"/>
-      <c r="BN77" s="95"/>
-      <c r="BO77" s="95"/>
-      <c r="BP77" s="95"/>
-      <c r="BQ77" s="95"/>
-      <c r="BR77" s="95"/>
-      <c r="BS77" s="95"/>
-      <c r="BT77" s="95"/>
-      <c r="BU77" s="96"/>
-    </row>
-    <row r="78" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="B78" s="35"/>
-      <c r="C78" s="97">
-        <f>ROW()-ROW($C$73)</f>
-        <v>5</v>
-      </c>
-      <c r="D78" s="98"/>
-      <c r="E78" s="44" t="s">
-        <v>82</v>
-      </c>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="46"/>
-      <c r="N78" s="94" t="s">
-        <v>84</v>
-      </c>
-      <c r="O78" s="95"/>
-      <c r="P78" s="95"/>
-      <c r="Q78" s="95"/>
-      <c r="R78" s="95"/>
-      <c r="S78" s="95"/>
-      <c r="T78" s="95"/>
-      <c r="U78" s="95"/>
-      <c r="V78" s="95"/>
-      <c r="W78" s="95"/>
-      <c r="X78" s="95"/>
-      <c r="Y78" s="95"/>
-      <c r="Z78" s="95"/>
-      <c r="AA78" s="95"/>
-      <c r="AB78" s="95"/>
-      <c r="AC78" s="95"/>
-      <c r="AD78" s="95"/>
-      <c r="AE78" s="96"/>
-      <c r="AF78" s="94" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG78" s="95"/>
-      <c r="AH78" s="95"/>
-      <c r="AI78" s="95"/>
-      <c r="AJ78" s="95"/>
-      <c r="AK78" s="95"/>
-      <c r="AL78" s="95"/>
-      <c r="AM78" s="95"/>
-      <c r="AN78" s="96"/>
-      <c r="AO78" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP78" s="95"/>
-      <c r="AQ78" s="95"/>
-      <c r="AR78" s="95"/>
-      <c r="AS78" s="96"/>
-      <c r="AT78" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="AU78" s="95"/>
-      <c r="AV78" s="95"/>
-      <c r="AW78" s="96"/>
-      <c r="AX78" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="AY78" s="95"/>
-      <c r="AZ78" s="95"/>
-      <c r="BA78" s="95"/>
-      <c r="BB78" s="95"/>
-      <c r="BC78" s="96"/>
-      <c r="BD78" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE78" s="96"/>
-      <c r="BF78" s="102"/>
-      <c r="BG78" s="103"/>
-      <c r="BH78" s="103"/>
-      <c r="BI78" s="103"/>
-      <c r="BJ78" s="103"/>
-      <c r="BK78" s="103"/>
-      <c r="BL78" s="103"/>
-      <c r="BM78" s="103"/>
-      <c r="BN78" s="103"/>
-      <c r="BO78" s="103"/>
-      <c r="BP78" s="103"/>
-      <c r="BQ78" s="103"/>
-      <c r="BR78" s="103"/>
-      <c r="BS78" s="103"/>
-      <c r="BT78" s="103"/>
-      <c r="BU78" s="104"/>
-    </row>
-    <row r="79" spans="2:73" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="35"/>
-      <c r="C79" s="97">
-        <f>ROW()-ROW($C$73)</f>
-        <v>6</v>
-      </c>
-      <c r="D79" s="98"/>
-      <c r="E79" s="74" t="s">
-        <v>83</v>
+      <c r="D79" s="123"/>
+      <c r="E79" s="44" t="s">
+        <v>121</v>
       </c>
       <c r="F79" s="45"/>
       <c r="G79" s="45"/>
@@ -10098,930 +9927,959 @@
       <c r="K79" s="45"/>
       <c r="L79" s="45"/>
       <c r="M79" s="46"/>
-      <c r="N79" s="94" t="s">
-        <v>85</v>
-      </c>
-      <c r="O79" s="95"/>
-      <c r="P79" s="95"/>
-      <c r="Q79" s="95"/>
-      <c r="R79" s="95"/>
-      <c r="S79" s="95"/>
-      <c r="T79" s="95"/>
-      <c r="U79" s="95"/>
-      <c r="V79" s="95"/>
-      <c r="W79" s="95"/>
-      <c r="X79" s="95"/>
-      <c r="Y79" s="95"/>
-      <c r="Z79" s="95"/>
-      <c r="AA79" s="95"/>
-      <c r="AB79" s="95"/>
-      <c r="AC79" s="95"/>
-      <c r="AD79" s="95"/>
-      <c r="AE79" s="96"/>
-      <c r="AF79" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG79" s="95"/>
-      <c r="AH79" s="95"/>
-      <c r="AI79" s="95"/>
-      <c r="AJ79" s="95"/>
-      <c r="AK79" s="95"/>
-      <c r="AL79" s="95"/>
-      <c r="AM79" s="95"/>
-      <c r="AN79" s="96"/>
-      <c r="AO79" s="94" t="s">
+      <c r="N79" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="O79" s="125"/>
+      <c r="P79" s="125"/>
+      <c r="Q79" s="125"/>
+      <c r="R79" s="125"/>
+      <c r="S79" s="125"/>
+      <c r="T79" s="125"/>
+      <c r="U79" s="125"/>
+      <c r="V79" s="125"/>
+      <c r="W79" s="125"/>
+      <c r="X79" s="125"/>
+      <c r="Y79" s="125"/>
+      <c r="Z79" s="125"/>
+      <c r="AA79" s="125"/>
+      <c r="AB79" s="125"/>
+      <c r="AC79" s="125"/>
+      <c r="AD79" s="125"/>
+      <c r="AE79" s="126"/>
+      <c r="AF79" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="AG79" s="125"/>
+      <c r="AH79" s="125"/>
+      <c r="AI79" s="125"/>
+      <c r="AJ79" s="125"/>
+      <c r="AK79" s="125"/>
+      <c r="AL79" s="125"/>
+      <c r="AM79" s="125"/>
+      <c r="AN79" s="126"/>
+      <c r="AO79" s="124" t="s">
         <v>48</v>
       </c>
-      <c r="AP79" s="95"/>
-      <c r="AQ79" s="95"/>
-      <c r="AR79" s="95"/>
-      <c r="AS79" s="96"/>
-      <c r="AT79" s="91">
-        <v>200</v>
-      </c>
-      <c r="AU79" s="92"/>
-      <c r="AV79" s="92"/>
-      <c r="AW79" s="93"/>
-      <c r="AX79" s="105" t="s">
-        <v>102</v>
-      </c>
-      <c r="AY79" s="145"/>
-      <c r="AZ79" s="145"/>
-      <c r="BA79" s="145"/>
-      <c r="BB79" s="145"/>
-      <c r="BC79" s="146"/>
-      <c r="BD79" s="94" t="s">
+      <c r="AP79" s="125"/>
+      <c r="AQ79" s="125"/>
+      <c r="AR79" s="125"/>
+      <c r="AS79" s="126"/>
+      <c r="AT79" s="148">
+        <v>10</v>
+      </c>
+      <c r="AU79" s="125"/>
+      <c r="AV79" s="125"/>
+      <c r="AW79" s="126"/>
+      <c r="AX79" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="AY79" s="125"/>
+      <c r="AZ79" s="125"/>
+      <c r="BA79" s="125"/>
+      <c r="BB79" s="125"/>
+      <c r="BC79" s="126"/>
+      <c r="BD79" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="BE79" s="96"/>
-      <c r="BF79" s="102"/>
-      <c r="BG79" s="103"/>
-      <c r="BH79" s="103"/>
-      <c r="BI79" s="103"/>
-      <c r="BJ79" s="103"/>
-      <c r="BK79" s="103"/>
-      <c r="BL79" s="103"/>
-      <c r="BM79" s="103"/>
-      <c r="BN79" s="103"/>
-      <c r="BO79" s="103"/>
-      <c r="BP79" s="103"/>
-      <c r="BQ79" s="103"/>
-      <c r="BR79" s="103"/>
-      <c r="BS79" s="103"/>
-      <c r="BT79" s="103"/>
-      <c r="BU79" s="104"/>
+      <c r="BE79" s="126"/>
+      <c r="BF79" s="151" t="s">
+        <v>123</v>
+      </c>
+      <c r="BG79" s="125"/>
+      <c r="BH79" s="125"/>
+      <c r="BI79" s="125"/>
+      <c r="BJ79" s="125"/>
+      <c r="BK79" s="125"/>
+      <c r="BL79" s="125"/>
+      <c r="BM79" s="125"/>
+      <c r="BN79" s="125"/>
+      <c r="BO79" s="125"/>
+      <c r="BP79" s="125"/>
+      <c r="BQ79" s="125"/>
+      <c r="BR79" s="125"/>
+      <c r="BS79" s="125"/>
+      <c r="BT79" s="125"/>
+      <c r="BU79" s="126"/>
     </row>
     <row r="80" spans="2:73" x14ac:dyDescent="0.25">
       <c r="B80" s="35"/>
-      <c r="C80" s="97">
-        <f t="shared" ref="C80:C82" si="0">ROW()-ROW($C$73)</f>
+      <c r="C80" s="122">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D80" s="123"/>
+      <c r="E80" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F80" s="91"/>
+      <c r="G80" s="91"/>
+      <c r="H80" s="91"/>
+      <c r="I80" s="91"/>
+      <c r="J80" s="91"/>
+      <c r="K80" s="91"/>
+      <c r="L80" s="91"/>
+      <c r="M80" s="92"/>
+      <c r="N80" s="124" t="s">
+        <v>126</v>
+      </c>
+      <c r="O80" s="125"/>
+      <c r="P80" s="125"/>
+      <c r="Q80" s="125"/>
+      <c r="R80" s="125"/>
+      <c r="S80" s="125"/>
+      <c r="T80" s="125"/>
+      <c r="U80" s="125"/>
+      <c r="V80" s="125"/>
+      <c r="W80" s="125"/>
+      <c r="X80" s="125"/>
+      <c r="Y80" s="125"/>
+      <c r="Z80" s="125"/>
+      <c r="AA80" s="125"/>
+      <c r="AB80" s="125"/>
+      <c r="AC80" s="125"/>
+      <c r="AD80" s="125"/>
+      <c r="AE80" s="126"/>
+      <c r="AF80" s="124" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG80" s="125"/>
+      <c r="AH80" s="125"/>
+      <c r="AI80" s="125"/>
+      <c r="AJ80" s="125"/>
+      <c r="AK80" s="125"/>
+      <c r="AL80" s="125"/>
+      <c r="AM80" s="125"/>
+      <c r="AN80" s="126"/>
+      <c r="AO80" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP80" s="125"/>
+      <c r="AQ80" s="125"/>
+      <c r="AR80" s="125"/>
+      <c r="AS80" s="126"/>
+      <c r="AT80" s="148" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU80" s="125"/>
+      <c r="AV80" s="125"/>
+      <c r="AW80" s="126"/>
+      <c r="AX80" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY80" s="125"/>
+      <c r="AZ80" s="125"/>
+      <c r="BA80" s="125"/>
+      <c r="BB80" s="125"/>
+      <c r="BC80" s="126"/>
+      <c r="BD80" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE80" s="126"/>
+      <c r="BF80" s="93"/>
+      <c r="BG80" s="88"/>
+      <c r="BH80" s="88"/>
+      <c r="BI80" s="88"/>
+      <c r="BJ80" s="88"/>
+      <c r="BK80" s="88"/>
+      <c r="BL80" s="88"/>
+      <c r="BM80" s="88"/>
+      <c r="BN80" s="88"/>
+      <c r="BO80" s="88"/>
+      <c r="BP80" s="88"/>
+      <c r="BQ80" s="88"/>
+      <c r="BR80" s="88"/>
+      <c r="BS80" s="88"/>
+      <c r="BT80" s="88"/>
+      <c r="BU80" s="89"/>
+    </row>
+    <row r="81" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B81" s="35"/>
+      <c r="C81" s="122">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D81" s="123"/>
+      <c r="E81" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="46"/>
+      <c r="N81" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="O81" s="125"/>
+      <c r="P81" s="125"/>
+      <c r="Q81" s="125"/>
+      <c r="R81" s="125"/>
+      <c r="S81" s="125"/>
+      <c r="T81" s="125"/>
+      <c r="U81" s="125"/>
+      <c r="V81" s="125"/>
+      <c r="W81" s="125"/>
+      <c r="X81" s="125"/>
+      <c r="Y81" s="125"/>
+      <c r="Z81" s="125"/>
+      <c r="AA81" s="125"/>
+      <c r="AB81" s="125"/>
+      <c r="AC81" s="125"/>
+      <c r="AD81" s="125"/>
+      <c r="AE81" s="126"/>
+      <c r="AF81" s="124" t="s">
+        <v>27</v>
+      </c>
+      <c r="AG81" s="125"/>
+      <c r="AH81" s="125"/>
+      <c r="AI81" s="125"/>
+      <c r="AJ81" s="125"/>
+      <c r="AK81" s="125"/>
+      <c r="AL81" s="125"/>
+      <c r="AM81" s="125"/>
+      <c r="AN81" s="126"/>
+      <c r="AO81" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP81" s="125"/>
+      <c r="AQ81" s="125"/>
+      <c r="AR81" s="125"/>
+      <c r="AS81" s="126"/>
+      <c r="AT81" s="148">
+        <v>5</v>
+      </c>
+      <c r="AU81" s="125"/>
+      <c r="AV81" s="125"/>
+      <c r="AW81" s="126"/>
+      <c r="AX81" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="AY81" s="125"/>
+      <c r="AZ81" s="125"/>
+      <c r="BA81" s="125"/>
+      <c r="BB81" s="125"/>
+      <c r="BC81" s="126"/>
+      <c r="BD81" s="124" t="s">
+        <v>124</v>
+      </c>
+      <c r="BE81" s="126"/>
+      <c r="BF81" s="127"/>
+      <c r="BG81" s="128"/>
+      <c r="BH81" s="128"/>
+      <c r="BI81" s="128"/>
+      <c r="BJ81" s="128"/>
+      <c r="BK81" s="128"/>
+      <c r="BL81" s="128"/>
+      <c r="BM81" s="128"/>
+      <c r="BN81" s="128"/>
+      <c r="BO81" s="128"/>
+      <c r="BP81" s="128"/>
+      <c r="BQ81" s="128"/>
+      <c r="BR81" s="128"/>
+      <c r="BS81" s="128"/>
+      <c r="BT81" s="128"/>
+      <c r="BU81" s="129"/>
+    </row>
+    <row r="82" spans="2:73" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="35"/>
+      <c r="C82" s="122">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D80" s="98"/>
-      <c r="E80" s="44" t="s">
+      <c r="D82" s="123"/>
+      <c r="E82" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="46"/>
+      <c r="N82" s="124" t="s">
+        <v>127</v>
+      </c>
+      <c r="O82" s="125"/>
+      <c r="P82" s="125"/>
+      <c r="Q82" s="125"/>
+      <c r="R82" s="125"/>
+      <c r="S82" s="125"/>
+      <c r="T82" s="125"/>
+      <c r="U82" s="125"/>
+      <c r="V82" s="125"/>
+      <c r="W82" s="125"/>
+      <c r="X82" s="125"/>
+      <c r="Y82" s="125"/>
+      <c r="Z82" s="125"/>
+      <c r="AA82" s="125"/>
+      <c r="AB82" s="125"/>
+      <c r="AC82" s="125"/>
+      <c r="AD82" s="125"/>
+      <c r="AE82" s="126"/>
+      <c r="AF82" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG82" s="125"/>
+      <c r="AH82" s="125"/>
+      <c r="AI82" s="125"/>
+      <c r="AJ82" s="125"/>
+      <c r="AK82" s="125"/>
+      <c r="AL82" s="125"/>
+      <c r="AM82" s="125"/>
+      <c r="AN82" s="126"/>
+      <c r="AO82" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP82" s="125"/>
+      <c r="AQ82" s="125"/>
+      <c r="AR82" s="125"/>
+      <c r="AS82" s="126"/>
+      <c r="AT82" s="148">
+        <v>200</v>
+      </c>
+      <c r="AU82" s="149"/>
+      <c r="AV82" s="149"/>
+      <c r="AW82" s="150"/>
+      <c r="AX82" s="151" t="s">
+        <v>96</v>
+      </c>
+      <c r="AY82" s="152"/>
+      <c r="AZ82" s="152"/>
+      <c r="BA82" s="152"/>
+      <c r="BB82" s="152"/>
+      <c r="BC82" s="153"/>
+      <c r="BD82" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE82" s="126"/>
+      <c r="BF82" s="127"/>
+      <c r="BG82" s="128"/>
+      <c r="BH82" s="128"/>
+      <c r="BI82" s="128"/>
+      <c r="BJ82" s="128"/>
+      <c r="BK82" s="128"/>
+      <c r="BL82" s="128"/>
+      <c r="BM82" s="128"/>
+      <c r="BN82" s="128"/>
+      <c r="BO82" s="128"/>
+      <c r="BP82" s="128"/>
+      <c r="BQ82" s="128"/>
+      <c r="BR82" s="128"/>
+      <c r="BS82" s="128"/>
+      <c r="BT82" s="128"/>
+      <c r="BU82" s="129"/>
+    </row>
+    <row r="83" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B83" s="35"/>
+      <c r="C83" s="122">
+        <f t="shared" ref="C83:C85" si="1">ROW()-ROW($C$75)</f>
+        <v>8</v>
+      </c>
+      <c r="D83" s="123"/>
+      <c r="E83" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="46"/>
+      <c r="N83" s="124" t="s">
+        <v>84</v>
+      </c>
+      <c r="O83" s="125"/>
+      <c r="P83" s="125"/>
+      <c r="Q83" s="125"/>
+      <c r="R83" s="125"/>
+      <c r="S83" s="125"/>
+      <c r="T83" s="125"/>
+      <c r="U83" s="125"/>
+      <c r="V83" s="125"/>
+      <c r="W83" s="125"/>
+      <c r="X83" s="125"/>
+      <c r="Y83" s="125"/>
+      <c r="Z83" s="125"/>
+      <c r="AA83" s="125"/>
+      <c r="AB83" s="125"/>
+      <c r="AC83" s="125"/>
+      <c r="AD83" s="125"/>
+      <c r="AE83" s="126"/>
+      <c r="AF83" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG83" s="125"/>
+      <c r="AH83" s="125"/>
+      <c r="AI83" s="125"/>
+      <c r="AJ83" s="125"/>
+      <c r="AK83" s="125"/>
+      <c r="AL83" s="125"/>
+      <c r="AM83" s="125"/>
+      <c r="AN83" s="126"/>
+      <c r="AO83" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP83" s="125"/>
+      <c r="AQ83" s="125"/>
+      <c r="AR83" s="125"/>
+      <c r="AS83" s="126"/>
+      <c r="AT83" s="148">
+        <v>8</v>
+      </c>
+      <c r="AU83" s="149"/>
+      <c r="AV83" s="149"/>
+      <c r="AW83" s="150"/>
+      <c r="AX83" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="AY83" s="125"/>
+      <c r="AZ83" s="125"/>
+      <c r="BA83" s="125"/>
+      <c r="BB83" s="125"/>
+      <c r="BC83" s="126"/>
+      <c r="BD83" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE83" s="126"/>
+      <c r="BF83" s="127"/>
+      <c r="BG83" s="128"/>
+      <c r="BH83" s="128"/>
+      <c r="BI83" s="128"/>
+      <c r="BJ83" s="128"/>
+      <c r="BK83" s="128"/>
+      <c r="BL83" s="128"/>
+      <c r="BM83" s="128"/>
+      <c r="BN83" s="128"/>
+      <c r="BO83" s="128"/>
+      <c r="BP83" s="128"/>
+      <c r="BQ83" s="128"/>
+      <c r="BR83" s="128"/>
+      <c r="BS83" s="128"/>
+      <c r="BT83" s="128"/>
+      <c r="BU83" s="129"/>
+    </row>
+    <row r="84" spans="2:73" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="35"/>
+      <c r="C84" s="122">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D84" s="123"/>
+      <c r="E84" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="F84" s="128"/>
+      <c r="G84" s="128"/>
+      <c r="H84" s="128"/>
+      <c r="I84" s="128"/>
+      <c r="J84" s="128"/>
+      <c r="K84" s="128"/>
+      <c r="L84" s="128"/>
+      <c r="M84" s="129"/>
+      <c r="N84" s="145" t="s">
+        <v>86</v>
+      </c>
+      <c r="O84" s="146"/>
+      <c r="P84" s="146"/>
+      <c r="Q84" s="146"/>
+      <c r="R84" s="146"/>
+      <c r="S84" s="146"/>
+      <c r="T84" s="146"/>
+      <c r="U84" s="146"/>
+      <c r="V84" s="146"/>
+      <c r="W84" s="146"/>
+      <c r="X84" s="146"/>
+      <c r="Y84" s="146"/>
+      <c r="Z84" s="146"/>
+      <c r="AA84" s="146"/>
+      <c r="AB84" s="146"/>
+      <c r="AC84" s="146"/>
+      <c r="AD84" s="146"/>
+      <c r="AE84" s="147"/>
+      <c r="AF84" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="AG84" s="125"/>
+      <c r="AH84" s="125"/>
+      <c r="AI84" s="125"/>
+      <c r="AJ84" s="125"/>
+      <c r="AK84" s="125"/>
+      <c r="AL84" s="125"/>
+      <c r="AM84" s="125"/>
+      <c r="AN84" s="126"/>
+      <c r="AO84" s="124" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP84" s="125"/>
+      <c r="AQ84" s="125"/>
+      <c r="AR84" s="125"/>
+      <c r="AS84" s="126"/>
+      <c r="AT84" s="148" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU84" s="149"/>
+      <c r="AV84" s="149"/>
+      <c r="AW84" s="150"/>
+      <c r="AX84" s="151" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY84" s="152"/>
+      <c r="AZ84" s="152"/>
+      <c r="BA84" s="152"/>
+      <c r="BB84" s="152"/>
+      <c r="BC84" s="153"/>
+      <c r="BD84" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE84" s="126"/>
+      <c r="BF84" s="127"/>
+      <c r="BG84" s="128"/>
+      <c r="BH84" s="128"/>
+      <c r="BI84" s="128"/>
+      <c r="BJ84" s="128"/>
+      <c r="BK84" s="128"/>
+      <c r="BL84" s="128"/>
+      <c r="BM84" s="128"/>
+      <c r="BN84" s="128"/>
+      <c r="BO84" s="128"/>
+      <c r="BP84" s="128"/>
+      <c r="BQ84" s="128"/>
+      <c r="BR84" s="128"/>
+      <c r="BS84" s="128"/>
+      <c r="BT84" s="128"/>
+      <c r="BU84" s="129"/>
+    </row>
+    <row r="85" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="B85" s="35"/>
+      <c r="C85" s="122">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="D85" s="123"/>
+      <c r="E85" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="46"/>
-      <c r="N80" s="94" t="s">
+      <c r="F85" s="128"/>
+      <c r="G85" s="128"/>
+      <c r="H85" s="128"/>
+      <c r="I85" s="128"/>
+      <c r="J85" s="128"/>
+      <c r="K85" s="128"/>
+      <c r="L85" s="128"/>
+      <c r="M85" s="129"/>
+      <c r="N85" s="145" t="s">
         <v>90</v>
       </c>
-      <c r="O80" s="95"/>
-      <c r="P80" s="95"/>
-      <c r="Q80" s="95"/>
-      <c r="R80" s="95"/>
-      <c r="S80" s="95"/>
-      <c r="T80" s="95"/>
-      <c r="U80" s="95"/>
-      <c r="V80" s="95"/>
-      <c r="W80" s="95"/>
-      <c r="X80" s="95"/>
-      <c r="Y80" s="95"/>
-      <c r="Z80" s="95"/>
-      <c r="AA80" s="95"/>
-      <c r="AB80" s="95"/>
-      <c r="AC80" s="95"/>
-      <c r="AD80" s="95"/>
-      <c r="AE80" s="96"/>
-      <c r="AF80" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG80" s="95"/>
-      <c r="AH80" s="95"/>
-      <c r="AI80" s="95"/>
-      <c r="AJ80" s="95"/>
-      <c r="AK80" s="95"/>
-      <c r="AL80" s="95"/>
-      <c r="AM80" s="95"/>
-      <c r="AN80" s="96"/>
-      <c r="AO80" s="94" t="s">
-        <v>48</v>
-      </c>
-      <c r="AP80" s="95"/>
-      <c r="AQ80" s="95"/>
-      <c r="AR80" s="95"/>
-      <c r="AS80" s="96"/>
-      <c r="AT80" s="91">
-        <v>8</v>
-      </c>
-      <c r="AU80" s="92"/>
-      <c r="AV80" s="92"/>
-      <c r="AW80" s="93"/>
-      <c r="AX80" s="94" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY80" s="95"/>
-      <c r="AZ80" s="95"/>
-      <c r="BA80" s="95"/>
-      <c r="BB80" s="95"/>
-      <c r="BC80" s="96"/>
-      <c r="BD80" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="BE80" s="96"/>
-      <c r="BF80" s="102"/>
-      <c r="BG80" s="103"/>
-      <c r="BH80" s="103"/>
-      <c r="BI80" s="103"/>
-      <c r="BJ80" s="103"/>
-      <c r="BK80" s="103"/>
-      <c r="BL80" s="103"/>
-      <c r="BM80" s="103"/>
-      <c r="BN80" s="103"/>
-      <c r="BO80" s="103"/>
-      <c r="BP80" s="103"/>
-      <c r="BQ80" s="103"/>
-      <c r="BR80" s="103"/>
-      <c r="BS80" s="103"/>
-      <c r="BT80" s="103"/>
-      <c r="BU80" s="104"/>
-    </row>
-    <row r="81" spans="2:73" ht="37" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="35"/>
-      <c r="C81" s="97">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D81" s="98"/>
-      <c r="E81" s="102" t="s">
+      <c r="O85" s="146"/>
+      <c r="P85" s="146"/>
+      <c r="Q85" s="146"/>
+      <c r="R85" s="146"/>
+      <c r="S85" s="146"/>
+      <c r="T85" s="146"/>
+      <c r="U85" s="146"/>
+      <c r="V85" s="146"/>
+      <c r="W85" s="146"/>
+      <c r="X85" s="146"/>
+      <c r="Y85" s="146"/>
+      <c r="Z85" s="146"/>
+      <c r="AA85" s="146"/>
+      <c r="AB85" s="146"/>
+      <c r="AC85" s="146"/>
+      <c r="AD85" s="146"/>
+      <c r="AE85" s="147"/>
+      <c r="AF85" s="124" t="s">
         <v>91</v>
       </c>
-      <c r="F81" s="103"/>
-      <c r="G81" s="103"/>
-      <c r="H81" s="103"/>
-      <c r="I81" s="103"/>
-      <c r="J81" s="103"/>
-      <c r="K81" s="103"/>
-      <c r="L81" s="103"/>
-      <c r="M81" s="104"/>
-      <c r="N81" s="99" t="s">
+      <c r="AG85" s="125"/>
+      <c r="AH85" s="125"/>
+      <c r="AI85" s="125"/>
+      <c r="AJ85" s="125"/>
+      <c r="AK85" s="125"/>
+      <c r="AL85" s="125"/>
+      <c r="AM85" s="125"/>
+      <c r="AN85" s="126"/>
+      <c r="AO85" s="124" t="s">
         <v>92</v>
       </c>
-      <c r="O81" s="100"/>
-      <c r="P81" s="100"/>
-      <c r="Q81" s="100"/>
-      <c r="R81" s="100"/>
-      <c r="S81" s="100"/>
-      <c r="T81" s="100"/>
-      <c r="U81" s="100"/>
-      <c r="V81" s="100"/>
-      <c r="W81" s="100"/>
-      <c r="X81" s="100"/>
-      <c r="Y81" s="100"/>
-      <c r="Z81" s="100"/>
-      <c r="AA81" s="100"/>
-      <c r="AB81" s="100"/>
-      <c r="AC81" s="100"/>
-      <c r="AD81" s="100"/>
-      <c r="AE81" s="101"/>
-      <c r="AF81" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="AG81" s="95"/>
-      <c r="AH81" s="95"/>
-      <c r="AI81" s="95"/>
-      <c r="AJ81" s="95"/>
-      <c r="AK81" s="95"/>
-      <c r="AL81" s="95"/>
-      <c r="AM81" s="95"/>
-      <c r="AN81" s="96"/>
-      <c r="AO81" s="94" t="s">
+      <c r="AP85" s="125"/>
+      <c r="AQ85" s="125"/>
+      <c r="AR85" s="125"/>
+      <c r="AS85" s="126"/>
+      <c r="AT85" s="148" t="s">
+        <v>53</v>
+      </c>
+      <c r="AU85" s="149"/>
+      <c r="AV85" s="149"/>
+      <c r="AW85" s="150"/>
+      <c r="AX85" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY85" s="125"/>
+      <c r="AZ85" s="125"/>
+      <c r="BA85" s="125"/>
+      <c r="BB85" s="125"/>
+      <c r="BC85" s="126"/>
+      <c r="BD85" s="124" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE85" s="126"/>
+      <c r="BF85" s="124"/>
+      <c r="BG85" s="125"/>
+      <c r="BH85" s="125"/>
+      <c r="BI85" s="125"/>
+      <c r="BJ85" s="125"/>
+      <c r="BK85" s="125"/>
+      <c r="BL85" s="125"/>
+      <c r="BM85" s="125"/>
+      <c r="BN85" s="125"/>
+      <c r="BO85" s="125"/>
+      <c r="BP85" s="125"/>
+      <c r="BQ85" s="125"/>
+      <c r="BR85" s="125"/>
+      <c r="BS85" s="125"/>
+      <c r="BT85" s="125"/>
+      <c r="BU85" s="126"/>
+    </row>
+    <row r="86" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C86" s="19"/>
+      <c r="D86" s="19"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="19"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="19"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="19"/>
+      <c r="R86" s="19"/>
+      <c r="S86" s="19"/>
+      <c r="T86" s="19"/>
+      <c r="U86" s="19"/>
+      <c r="V86" s="19"/>
+      <c r="W86" s="19"/>
+      <c r="X86" s="19"/>
+      <c r="Y86" s="19"/>
+      <c r="Z86" s="19"/>
+      <c r="AA86" s="19"/>
+      <c r="AB86" s="19"/>
+      <c r="AC86" s="19"/>
+      <c r="AD86" s="19"/>
+      <c r="AE86" s="19"/>
+      <c r="AF86" s="19"/>
+      <c r="AG86" s="19"/>
+      <c r="AH86" s="19"/>
+      <c r="AI86" s="19"/>
+      <c r="AJ86" s="19"/>
+      <c r="AK86" s="19"/>
+      <c r="AL86" s="19"/>
+      <c r="AM86" s="19"/>
+      <c r="AN86" s="19"/>
+      <c r="AO86" s="19"/>
+      <c r="AP86" s="19"/>
+      <c r="AQ86" s="19"/>
+      <c r="AR86" s="19"/>
+      <c r="AS86" s="19"/>
+      <c r="AT86" s="19"/>
+      <c r="AU86" s="19"/>
+      <c r="AV86" s="19"/>
+      <c r="AW86" s="19"/>
+      <c r="AX86" s="19"/>
+      <c r="AY86" s="19"/>
+      <c r="AZ86" s="19"/>
+      <c r="BA86" s="19"/>
+      <c r="BB86" s="19"/>
+      <c r="BC86" s="19"/>
+      <c r="BD86" s="19"/>
+      <c r="BE86" s="19"/>
+      <c r="BF86" s="19"/>
+      <c r="BG86" s="19"/>
+      <c r="BH86" s="19"/>
+      <c r="BI86" s="19"/>
+      <c r="BJ86" s="19"/>
+      <c r="BK86" s="19"/>
+      <c r="BL86" s="19"/>
+      <c r="BM86" s="19"/>
+      <c r="BN86" s="19"/>
+      <c r="BO86" s="19"/>
+      <c r="BP86" s="19"/>
+      <c r="BQ86" s="19"/>
+      <c r="BR86" s="19"/>
+      <c r="BS86" s="19"/>
+      <c r="BT86" s="19"/>
+      <c r="BU86" s="19"/>
+    </row>
+    <row r="87" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C87" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="19"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="19"/>
+      <c r="R87" s="19"/>
+      <c r="S87" s="19"/>
+      <c r="T87" s="19"/>
+      <c r="U87" s="19"/>
+      <c r="V87" s="19"/>
+      <c r="W87" s="19"/>
+      <c r="X87" s="19"/>
+      <c r="Y87" s="19"/>
+      <c r="Z87" s="19"/>
+      <c r="AA87" s="19"/>
+      <c r="AB87" s="19"/>
+      <c r="AC87" s="19"/>
+      <c r="AD87" s="19"/>
+      <c r="AE87" s="19"/>
+      <c r="AF87" s="19"/>
+      <c r="AG87" s="19"/>
+      <c r="AH87" s="19"/>
+      <c r="AI87" s="19"/>
+      <c r="AJ87" s="19"/>
+      <c r="AK87" s="19"/>
+      <c r="AL87" s="19"/>
+      <c r="AM87" s="19"/>
+      <c r="AN87" s="19"/>
+      <c r="AO87" s="19"/>
+      <c r="AP87" s="19"/>
+      <c r="AQ87" s="19"/>
+      <c r="AR87" s="19"/>
+      <c r="AS87" s="19"/>
+      <c r="AT87" s="19"/>
+      <c r="AU87" s="19"/>
+      <c r="AV87" s="19"/>
+      <c r="AW87" s="19"/>
+      <c r="AX87" s="19"/>
+      <c r="AY87" s="19"/>
+      <c r="AZ87" s="19"/>
+      <c r="BA87" s="19"/>
+      <c r="BB87" s="19"/>
+      <c r="BC87" s="19"/>
+      <c r="BD87" s="19"/>
+      <c r="BE87" s="19"/>
+      <c r="BF87" s="19"/>
+      <c r="BG87" s="19"/>
+      <c r="BH87" s="19"/>
+      <c r="BI87" s="19"/>
+      <c r="BJ87" s="19"/>
+      <c r="BK87" s="19"/>
+      <c r="BL87" s="19"/>
+      <c r="BM87" s="19"/>
+      <c r="BN87" s="19"/>
+      <c r="BO87" s="19"/>
+      <c r="BP87" s="19"/>
+      <c r="BQ87" s="19"/>
+      <c r="BR87" s="19"/>
+      <c r="BS87" s="19"/>
+      <c r="BT87" s="19"/>
+      <c r="BU87" s="19"/>
+    </row>
+    <row r="88" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C88" s="137" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" s="138"/>
+      <c r="E88" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="33"/>
+      <c r="N88" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="34"/>
+      <c r="V88" s="34"/>
+      <c r="W88" s="34"/>
+      <c r="X88" s="34"/>
+      <c r="Y88" s="34"/>
+      <c r="Z88" s="34"/>
+      <c r="AA88" s="34"/>
+      <c r="AB88" s="34"/>
+      <c r="AC88" s="34"/>
+      <c r="AD88" s="34"/>
+      <c r="AE88" s="34"/>
+      <c r="AF88" s="34"/>
+      <c r="AG88" s="34"/>
+      <c r="AH88" s="34"/>
+      <c r="AI88" s="34"/>
+      <c r="AJ88" s="34"/>
+      <c r="AK88" s="33"/>
+      <c r="AL88" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="AM88" s="34"/>
+      <c r="AN88" s="34"/>
+      <c r="AO88" s="34"/>
+      <c r="AP88" s="34"/>
+      <c r="AQ88" s="34"/>
+      <c r="AR88" s="34"/>
+      <c r="AS88" s="34"/>
+      <c r="AT88" s="34"/>
+      <c r="AU88" s="34"/>
+      <c r="AV88" s="34"/>
+      <c r="AW88" s="34"/>
+      <c r="AX88" s="34"/>
+      <c r="AY88" s="34"/>
+      <c r="AZ88" s="34"/>
+      <c r="BA88" s="34"/>
+      <c r="BB88" s="34"/>
+      <c r="BC88" s="34"/>
+      <c r="BD88" s="34"/>
+      <c r="BE88" s="34"/>
+      <c r="BF88" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG88" s="34"/>
+      <c r="BH88" s="34"/>
+      <c r="BI88" s="34"/>
+      <c r="BJ88" s="34"/>
+      <c r="BK88" s="34"/>
+      <c r="BL88" s="34"/>
+      <c r="BM88" s="34"/>
+      <c r="BN88" s="34"/>
+      <c r="BO88" s="34"/>
+      <c r="BP88" s="34"/>
+      <c r="BQ88" s="34"/>
+      <c r="BR88" s="34"/>
+      <c r="BS88" s="34"/>
+      <c r="BT88" s="34"/>
+      <c r="BU88" s="33"/>
+    </row>
+    <row r="89" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C89" s="122">
+        <f t="shared" ref="C89:C93" si="2">ROW()-ROW($C$88)</f>
+        <v>1</v>
+      </c>
+      <c r="D89" s="123"/>
+      <c r="E89" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="AP81" s="95"/>
-      <c r="AQ81" s="95"/>
-      <c r="AR81" s="95"/>
-      <c r="AS81" s="96"/>
-      <c r="AT81" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU81" s="92"/>
-      <c r="AV81" s="92"/>
-      <c r="AW81" s="93"/>
-      <c r="AX81" s="105" t="s">
-        <v>104</v>
-      </c>
-      <c r="AY81" s="145"/>
-      <c r="AZ81" s="145"/>
-      <c r="BA81" s="145"/>
-      <c r="BB81" s="145"/>
-      <c r="BC81" s="146"/>
-      <c r="BD81" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE81" s="96"/>
-      <c r="BF81" s="102"/>
-      <c r="BG81" s="103"/>
-      <c r="BH81" s="103"/>
-      <c r="BI81" s="103"/>
-      <c r="BJ81" s="103"/>
-      <c r="BK81" s="103"/>
-      <c r="BL81" s="103"/>
-      <c r="BM81" s="103"/>
-      <c r="BN81" s="103"/>
-      <c r="BO81" s="103"/>
-      <c r="BP81" s="103"/>
-      <c r="BQ81" s="103"/>
-      <c r="BR81" s="103"/>
-      <c r="BS81" s="103"/>
-      <c r="BT81" s="103"/>
-      <c r="BU81" s="104"/>
-    </row>
-    <row r="82" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="B82" s="35"/>
-      <c r="C82" s="97">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D82" s="98"/>
-      <c r="E82" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="F82" s="103"/>
-      <c r="G82" s="103"/>
-      <c r="H82" s="103"/>
-      <c r="I82" s="103"/>
-      <c r="J82" s="103"/>
-      <c r="K82" s="103"/>
-      <c r="L82" s="103"/>
-      <c r="M82" s="104"/>
-      <c r="N82" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="O82" s="100"/>
-      <c r="P82" s="100"/>
-      <c r="Q82" s="100"/>
-      <c r="R82" s="100"/>
-      <c r="S82" s="100"/>
-      <c r="T82" s="100"/>
-      <c r="U82" s="100"/>
-      <c r="V82" s="100"/>
-      <c r="W82" s="100"/>
-      <c r="X82" s="100"/>
-      <c r="Y82" s="100"/>
-      <c r="Z82" s="100"/>
-      <c r="AA82" s="100"/>
-      <c r="AB82" s="100"/>
-      <c r="AC82" s="100"/>
-      <c r="AD82" s="100"/>
-      <c r="AE82" s="101"/>
-      <c r="AF82" s="94" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG82" s="95"/>
-      <c r="AH82" s="95"/>
-      <c r="AI82" s="95"/>
-      <c r="AJ82" s="95"/>
-      <c r="AK82" s="95"/>
-      <c r="AL82" s="95"/>
-      <c r="AM82" s="95"/>
-      <c r="AN82" s="96"/>
-      <c r="AO82" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="AP82" s="95"/>
-      <c r="AQ82" s="95"/>
-      <c r="AR82" s="95"/>
-      <c r="AS82" s="96"/>
-      <c r="AT82" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="AU82" s="92"/>
-      <c r="AV82" s="92"/>
-      <c r="AW82" s="93"/>
-      <c r="AX82" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="AY82" s="95"/>
-      <c r="AZ82" s="95"/>
-      <c r="BA82" s="95"/>
-      <c r="BB82" s="95"/>
-      <c r="BC82" s="96"/>
-      <c r="BD82" s="94" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE82" s="96"/>
-      <c r="BF82" s="94"/>
-      <c r="BG82" s="95"/>
-      <c r="BH82" s="95"/>
-      <c r="BI82" s="95"/>
-      <c r="BJ82" s="95"/>
-      <c r="BK82" s="95"/>
-      <c r="BL82" s="95"/>
-      <c r="BM82" s="95"/>
-      <c r="BN82" s="95"/>
-      <c r="BO82" s="95"/>
-      <c r="BP82" s="95"/>
-      <c r="BQ82" s="95"/>
-      <c r="BR82" s="95"/>
-      <c r="BS82" s="95"/>
-      <c r="BT82" s="95"/>
-      <c r="BU82" s="96"/>
-    </row>
-    <row r="83" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C83" s="19"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
-      <c r="F83" s="19"/>
-      <c r="G83" s="19"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="19"/>
-      <c r="M83" s="19"/>
-      <c r="N83" s="19"/>
-      <c r="O83" s="19"/>
-      <c r="P83" s="19"/>
-      <c r="Q83" s="19"/>
-      <c r="R83" s="19"/>
-      <c r="S83" s="19"/>
-      <c r="T83" s="19"/>
-      <c r="U83" s="19"/>
-      <c r="V83" s="19"/>
-      <c r="W83" s="19"/>
-      <c r="X83" s="19"/>
-      <c r="Y83" s="19"/>
-      <c r="Z83" s="19"/>
-      <c r="AA83" s="19"/>
-      <c r="AB83" s="19"/>
-      <c r="AC83" s="19"/>
-      <c r="AD83" s="19"/>
-      <c r="AE83" s="19"/>
-      <c r="AF83" s="19"/>
-      <c r="AG83" s="19"/>
-      <c r="AH83" s="19"/>
-      <c r="AI83" s="19"/>
-      <c r="AJ83" s="19"/>
-      <c r="AK83" s="19"/>
-      <c r="AL83" s="19"/>
-      <c r="AM83" s="19"/>
-      <c r="AN83" s="19"/>
-      <c r="AO83" s="19"/>
-      <c r="AP83" s="19"/>
-      <c r="AQ83" s="19"/>
-      <c r="AR83" s="19"/>
-      <c r="AS83" s="19"/>
-      <c r="AT83" s="19"/>
-      <c r="AU83" s="19"/>
-      <c r="AV83" s="19"/>
-      <c r="AW83" s="19"/>
-      <c r="AX83" s="19"/>
-      <c r="AY83" s="19"/>
-      <c r="AZ83" s="19"/>
-      <c r="BA83" s="19"/>
-      <c r="BB83" s="19"/>
-      <c r="BC83" s="19"/>
-      <c r="BD83" s="19"/>
-      <c r="BE83" s="19"/>
-      <c r="BF83" s="19"/>
-      <c r="BG83" s="19"/>
-      <c r="BH83" s="19"/>
-      <c r="BI83" s="19"/>
-      <c r="BJ83" s="19"/>
-      <c r="BK83" s="19"/>
-      <c r="BL83" s="19"/>
-      <c r="BM83" s="19"/>
-      <c r="BN83" s="19"/>
-      <c r="BO83" s="19"/>
-      <c r="BP83" s="19"/>
-      <c r="BQ83" s="19"/>
-      <c r="BR83" s="19"/>
-      <c r="BS83" s="19"/>
-      <c r="BT83" s="19"/>
-      <c r="BU83" s="19"/>
-    </row>
-    <row r="84" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C84" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
-      <c r="F84" s="19"/>
-      <c r="G84" s="19"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="19"/>
-      <c r="M84" s="19"/>
-      <c r="N84" s="19"/>
-      <c r="O84" s="19"/>
-      <c r="P84" s="19"/>
-      <c r="Q84" s="19"/>
-      <c r="R84" s="19"/>
-      <c r="S84" s="19"/>
-      <c r="T84" s="19"/>
-      <c r="U84" s="19"/>
-      <c r="V84" s="19"/>
-      <c r="W84" s="19"/>
-      <c r="X84" s="19"/>
-      <c r="Y84" s="19"/>
-      <c r="Z84" s="19"/>
-      <c r="AA84" s="19"/>
-      <c r="AB84" s="19"/>
-      <c r="AC84" s="19"/>
-      <c r="AD84" s="19"/>
-      <c r="AE84" s="19"/>
-      <c r="AF84" s="19"/>
-      <c r="AG84" s="19"/>
-      <c r="AH84" s="19"/>
-      <c r="AI84" s="19"/>
-      <c r="AJ84" s="19"/>
-      <c r="AK84" s="19"/>
-      <c r="AL84" s="19"/>
-      <c r="AM84" s="19"/>
-      <c r="AN84" s="19"/>
-      <c r="AO84" s="19"/>
-      <c r="AP84" s="19"/>
-      <c r="AQ84" s="19"/>
-      <c r="AR84" s="19"/>
-      <c r="AS84" s="19"/>
-      <c r="AT84" s="19"/>
-      <c r="AU84" s="19"/>
-      <c r="AV84" s="19"/>
-      <c r="AW84" s="19"/>
-      <c r="AX84" s="19"/>
-      <c r="AY84" s="19"/>
-      <c r="AZ84" s="19"/>
-      <c r="BA84" s="19"/>
-      <c r="BB84" s="19"/>
-      <c r="BC84" s="19"/>
-      <c r="BD84" s="19"/>
-      <c r="BE84" s="19"/>
-      <c r="BF84" s="19"/>
-      <c r="BG84" s="19"/>
-      <c r="BH84" s="19"/>
-      <c r="BI84" s="19"/>
-      <c r="BJ84" s="19"/>
-      <c r="BK84" s="19"/>
-      <c r="BL84" s="19"/>
-      <c r="BM84" s="19"/>
-      <c r="BN84" s="19"/>
-      <c r="BO84" s="19"/>
-      <c r="BP84" s="19"/>
-      <c r="BQ84" s="19"/>
-      <c r="BR84" s="19"/>
-      <c r="BS84" s="19"/>
-      <c r="BT84" s="19"/>
-      <c r="BU84" s="19"/>
-    </row>
-    <row r="85" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C85" s="106" t="s">
-        <v>30</v>
-      </c>
-      <c r="D85" s="107"/>
-      <c r="E85" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-      <c r="I85" s="34"/>
-      <c r="J85" s="34"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="34"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="32" t="s">
-        <v>20</v>
-      </c>
-      <c r="O85" s="34"/>
-      <c r="P85" s="34"/>
-      <c r="Q85" s="34"/>
-      <c r="R85" s="34"/>
-      <c r="S85" s="34"/>
-      <c r="T85" s="34"/>
-      <c r="U85" s="34"/>
-      <c r="V85" s="34"/>
-      <c r="W85" s="34"/>
-      <c r="X85" s="34"/>
-      <c r="Y85" s="34"/>
-      <c r="Z85" s="34"/>
-      <c r="AA85" s="34"/>
-      <c r="AB85" s="34"/>
-      <c r="AC85" s="34"/>
-      <c r="AD85" s="34"/>
-      <c r="AE85" s="34"/>
-      <c r="AF85" s="34"/>
-      <c r="AG85" s="34"/>
-      <c r="AH85" s="34"/>
-      <c r="AI85" s="34"/>
-      <c r="AJ85" s="34"/>
-      <c r="AK85" s="33"/>
-      <c r="AL85" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM85" s="34"/>
-      <c r="AN85" s="34"/>
-      <c r="AO85" s="34"/>
-      <c r="AP85" s="34"/>
-      <c r="AQ85" s="34"/>
-      <c r="AR85" s="34"/>
-      <c r="AS85" s="34"/>
-      <c r="AT85" s="34"/>
-      <c r="AU85" s="34"/>
-      <c r="AV85" s="34"/>
-      <c r="AW85" s="34"/>
-      <c r="AX85" s="34"/>
-      <c r="AY85" s="34"/>
-      <c r="AZ85" s="34"/>
-      <c r="BA85" s="34"/>
-      <c r="BB85" s="34"/>
-      <c r="BC85" s="34"/>
-      <c r="BD85" s="34"/>
-      <c r="BE85" s="34"/>
-      <c r="BF85" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG85" s="34"/>
-      <c r="BH85" s="34"/>
-      <c r="BI85" s="34"/>
-      <c r="BJ85" s="34"/>
-      <c r="BK85" s="34"/>
-      <c r="BL85" s="34"/>
-      <c r="BM85" s="34"/>
-      <c r="BN85" s="34"/>
-      <c r="BO85" s="34"/>
-      <c r="BP85" s="34"/>
-      <c r="BQ85" s="34"/>
-      <c r="BR85" s="34"/>
-      <c r="BS85" s="34"/>
-      <c r="BT85" s="34"/>
-      <c r="BU85" s="33"/>
-    </row>
-    <row r="86" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C86" s="97">
-        <f t="shared" ref="C86:C90" si="1">ROW()-ROW($C$85)</f>
-        <v>1</v>
-      </c>
-      <c r="D86" s="98"/>
-      <c r="E86" s="74" t="s">
-        <v>100</v>
-      </c>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="39"/>
-      <c r="J86" s="39"/>
-      <c r="K86" s="39"/>
-      <c r="L86" s="39"/>
-      <c r="M86" s="40"/>
-      <c r="N86" s="38" t="s">
+      <c r="F89" s="39"/>
+      <c r="G89" s="39"/>
+      <c r="H89" s="39"/>
+      <c r="I89" s="39"/>
+      <c r="J89" s="39"/>
+      <c r="K89" s="39"/>
+      <c r="L89" s="39"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="O89" s="39"/>
+      <c r="P89" s="39"/>
+      <c r="Q89" s="39"/>
+      <c r="R89" s="39"/>
+      <c r="S89" s="39"/>
+      <c r="T89" s="39"/>
+      <c r="U89" s="39"/>
+      <c r="V89" s="39"/>
+      <c r="W89" s="39"/>
+      <c r="X89" s="39"/>
+      <c r="Y89" s="39"/>
+      <c r="Z89" s="39"/>
+      <c r="AA89" s="39"/>
+      <c r="AB89" s="39"/>
+      <c r="AC89" s="39"/>
+      <c r="AD89" s="39"/>
+      <c r="AE89" s="39"/>
+      <c r="AF89" s="39"/>
+      <c r="AG89" s="39"/>
+      <c r="AH89" s="39"/>
+      <c r="AI89" s="39"/>
+      <c r="AJ89" s="39"/>
+      <c r="AK89" s="40"/>
+      <c r="AL89" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="O86" s="39"/>
-      <c r="P86" s="39"/>
-      <c r="Q86" s="39"/>
-      <c r="R86" s="39"/>
-      <c r="S86" s="39"/>
-      <c r="T86" s="39"/>
-      <c r="U86" s="39"/>
-      <c r="V86" s="39"/>
-      <c r="W86" s="39"/>
-      <c r="X86" s="39"/>
-      <c r="Y86" s="39"/>
-      <c r="Z86" s="39"/>
-      <c r="AA86" s="39"/>
-      <c r="AB86" s="39"/>
-      <c r="AC86" s="39"/>
-      <c r="AD86" s="39"/>
-      <c r="AE86" s="39"/>
-      <c r="AF86" s="39"/>
-      <c r="AG86" s="39"/>
-      <c r="AH86" s="39"/>
-      <c r="AI86" s="39"/>
-      <c r="AJ86" s="39"/>
-      <c r="AK86" s="40"/>
-      <c r="AL86" s="38" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM86" s="39"/>
-      <c r="AN86" s="39"/>
-      <c r="AO86" s="39"/>
-      <c r="AP86" s="39"/>
-      <c r="AQ86" s="39"/>
-      <c r="AR86" s="39"/>
-      <c r="AS86" s="39"/>
-      <c r="AT86" s="39"/>
-      <c r="AU86" s="39"/>
-      <c r="AV86" s="39"/>
-      <c r="AW86" s="39"/>
-      <c r="AX86" s="39"/>
-      <c r="AY86" s="39"/>
-      <c r="AZ86" s="39"/>
-      <c r="BA86" s="39"/>
-      <c r="BB86" s="39"/>
-      <c r="BC86" s="39"/>
-      <c r="BD86" s="39"/>
-      <c r="BE86" s="39"/>
-      <c r="BF86" s="112"/>
-      <c r="BG86" s="113"/>
-      <c r="BH86" s="113"/>
-      <c r="BI86" s="113"/>
-      <c r="BJ86" s="113"/>
-      <c r="BK86" s="113"/>
-      <c r="BL86" s="113"/>
-      <c r="BM86" s="113"/>
-      <c r="BN86" s="113"/>
-      <c r="BO86" s="113"/>
-      <c r="BP86" s="113"/>
-      <c r="BQ86" s="113"/>
-      <c r="BR86" s="113"/>
-      <c r="BS86" s="113"/>
-      <c r="BT86" s="113"/>
-      <c r="BU86" s="114"/>
-    </row>
-    <row r="87" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C87" s="97">
-        <f t="shared" si="1"/>
+      <c r="AM89" s="39"/>
+      <c r="AN89" s="39"/>
+      <c r="AO89" s="39"/>
+      <c r="AP89" s="39"/>
+      <c r="AQ89" s="39"/>
+      <c r="AR89" s="39"/>
+      <c r="AS89" s="39"/>
+      <c r="AT89" s="39"/>
+      <c r="AU89" s="39"/>
+      <c r="AV89" s="39"/>
+      <c r="AW89" s="39"/>
+      <c r="AX89" s="39"/>
+      <c r="AY89" s="39"/>
+      <c r="AZ89" s="39"/>
+      <c r="BA89" s="39"/>
+      <c r="BB89" s="39"/>
+      <c r="BC89" s="39"/>
+      <c r="BD89" s="39"/>
+      <c r="BE89" s="39"/>
+      <c r="BF89" s="130"/>
+      <c r="BG89" s="131"/>
+      <c r="BH89" s="131"/>
+      <c r="BI89" s="131"/>
+      <c r="BJ89" s="131"/>
+      <c r="BK89" s="131"/>
+      <c r="BL89" s="131"/>
+      <c r="BM89" s="131"/>
+      <c r="BN89" s="131"/>
+      <c r="BO89" s="131"/>
+      <c r="BP89" s="131"/>
+      <c r="BQ89" s="131"/>
+      <c r="BR89" s="131"/>
+      <c r="BS89" s="131"/>
+      <c r="BT89" s="131"/>
+      <c r="BU89" s="132"/>
+    </row>
+    <row r="90" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C90" s="122">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D87" s="98"/>
-      <c r="E87" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
-      <c r="H87" s="72"/>
-      <c r="I87" s="72"/>
-      <c r="J87" s="72"/>
-      <c r="K87" s="72"/>
-      <c r="L87" s="72"/>
-      <c r="M87" s="73"/>
-      <c r="N87" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="O87" s="72"/>
-      <c r="P87" s="72"/>
-      <c r="Q87" s="72"/>
-      <c r="R87" s="72"/>
-      <c r="S87" s="72"/>
-      <c r="T87" s="72"/>
-      <c r="U87" s="72"/>
-      <c r="V87" s="72"/>
-      <c r="W87" s="72"/>
-      <c r="X87" s="72"/>
-      <c r="Y87" s="72"/>
-      <c r="Z87" s="72"/>
-      <c r="AA87" s="72"/>
-      <c r="AB87" s="72"/>
-      <c r="AC87" s="72"/>
-      <c r="AD87" s="72"/>
-      <c r="AE87" s="72"/>
-      <c r="AF87" s="72"/>
-      <c r="AG87" s="72"/>
-      <c r="AH87" s="72"/>
-      <c r="AI87" s="72"/>
-      <c r="AJ87" s="72"/>
-      <c r="AK87" s="73"/>
-      <c r="AL87" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="AM87" s="72"/>
-      <c r="AN87" s="72"/>
-      <c r="AO87" s="72"/>
-      <c r="AP87" s="72"/>
-      <c r="AQ87" s="72"/>
-      <c r="AR87" s="72"/>
-      <c r="AS87" s="72"/>
-      <c r="AT87" s="72"/>
-      <c r="AU87" s="72"/>
-      <c r="AV87" s="72"/>
-      <c r="AW87" s="72"/>
-      <c r="AX87" s="72"/>
-      <c r="AY87" s="72"/>
-      <c r="AZ87" s="72"/>
-      <c r="BA87" s="72"/>
-      <c r="BB87" s="72"/>
-      <c r="BC87" s="72"/>
-      <c r="BD87" s="72"/>
-      <c r="BE87" s="72"/>
-      <c r="BF87" s="112"/>
-      <c r="BG87" s="113"/>
-      <c r="BH87" s="113"/>
-      <c r="BI87" s="113"/>
-      <c r="BJ87" s="113"/>
-      <c r="BK87" s="113"/>
-      <c r="BL87" s="113"/>
-      <c r="BM87" s="113"/>
-      <c r="BN87" s="113"/>
-      <c r="BO87" s="113"/>
-      <c r="BP87" s="113"/>
-      <c r="BQ87" s="113"/>
-      <c r="BR87" s="113"/>
-      <c r="BS87" s="113"/>
-      <c r="BT87" s="113"/>
-      <c r="BU87" s="114"/>
-    </row>
-    <row r="88" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C88" s="97">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D88" s="98"/>
-      <c r="E88" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="F88" s="72"/>
-      <c r="G88" s="72"/>
-      <c r="H88" s="72"/>
-      <c r="I88" s="72"/>
-      <c r="J88" s="72"/>
-      <c r="K88" s="72"/>
-      <c r="L88" s="72"/>
-      <c r="M88" s="73"/>
-      <c r="N88" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="O88" s="72"/>
-      <c r="P88" s="72"/>
-      <c r="Q88" s="72"/>
-      <c r="R88" s="72"/>
-      <c r="S88" s="72"/>
-      <c r="T88" s="72"/>
-      <c r="U88" s="72"/>
-      <c r="V88" s="72"/>
-      <c r="W88" s="72"/>
-      <c r="X88" s="72"/>
-      <c r="Y88" s="72"/>
-      <c r="Z88" s="72"/>
-      <c r="AA88" s="72"/>
-      <c r="AB88" s="72"/>
-      <c r="AC88" s="72"/>
-      <c r="AD88" s="72"/>
-      <c r="AE88" s="72"/>
-      <c r="AF88" s="72"/>
-      <c r="AG88" s="72"/>
-      <c r="AH88" s="72"/>
-      <c r="AI88" s="72"/>
-      <c r="AJ88" s="72"/>
-      <c r="AK88" s="73"/>
-      <c r="AL88" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="AM88" s="72"/>
-      <c r="AN88" s="72"/>
-      <c r="AO88" s="72"/>
-      <c r="AP88" s="72"/>
-      <c r="AQ88" s="72"/>
-      <c r="AR88" s="72"/>
-      <c r="AS88" s="72"/>
-      <c r="AT88" s="72"/>
-      <c r="AU88" s="72"/>
-      <c r="AV88" s="72"/>
-      <c r="AW88" s="72"/>
-      <c r="AX88" s="72"/>
-      <c r="AY88" s="72"/>
-      <c r="AZ88" s="72"/>
-      <c r="BA88" s="72"/>
-      <c r="BB88" s="72"/>
-      <c r="BC88" s="72"/>
-      <c r="BD88" s="72"/>
-      <c r="BE88" s="72"/>
-      <c r="BF88" s="112"/>
-      <c r="BG88" s="113"/>
-      <c r="BH88" s="113"/>
-      <c r="BI88" s="113"/>
-      <c r="BJ88" s="113"/>
-      <c r="BK88" s="113"/>
-      <c r="BL88" s="113"/>
-      <c r="BM88" s="113"/>
-      <c r="BN88" s="113"/>
-      <c r="BO88" s="113"/>
-      <c r="BP88" s="113"/>
-      <c r="BQ88" s="113"/>
-      <c r="BR88" s="113"/>
-      <c r="BS88" s="113"/>
-      <c r="BT88" s="113"/>
-      <c r="BU88" s="114"/>
-    </row>
-    <row r="89" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C89" s="97">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D89" s="98"/>
-      <c r="E89" s="74" t="s">
-        <v>89</v>
-      </c>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
-      <c r="H89" s="72"/>
-      <c r="I89" s="72"/>
-      <c r="J89" s="72"/>
-      <c r="K89" s="72"/>
-      <c r="L89" s="72"/>
-      <c r="M89" s="73"/>
-      <c r="N89" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="O89" s="72"/>
-      <c r="P89" s="72"/>
-      <c r="Q89" s="72"/>
-      <c r="R89" s="72"/>
-      <c r="S89" s="72"/>
-      <c r="T89" s="72"/>
-      <c r="U89" s="72"/>
-      <c r="V89" s="72"/>
-      <c r="W89" s="72"/>
-      <c r="X89" s="72"/>
-      <c r="Y89" s="72"/>
-      <c r="Z89" s="72"/>
-      <c r="AA89" s="72"/>
-      <c r="AB89" s="72"/>
-      <c r="AC89" s="72"/>
-      <c r="AD89" s="72"/>
-      <c r="AE89" s="72"/>
-      <c r="AF89" s="72"/>
-      <c r="AG89" s="72"/>
-      <c r="AH89" s="72"/>
-      <c r="AI89" s="72"/>
-      <c r="AJ89" s="72"/>
-      <c r="AK89" s="73"/>
-      <c r="AL89" s="71" t="s">
-        <v>108</v>
-      </c>
-      <c r="AM89" s="72"/>
-      <c r="AN89" s="72"/>
-      <c r="AO89" s="72"/>
-      <c r="AP89" s="72"/>
-      <c r="AQ89" s="72"/>
-      <c r="AR89" s="72"/>
-      <c r="AS89" s="72"/>
-      <c r="AT89" s="72"/>
-      <c r="AU89" s="72"/>
-      <c r="AV89" s="72"/>
-      <c r="AW89" s="72"/>
-      <c r="AX89" s="72"/>
-      <c r="AY89" s="72"/>
-      <c r="AZ89" s="72"/>
-      <c r="BA89" s="72"/>
-      <c r="BB89" s="72"/>
-      <c r="BC89" s="72"/>
-      <c r="BD89" s="72"/>
-      <c r="BE89" s="72"/>
-      <c r="BF89" s="112"/>
-      <c r="BG89" s="113"/>
-      <c r="BH89" s="113"/>
-      <c r="BI89" s="113"/>
-      <c r="BJ89" s="113"/>
-      <c r="BK89" s="113"/>
-      <c r="BL89" s="113"/>
-      <c r="BM89" s="113"/>
-      <c r="BN89" s="113"/>
-      <c r="BO89" s="113"/>
-      <c r="BP89" s="113"/>
-      <c r="BQ89" s="113"/>
-      <c r="BR89" s="113"/>
-      <c r="BS89" s="113"/>
-      <c r="BT89" s="113"/>
-      <c r="BU89" s="114"/>
-    </row>
-    <row r="90" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C90" s="97">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D90" s="98"/>
-      <c r="E90" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="F90" s="103"/>
-      <c r="G90" s="103"/>
-      <c r="H90" s="103"/>
-      <c r="I90" s="103"/>
-      <c r="J90" s="103"/>
-      <c r="K90" s="103"/>
-      <c r="L90" s="103"/>
-      <c r="M90" s="104"/>
+      <c r="D90" s="123"/>
+      <c r="E90" s="74" t="s">
+        <v>76</v>
+      </c>
+      <c r="F90" s="72"/>
+      <c r="G90" s="72"/>
+      <c r="H90" s="72"/>
+      <c r="I90" s="72"/>
+      <c r="J90" s="72"/>
+      <c r="K90" s="72"/>
+      <c r="L90" s="72"/>
+      <c r="M90" s="73"/>
       <c r="N90" s="71" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="O90" s="72"/>
       <c r="P90" s="72"/>
@@ -11047,7 +10905,7 @@
       <c r="AJ90" s="72"/>
       <c r="AK90" s="73"/>
       <c r="AL90" s="71" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="AM90" s="72"/>
       <c r="AN90" s="72"/>
@@ -11068,595 +10926,1010 @@
       <c r="BC90" s="72"/>
       <c r="BD90" s="72"/>
       <c r="BE90" s="72"/>
-      <c r="BF90" s="112"/>
-      <c r="BG90" s="113"/>
-      <c r="BH90" s="113"/>
-      <c r="BI90" s="113"/>
-      <c r="BJ90" s="113"/>
-      <c r="BK90" s="113"/>
-      <c r="BL90" s="113"/>
-      <c r="BM90" s="113"/>
-      <c r="BN90" s="113"/>
-      <c r="BO90" s="113"/>
-      <c r="BP90" s="113"/>
-      <c r="BQ90" s="113"/>
-      <c r="BR90" s="113"/>
-      <c r="BS90" s="113"/>
-      <c r="BT90" s="113"/>
-      <c r="BU90" s="114"/>
+      <c r="BF90" s="130"/>
+      <c r="BG90" s="131"/>
+      <c r="BH90" s="131"/>
+      <c r="BI90" s="131"/>
+      <c r="BJ90" s="131"/>
+      <c r="BK90" s="131"/>
+      <c r="BL90" s="131"/>
+      <c r="BM90" s="131"/>
+      <c r="BN90" s="131"/>
+      <c r="BO90" s="131"/>
+      <c r="BP90" s="131"/>
+      <c r="BQ90" s="131"/>
+      <c r="BR90" s="131"/>
+      <c r="BS90" s="131"/>
+      <c r="BT90" s="131"/>
+      <c r="BU90" s="132"/>
     </row>
     <row r="91" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C91" s="19"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
-      <c r="F91" s="19"/>
-      <c r="G91" s="19"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="19"/>
-      <c r="M91" s="19"/>
-      <c r="N91" s="19"/>
-      <c r="O91" s="19"/>
-      <c r="P91" s="19"/>
-      <c r="Q91" s="19"/>
-      <c r="R91" s="19"/>
-      <c r="S91" s="19"/>
-      <c r="T91" s="19"/>
-      <c r="U91" s="19"/>
-      <c r="V91" s="19"/>
-      <c r="W91" s="19"/>
-      <c r="X91" s="19"/>
-      <c r="Y91" s="19"/>
-      <c r="Z91" s="19"/>
-      <c r="AA91" s="19"/>
-      <c r="AB91" s="19"/>
-      <c r="AC91" s="19"/>
-      <c r="AD91" s="19"/>
-      <c r="AE91" s="19"/>
-      <c r="AF91" s="19"/>
-      <c r="AG91" s="19"/>
-      <c r="AH91" s="19"/>
-      <c r="AI91" s="19"/>
-      <c r="AJ91" s="19"/>
-      <c r="AK91" s="19"/>
-      <c r="AL91" s="19"/>
-      <c r="AM91" s="19"/>
-      <c r="AN91" s="19"/>
-      <c r="AO91" s="19"/>
-      <c r="AP91" s="19"/>
-      <c r="AQ91" s="19"/>
-      <c r="AR91" s="19"/>
-      <c r="AS91" s="19"/>
-      <c r="AT91" s="19"/>
-      <c r="AU91" s="19"/>
-      <c r="AV91" s="19"/>
-      <c r="AW91" s="19"/>
-      <c r="AX91" s="19"/>
-      <c r="AY91" s="19"/>
-      <c r="AZ91" s="19"/>
-      <c r="BA91" s="19"/>
-      <c r="BB91" s="19"/>
-      <c r="BC91" s="19"/>
-      <c r="BD91" s="19"/>
-      <c r="BE91" s="19"/>
-      <c r="BF91" s="19"/>
-      <c r="BG91" s="19"/>
-      <c r="BH91" s="19"/>
-      <c r="BI91" s="19"/>
-      <c r="BJ91" s="19"/>
-      <c r="BK91" s="19"/>
-      <c r="BL91" s="19"/>
-      <c r="BM91" s="19"/>
-      <c r="BN91" s="19"/>
-      <c r="BO91" s="19"/>
-      <c r="BP91" s="19"/>
-      <c r="BQ91" s="19"/>
-      <c r="BR91" s="19"/>
-      <c r="BS91" s="19"/>
-      <c r="BT91" s="19"/>
-      <c r="BU91" s="19"/>
-    </row>
-    <row r="92" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C92" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
-      <c r="F92" s="19"/>
-      <c r="G92" s="19"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="19"/>
-      <c r="M92" s="19"/>
-      <c r="N92" s="19"/>
-      <c r="O92" s="19"/>
-      <c r="P92" s="19"/>
-      <c r="Q92" s="19"/>
-      <c r="R92" s="19"/>
-      <c r="S92" s="19"/>
-      <c r="T92" s="19"/>
-      <c r="U92" s="19"/>
-      <c r="V92" s="19"/>
-      <c r="W92" s="19"/>
-      <c r="X92" s="19"/>
-      <c r="Y92" s="19"/>
-      <c r="Z92" s="19"/>
-      <c r="AA92" s="19"/>
-      <c r="AB92" s="19"/>
-      <c r="AC92" s="19"/>
-      <c r="AD92" s="19"/>
-      <c r="AE92" s="19"/>
-      <c r="AF92" s="19"/>
-      <c r="AG92" s="19"/>
-      <c r="AH92" s="19"/>
-      <c r="AI92" s="19"/>
-      <c r="AJ92" s="19"/>
-      <c r="AK92" s="19"/>
-      <c r="AL92" s="19"/>
-      <c r="AM92" s="19"/>
-      <c r="AN92" s="19"/>
-      <c r="AO92" s="19"/>
-      <c r="AP92" s="19"/>
-      <c r="AQ92" s="19"/>
-      <c r="AR92" s="19"/>
-      <c r="AS92" s="19"/>
-      <c r="AT92" s="19"/>
-      <c r="AU92" s="19"/>
-      <c r="AV92" s="19"/>
-      <c r="AW92" s="19"/>
-      <c r="AX92" s="19"/>
-      <c r="AY92" s="19"/>
-      <c r="AZ92" s="19"/>
-      <c r="BA92" s="19"/>
-      <c r="BB92" s="19"/>
-      <c r="BC92" s="19"/>
-      <c r="BD92" s="19"/>
-      <c r="BE92" s="19"/>
-      <c r="BF92" s="19"/>
-      <c r="BG92" s="19"/>
-      <c r="BH92" s="19"/>
-      <c r="BI92" s="19"/>
-      <c r="BJ92" s="19"/>
-      <c r="BK92" s="19"/>
-      <c r="BL92" s="19"/>
-      <c r="BM92" s="19"/>
-      <c r="BN92" s="19"/>
-      <c r="BO92" s="19"/>
-      <c r="BP92" s="19"/>
-      <c r="BQ92" s="19"/>
-      <c r="BR92" s="19"/>
-      <c r="BS92" s="19"/>
-      <c r="BT92" s="19"/>
-      <c r="BU92" s="19"/>
-    </row>
-    <row r="93" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C93" s="106" t="s">
-        <v>14</v>
-      </c>
-      <c r="D93" s="107"/>
-      <c r="E93" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F93" s="34"/>
-      <c r="G93" s="34"/>
-      <c r="H93" s="34"/>
-      <c r="I93" s="34"/>
-      <c r="J93" s="34"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="34"/>
-      <c r="M93" s="34"/>
-      <c r="N93" s="34"/>
-      <c r="O93" s="34"/>
-      <c r="P93" s="34"/>
-      <c r="Q93" s="34"/>
-      <c r="R93" s="34"/>
-      <c r="S93" s="34"/>
-      <c r="T93" s="34"/>
-      <c r="U93" s="34"/>
-      <c r="V93" s="34"/>
-      <c r="W93" s="34"/>
-      <c r="X93" s="34"/>
-      <c r="Y93" s="33"/>
-      <c r="Z93" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA93" s="34"/>
-      <c r="AB93" s="34"/>
-      <c r="AC93" s="34"/>
-      <c r="AD93" s="34"/>
-      <c r="AE93" s="34"/>
-      <c r="AF93" s="34"/>
-      <c r="AG93" s="34"/>
-      <c r="AH93" s="34"/>
-      <c r="AI93" s="34"/>
-      <c r="AJ93" s="34"/>
-      <c r="AK93" s="34"/>
-      <c r="AL93" s="34"/>
-      <c r="AM93" s="34"/>
-      <c r="AN93" s="34"/>
-      <c r="AO93" s="34"/>
-      <c r="AP93" s="34"/>
-      <c r="AQ93" s="34"/>
-      <c r="AR93" s="34"/>
-      <c r="AS93" s="34"/>
-      <c r="AT93" s="34"/>
-      <c r="AU93" s="34"/>
-      <c r="AV93" s="34"/>
-      <c r="AW93" s="34"/>
-      <c r="AX93" s="34"/>
-      <c r="AY93" s="34"/>
-      <c r="AZ93" s="34"/>
-      <c r="BA93" s="34"/>
-      <c r="BB93" s="34"/>
-      <c r="BC93" s="34"/>
-      <c r="BD93" s="34"/>
-      <c r="BE93" s="33"/>
-      <c r="BF93" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG93" s="34"/>
-      <c r="BH93" s="34"/>
-      <c r="BI93" s="34"/>
-      <c r="BJ93" s="34"/>
-      <c r="BK93" s="34"/>
-      <c r="BL93" s="34"/>
-      <c r="BM93" s="34"/>
-      <c r="BN93" s="34"/>
-      <c r="BO93" s="34"/>
-      <c r="BP93" s="34"/>
-      <c r="BQ93" s="34"/>
-      <c r="BR93" s="34"/>
-      <c r="BS93" s="34"/>
-      <c r="BT93" s="34"/>
-      <c r="BU93" s="33"/>
-    </row>
-    <row r="94" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C94" s="97">
-        <f t="shared" ref="C94:C96" si="2">ROW()-ROW($C$93)</f>
-        <v>1</v>
-      </c>
-      <c r="D94" s="98"/>
-      <c r="E94" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="F94" s="95"/>
-      <c r="G94" s="95"/>
-      <c r="H94" s="95"/>
-      <c r="I94" s="95"/>
-      <c r="J94" s="95"/>
-      <c r="K94" s="95"/>
-      <c r="L94" s="95"/>
-      <c r="M94" s="95"/>
-      <c r="N94" s="95"/>
-      <c r="O94" s="95"/>
-      <c r="P94" s="95"/>
-      <c r="Q94" s="95"/>
-      <c r="R94" s="95"/>
-      <c r="S94" s="95"/>
-      <c r="T94" s="95"/>
-      <c r="U94" s="95"/>
-      <c r="V94" s="95"/>
-      <c r="W94" s="95"/>
-      <c r="X94" s="95"/>
-      <c r="Y94" s="96"/>
-      <c r="Z94" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA94" s="95"/>
-      <c r="AB94" s="95"/>
-      <c r="AC94" s="95"/>
-      <c r="AD94" s="95"/>
-      <c r="AE94" s="95"/>
-      <c r="AF94" s="95"/>
-      <c r="AG94" s="95"/>
-      <c r="AH94" s="95"/>
-      <c r="AI94" s="95"/>
-      <c r="AJ94" s="95"/>
-      <c r="AK94" s="95"/>
-      <c r="AL94" s="95"/>
-      <c r="AM94" s="95"/>
-      <c r="AN94" s="95"/>
-      <c r="AO94" s="95"/>
-      <c r="AP94" s="95"/>
-      <c r="AQ94" s="95"/>
-      <c r="AR94" s="95"/>
-      <c r="AS94" s="95"/>
-      <c r="AT94" s="95"/>
-      <c r="AU94" s="95"/>
-      <c r="AV94" s="95"/>
-      <c r="AW94" s="95"/>
-      <c r="AX94" s="95"/>
-      <c r="AY94" s="95"/>
-      <c r="AZ94" s="95"/>
-      <c r="BA94" s="95"/>
-      <c r="BB94" s="95"/>
-      <c r="BC94" s="95"/>
-      <c r="BD94" s="95"/>
-      <c r="BE94" s="96"/>
-      <c r="BF94" s="38"/>
-      <c r="BG94" s="39"/>
-      <c r="BH94" s="39"/>
-      <c r="BI94" s="39"/>
-      <c r="BJ94" s="39"/>
-      <c r="BK94" s="39"/>
-      <c r="BL94" s="39"/>
-      <c r="BM94" s="39"/>
-      <c r="BN94" s="39"/>
-      <c r="BO94" s="39"/>
-      <c r="BP94" s="39"/>
-      <c r="BQ94" s="39"/>
-      <c r="BR94" s="39"/>
-      <c r="BS94" s="39"/>
-      <c r="BT94" s="39"/>
-      <c r="BU94" s="40"/>
-    </row>
-    <row r="95" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C95" s="97">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="D95" s="98"/>
-      <c r="E95" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="F95" s="95"/>
-      <c r="G95" s="95"/>
-      <c r="H95" s="95"/>
-      <c r="I95" s="95"/>
-      <c r="J95" s="95"/>
-      <c r="K95" s="95"/>
-      <c r="L95" s="95"/>
-      <c r="M95" s="95"/>
-      <c r="N95" s="95"/>
-      <c r="O95" s="95"/>
-      <c r="P95" s="95"/>
-      <c r="Q95" s="95"/>
-      <c r="R95" s="95"/>
-      <c r="S95" s="95"/>
-      <c r="T95" s="95"/>
-      <c r="U95" s="95"/>
-      <c r="V95" s="95"/>
-      <c r="W95" s="95"/>
-      <c r="X95" s="95"/>
-      <c r="Y95" s="96"/>
-      <c r="Z95" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="AA95" s="95"/>
-      <c r="AB95" s="95"/>
-      <c r="AC95" s="95"/>
-      <c r="AD95" s="95"/>
-      <c r="AE95" s="95"/>
-      <c r="AF95" s="95"/>
-      <c r="AG95" s="95"/>
-      <c r="AH95" s="95"/>
-      <c r="AI95" s="95"/>
-      <c r="AJ95" s="95"/>
-      <c r="AK95" s="95"/>
-      <c r="AL95" s="95"/>
-      <c r="AM95" s="95"/>
-      <c r="AN95" s="95"/>
-      <c r="AO95" s="95"/>
-      <c r="AP95" s="95"/>
-      <c r="AQ95" s="95"/>
-      <c r="AR95" s="95"/>
-      <c r="AS95" s="95"/>
-      <c r="AT95" s="95"/>
-      <c r="AU95" s="95"/>
-      <c r="AV95" s="95"/>
-      <c r="AW95" s="95"/>
-      <c r="AX95" s="95"/>
-      <c r="AY95" s="95"/>
-      <c r="AZ95" s="95"/>
-      <c r="BA95" s="95"/>
-      <c r="BB95" s="95"/>
-      <c r="BC95" s="95"/>
-      <c r="BD95" s="95"/>
-      <c r="BE95" s="96"/>
-      <c r="BF95" s="41"/>
-      <c r="BG95" s="42"/>
-      <c r="BH95" s="42"/>
-      <c r="BI95" s="42"/>
-      <c r="BJ95" s="42"/>
-      <c r="BK95" s="42"/>
-      <c r="BL95" s="42"/>
-      <c r="BM95" s="42"/>
-      <c r="BN95" s="42"/>
-      <c r="BO95" s="42"/>
-      <c r="BP95" s="42"/>
-      <c r="BQ95" s="42"/>
-      <c r="BR95" s="42"/>
-      <c r="BS95" s="42"/>
-      <c r="BT95" s="42"/>
-      <c r="BU95" s="43"/>
-    </row>
-    <row r="96" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C96" s="97">
+      <c r="C91" s="122">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D96" s="98"/>
-      <c r="E96" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="F96" s="95"/>
-      <c r="G96" s="95"/>
-      <c r="H96" s="95"/>
-      <c r="I96" s="95"/>
-      <c r="J96" s="95"/>
-      <c r="K96" s="95"/>
-      <c r="L96" s="95"/>
-      <c r="M96" s="95"/>
-      <c r="N96" s="95"/>
-      <c r="O96" s="95"/>
-      <c r="P96" s="95"/>
-      <c r="Q96" s="95"/>
-      <c r="R96" s="95"/>
-      <c r="S96" s="95"/>
-      <c r="T96" s="95"/>
-      <c r="U96" s="95"/>
-      <c r="V96" s="95"/>
-      <c r="W96" s="95"/>
-      <c r="X96" s="95"/>
-      <c r="Y96" s="96"/>
-      <c r="Z96" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA96" s="95"/>
-      <c r="AB96" s="95"/>
-      <c r="AC96" s="95"/>
-      <c r="AD96" s="95"/>
-      <c r="AE96" s="95"/>
-      <c r="AF96" s="95"/>
-      <c r="AG96" s="95"/>
-      <c r="AH96" s="95"/>
-      <c r="AI96" s="95"/>
-      <c r="AJ96" s="95"/>
-      <c r="AK96" s="95"/>
-      <c r="AL96" s="95"/>
-      <c r="AM96" s="95"/>
-      <c r="AN96" s="95"/>
-      <c r="AO96" s="95"/>
-      <c r="AP96" s="95"/>
-      <c r="AQ96" s="95"/>
-      <c r="AR96" s="95"/>
-      <c r="AS96" s="95"/>
-      <c r="AT96" s="95"/>
-      <c r="AU96" s="95"/>
-      <c r="AV96" s="95"/>
-      <c r="AW96" s="95"/>
-      <c r="AX96" s="95"/>
-      <c r="AY96" s="95"/>
-      <c r="AZ96" s="95"/>
-      <c r="BA96" s="95"/>
-      <c r="BB96" s="95"/>
-      <c r="BC96" s="95"/>
-      <c r="BD96" s="95"/>
-      <c r="BE96" s="96"/>
-      <c r="BF96" s="71"/>
-      <c r="BG96" s="72"/>
-      <c r="BH96" s="72"/>
-      <c r="BI96" s="72"/>
-      <c r="BJ96" s="72"/>
-      <c r="BK96" s="72"/>
-      <c r="BL96" s="72"/>
-      <c r="BM96" s="72"/>
-      <c r="BN96" s="72"/>
-      <c r="BO96" s="72"/>
-      <c r="BP96" s="72"/>
-      <c r="BQ96" s="72"/>
-      <c r="BR96" s="72"/>
-      <c r="BS96" s="72"/>
-      <c r="BT96" s="72"/>
-      <c r="BU96" s="73"/>
+      <c r="D91" s="123"/>
+      <c r="E91" s="74" t="s">
+        <v>78</v>
+      </c>
+      <c r="F91" s="72"/>
+      <c r="G91" s="72"/>
+      <c r="H91" s="72"/>
+      <c r="I91" s="72"/>
+      <c r="J91" s="72"/>
+      <c r="K91" s="72"/>
+      <c r="L91" s="72"/>
+      <c r="M91" s="73"/>
+      <c r="N91" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="O91" s="72"/>
+      <c r="P91" s="72"/>
+      <c r="Q91" s="72"/>
+      <c r="R91" s="72"/>
+      <c r="S91" s="72"/>
+      <c r="T91" s="72"/>
+      <c r="U91" s="72"/>
+      <c r="V91" s="72"/>
+      <c r="W91" s="72"/>
+      <c r="X91" s="72"/>
+      <c r="Y91" s="72"/>
+      <c r="Z91" s="72"/>
+      <c r="AA91" s="72"/>
+      <c r="AB91" s="72"/>
+      <c r="AC91" s="72"/>
+      <c r="AD91" s="72"/>
+      <c r="AE91" s="72"/>
+      <c r="AF91" s="72"/>
+      <c r="AG91" s="72"/>
+      <c r="AH91" s="72"/>
+      <c r="AI91" s="72"/>
+      <c r="AJ91" s="72"/>
+      <c r="AK91" s="73"/>
+      <c r="AL91" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="AM91" s="72"/>
+      <c r="AN91" s="72"/>
+      <c r="AO91" s="72"/>
+      <c r="AP91" s="72"/>
+      <c r="AQ91" s="72"/>
+      <c r="AR91" s="72"/>
+      <c r="AS91" s="72"/>
+      <c r="AT91" s="72"/>
+      <c r="AU91" s="72"/>
+      <c r="AV91" s="72"/>
+      <c r="AW91" s="72"/>
+      <c r="AX91" s="72"/>
+      <c r="AY91" s="72"/>
+      <c r="AZ91" s="72"/>
+      <c r="BA91" s="72"/>
+      <c r="BB91" s="72"/>
+      <c r="BC91" s="72"/>
+      <c r="BD91" s="72"/>
+      <c r="BE91" s="72"/>
+      <c r="BF91" s="130"/>
+      <c r="BG91" s="131"/>
+      <c r="BH91" s="131"/>
+      <c r="BI91" s="131"/>
+      <c r="BJ91" s="131"/>
+      <c r="BK91" s="131"/>
+      <c r="BL91" s="131"/>
+      <c r="BM91" s="131"/>
+      <c r="BN91" s="131"/>
+      <c r="BO91" s="131"/>
+      <c r="BP91" s="131"/>
+      <c r="BQ91" s="131"/>
+      <c r="BR91" s="131"/>
+      <c r="BS91" s="131"/>
+      <c r="BT91" s="131"/>
+      <c r="BU91" s="132"/>
+    </row>
+    <row r="92" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C92" s="122">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D92" s="123"/>
+      <c r="E92" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="F92" s="72"/>
+      <c r="G92" s="72"/>
+      <c r="H92" s="72"/>
+      <c r="I92" s="72"/>
+      <c r="J92" s="72"/>
+      <c r="K92" s="72"/>
+      <c r="L92" s="72"/>
+      <c r="M92" s="73"/>
+      <c r="N92" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="O92" s="72"/>
+      <c r="P92" s="72"/>
+      <c r="Q92" s="72"/>
+      <c r="R92" s="72"/>
+      <c r="S92" s="72"/>
+      <c r="T92" s="72"/>
+      <c r="U92" s="72"/>
+      <c r="V92" s="72"/>
+      <c r="W92" s="72"/>
+      <c r="X92" s="72"/>
+      <c r="Y92" s="72"/>
+      <c r="Z92" s="72"/>
+      <c r="AA92" s="72"/>
+      <c r="AB92" s="72"/>
+      <c r="AC92" s="72"/>
+      <c r="AD92" s="72"/>
+      <c r="AE92" s="72"/>
+      <c r="AF92" s="72"/>
+      <c r="AG92" s="72"/>
+      <c r="AH92" s="72"/>
+      <c r="AI92" s="72"/>
+      <c r="AJ92" s="72"/>
+      <c r="AK92" s="73"/>
+      <c r="AL92" s="71" t="s">
+        <v>102</v>
+      </c>
+      <c r="AM92" s="72"/>
+      <c r="AN92" s="72"/>
+      <c r="AO92" s="72"/>
+      <c r="AP92" s="72"/>
+      <c r="AQ92" s="72"/>
+      <c r="AR92" s="72"/>
+      <c r="AS92" s="72"/>
+      <c r="AT92" s="72"/>
+      <c r="AU92" s="72"/>
+      <c r="AV92" s="72"/>
+      <c r="AW92" s="72"/>
+      <c r="AX92" s="72"/>
+      <c r="AY92" s="72"/>
+      <c r="AZ92" s="72"/>
+      <c r="BA92" s="72"/>
+      <c r="BB92" s="72"/>
+      <c r="BC92" s="72"/>
+      <c r="BD92" s="72"/>
+      <c r="BE92" s="72"/>
+      <c r="BF92" s="130"/>
+      <c r="BG92" s="131"/>
+      <c r="BH92" s="131"/>
+      <c r="BI92" s="131"/>
+      <c r="BJ92" s="131"/>
+      <c r="BK92" s="131"/>
+      <c r="BL92" s="131"/>
+      <c r="BM92" s="131"/>
+      <c r="BN92" s="131"/>
+      <c r="BO92" s="131"/>
+      <c r="BP92" s="131"/>
+      <c r="BQ92" s="131"/>
+      <c r="BR92" s="131"/>
+      <c r="BS92" s="131"/>
+      <c r="BT92" s="131"/>
+      <c r="BU92" s="132"/>
+    </row>
+    <row r="93" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C93" s="122">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D93" s="123"/>
+      <c r="E93" s="127" t="s">
+        <v>85</v>
+      </c>
+      <c r="F93" s="128"/>
+      <c r="G93" s="128"/>
+      <c r="H93" s="128"/>
+      <c r="I93" s="128"/>
+      <c r="J93" s="128"/>
+      <c r="K93" s="128"/>
+      <c r="L93" s="128"/>
+      <c r="M93" s="129"/>
+      <c r="N93" s="71" t="s">
+        <v>104</v>
+      </c>
+      <c r="O93" s="72"/>
+      <c r="P93" s="72"/>
+      <c r="Q93" s="72"/>
+      <c r="R93" s="72"/>
+      <c r="S93" s="72"/>
+      <c r="T93" s="72"/>
+      <c r="U93" s="72"/>
+      <c r="V93" s="72"/>
+      <c r="W93" s="72"/>
+      <c r="X93" s="72"/>
+      <c r="Y93" s="72"/>
+      <c r="Z93" s="72"/>
+      <c r="AA93" s="72"/>
+      <c r="AB93" s="72"/>
+      <c r="AC93" s="72"/>
+      <c r="AD93" s="72"/>
+      <c r="AE93" s="72"/>
+      <c r="AF93" s="72"/>
+      <c r="AG93" s="72"/>
+      <c r="AH93" s="72"/>
+      <c r="AI93" s="72"/>
+      <c r="AJ93" s="72"/>
+      <c r="AK93" s="73"/>
+      <c r="AL93" s="71" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM93" s="72"/>
+      <c r="AN93" s="72"/>
+      <c r="AO93" s="72"/>
+      <c r="AP93" s="72"/>
+      <c r="AQ93" s="72"/>
+      <c r="AR93" s="72"/>
+      <c r="AS93" s="72"/>
+      <c r="AT93" s="72"/>
+      <c r="AU93" s="72"/>
+      <c r="AV93" s="72"/>
+      <c r="AW93" s="72"/>
+      <c r="AX93" s="72"/>
+      <c r="AY93" s="72"/>
+      <c r="AZ93" s="72"/>
+      <c r="BA93" s="72"/>
+      <c r="BB93" s="72"/>
+      <c r="BC93" s="72"/>
+      <c r="BD93" s="72"/>
+      <c r="BE93" s="72"/>
+      <c r="BF93" s="130"/>
+      <c r="BG93" s="131"/>
+      <c r="BH93" s="131"/>
+      <c r="BI93" s="131"/>
+      <c r="BJ93" s="131"/>
+      <c r="BK93" s="131"/>
+      <c r="BL93" s="131"/>
+      <c r="BM93" s="131"/>
+      <c r="BN93" s="131"/>
+      <c r="BO93" s="131"/>
+      <c r="BP93" s="131"/>
+      <c r="BQ93" s="131"/>
+      <c r="BR93" s="131"/>
+      <c r="BS93" s="131"/>
+      <c r="BT93" s="131"/>
+      <c r="BU93" s="132"/>
+    </row>
+    <row r="94" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C94" s="19"/>
+      <c r="D94" s="19"/>
+      <c r="E94" s="19"/>
+      <c r="F94" s="19"/>
+      <c r="G94" s="19"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="19"/>
+      <c r="M94" s="19"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="19"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="19"/>
+      <c r="R94" s="19"/>
+      <c r="S94" s="19"/>
+      <c r="T94" s="19"/>
+      <c r="U94" s="19"/>
+      <c r="V94" s="19"/>
+      <c r="W94" s="19"/>
+      <c r="X94" s="19"/>
+      <c r="Y94" s="19"/>
+      <c r="Z94" s="19"/>
+      <c r="AA94" s="19"/>
+      <c r="AB94" s="19"/>
+      <c r="AC94" s="19"/>
+      <c r="AD94" s="19"/>
+      <c r="AE94" s="19"/>
+      <c r="AF94" s="19"/>
+      <c r="AG94" s="19"/>
+      <c r="AH94" s="19"/>
+      <c r="AI94" s="19"/>
+      <c r="AJ94" s="19"/>
+      <c r="AK94" s="19"/>
+      <c r="AL94" s="19"/>
+      <c r="AM94" s="19"/>
+      <c r="AN94" s="19"/>
+      <c r="AO94" s="19"/>
+      <c r="AP94" s="19"/>
+      <c r="AQ94" s="19"/>
+      <c r="AR94" s="19"/>
+      <c r="AS94" s="19"/>
+      <c r="AT94" s="19"/>
+      <c r="AU94" s="19"/>
+      <c r="AV94" s="19"/>
+      <c r="AW94" s="19"/>
+      <c r="AX94" s="19"/>
+      <c r="AY94" s="19"/>
+      <c r="AZ94" s="19"/>
+      <c r="BA94" s="19"/>
+      <c r="BB94" s="19"/>
+      <c r="BC94" s="19"/>
+      <c r="BD94" s="19"/>
+      <c r="BE94" s="19"/>
+      <c r="BF94" s="19"/>
+      <c r="BG94" s="19"/>
+      <c r="BH94" s="19"/>
+      <c r="BI94" s="19"/>
+      <c r="BJ94" s="19"/>
+      <c r="BK94" s="19"/>
+      <c r="BL94" s="19"/>
+      <c r="BM94" s="19"/>
+      <c r="BN94" s="19"/>
+      <c r="BO94" s="19"/>
+      <c r="BP94" s="19"/>
+      <c r="BQ94" s="19"/>
+      <c r="BR94" s="19"/>
+      <c r="BS94" s="19"/>
+      <c r="BT94" s="19"/>
+      <c r="BU94" s="19"/>
+    </row>
+    <row r="95" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C95" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D95" s="19"/>
+      <c r="E95" s="19"/>
+      <c r="F95" s="19"/>
+      <c r="G95" s="19"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="19"/>
+      <c r="M95" s="19"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="19"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="19"/>
+      <c r="R95" s="19"/>
+      <c r="S95" s="19"/>
+      <c r="T95" s="19"/>
+      <c r="U95" s="19"/>
+      <c r="V95" s="19"/>
+      <c r="W95" s="19"/>
+      <c r="X95" s="19"/>
+      <c r="Y95" s="19"/>
+      <c r="Z95" s="19"/>
+      <c r="AA95" s="19"/>
+      <c r="AB95" s="19"/>
+      <c r="AC95" s="19"/>
+      <c r="AD95" s="19"/>
+      <c r="AE95" s="19"/>
+      <c r="AF95" s="19"/>
+      <c r="AG95" s="19"/>
+      <c r="AH95" s="19"/>
+      <c r="AI95" s="19"/>
+      <c r="AJ95" s="19"/>
+      <c r="AK95" s="19"/>
+      <c r="AL95" s="19"/>
+      <c r="AM95" s="19"/>
+      <c r="AN95" s="19"/>
+      <c r="AO95" s="19"/>
+      <c r="AP95" s="19"/>
+      <c r="AQ95" s="19"/>
+      <c r="AR95" s="19"/>
+      <c r="AS95" s="19"/>
+      <c r="AT95" s="19"/>
+      <c r="AU95" s="19"/>
+      <c r="AV95" s="19"/>
+      <c r="AW95" s="19"/>
+      <c r="AX95" s="19"/>
+      <c r="AY95" s="19"/>
+      <c r="AZ95" s="19"/>
+      <c r="BA95" s="19"/>
+      <c r="BB95" s="19"/>
+      <c r="BC95" s="19"/>
+      <c r="BD95" s="19"/>
+      <c r="BE95" s="19"/>
+      <c r="BF95" s="19"/>
+      <c r="BG95" s="19"/>
+      <c r="BH95" s="19"/>
+      <c r="BI95" s="19"/>
+      <c r="BJ95" s="19"/>
+      <c r="BK95" s="19"/>
+      <c r="BL95" s="19"/>
+      <c r="BM95" s="19"/>
+      <c r="BN95" s="19"/>
+      <c r="BO95" s="19"/>
+      <c r="BP95" s="19"/>
+      <c r="BQ95" s="19"/>
+      <c r="BR95" s="19"/>
+      <c r="BS95" s="19"/>
+      <c r="BT95" s="19"/>
+      <c r="BU95" s="19"/>
+    </row>
+    <row r="96" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="C96" s="137" t="s">
+        <v>14</v>
+      </c>
+      <c r="D96" s="138"/>
+      <c r="E96" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F96" s="34"/>
+      <c r="G96" s="34"/>
+      <c r="H96" s="34"/>
+      <c r="I96" s="34"/>
+      <c r="J96" s="34"/>
+      <c r="K96" s="34"/>
+      <c r="L96" s="34"/>
+      <c r="M96" s="34"/>
+      <c r="N96" s="34"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
+      <c r="Q96" s="34"/>
+      <c r="R96" s="34"/>
+      <c r="S96" s="34"/>
+      <c r="T96" s="34"/>
+      <c r="U96" s="34"/>
+      <c r="V96" s="34"/>
+      <c r="W96" s="34"/>
+      <c r="X96" s="34"/>
+      <c r="Y96" s="33"/>
+      <c r="Z96" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA96" s="34"/>
+      <c r="AB96" s="34"/>
+      <c r="AC96" s="34"/>
+      <c r="AD96" s="34"/>
+      <c r="AE96" s="34"/>
+      <c r="AF96" s="34"/>
+      <c r="AG96" s="34"/>
+      <c r="AH96" s="34"/>
+      <c r="AI96" s="34"/>
+      <c r="AJ96" s="34"/>
+      <c r="AK96" s="34"/>
+      <c r="AL96" s="34"/>
+      <c r="AM96" s="34"/>
+      <c r="AN96" s="34"/>
+      <c r="AO96" s="34"/>
+      <c r="AP96" s="34"/>
+      <c r="AQ96" s="34"/>
+      <c r="AR96" s="34"/>
+      <c r="AS96" s="34"/>
+      <c r="AT96" s="34"/>
+      <c r="AU96" s="34"/>
+      <c r="AV96" s="34"/>
+      <c r="AW96" s="34"/>
+      <c r="AX96" s="34"/>
+      <c r="AY96" s="34"/>
+      <c r="AZ96" s="34"/>
+      <c r="BA96" s="34"/>
+      <c r="BB96" s="34"/>
+      <c r="BC96" s="34"/>
+      <c r="BD96" s="34"/>
+      <c r="BE96" s="33"/>
+      <c r="BF96" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG96" s="34"/>
+      <c r="BH96" s="34"/>
+      <c r="BI96" s="34"/>
+      <c r="BJ96" s="34"/>
+      <c r="BK96" s="34"/>
+      <c r="BL96" s="34"/>
+      <c r="BM96" s="34"/>
+      <c r="BN96" s="34"/>
+      <c r="BO96" s="34"/>
+      <c r="BP96" s="34"/>
+      <c r="BQ96" s="34"/>
+      <c r="BR96" s="34"/>
+      <c r="BS96" s="34"/>
+      <c r="BT96" s="34"/>
+      <c r="BU96" s="33"/>
+    </row>
+    <row r="97" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C97" s="122">
+        <f t="shared" ref="C97:C101" si="3">ROW()-ROW($C$96)</f>
+        <v>1</v>
+      </c>
+      <c r="D97" s="123"/>
+      <c r="E97" s="124" t="s">
+        <v>110</v>
+      </c>
+      <c r="F97" s="125"/>
+      <c r="G97" s="125"/>
+      <c r="H97" s="125"/>
+      <c r="I97" s="125"/>
+      <c r="J97" s="125"/>
+      <c r="K97" s="125"/>
+      <c r="L97" s="125"/>
+      <c r="M97" s="125"/>
+      <c r="N97" s="125"/>
+      <c r="O97" s="125"/>
+      <c r="P97" s="125"/>
+      <c r="Q97" s="125"/>
+      <c r="R97" s="125"/>
+      <c r="S97" s="125"/>
+      <c r="T97" s="125"/>
+      <c r="U97" s="125"/>
+      <c r="V97" s="125"/>
+      <c r="W97" s="125"/>
+      <c r="X97" s="125"/>
+      <c r="Y97" s="126"/>
+      <c r="Z97" s="124" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA97" s="125"/>
+      <c r="AB97" s="125"/>
+      <c r="AC97" s="125"/>
+      <c r="AD97" s="125"/>
+      <c r="AE97" s="125"/>
+      <c r="AF97" s="125"/>
+      <c r="AG97" s="125"/>
+      <c r="AH97" s="125"/>
+      <c r="AI97" s="125"/>
+      <c r="AJ97" s="125"/>
+      <c r="AK97" s="125"/>
+      <c r="AL97" s="125"/>
+      <c r="AM97" s="125"/>
+      <c r="AN97" s="125"/>
+      <c r="AO97" s="125"/>
+      <c r="AP97" s="125"/>
+      <c r="AQ97" s="125"/>
+      <c r="AR97" s="125"/>
+      <c r="AS97" s="125"/>
+      <c r="AT97" s="125"/>
+      <c r="AU97" s="125"/>
+      <c r="AV97" s="125"/>
+      <c r="AW97" s="125"/>
+      <c r="AX97" s="125"/>
+      <c r="AY97" s="125"/>
+      <c r="AZ97" s="125"/>
+      <c r="BA97" s="125"/>
+      <c r="BB97" s="125"/>
+      <c r="BC97" s="125"/>
+      <c r="BD97" s="125"/>
+      <c r="BE97" s="126"/>
+      <c r="BF97" s="41"/>
+      <c r="BG97" s="42"/>
+      <c r="BH97" s="42"/>
+      <c r="BI97" s="42"/>
+      <c r="BJ97" s="42"/>
+      <c r="BK97" s="42"/>
+      <c r="BL97" s="42"/>
+      <c r="BM97" s="42"/>
+      <c r="BN97" s="42"/>
+      <c r="BO97" s="42"/>
+      <c r="BP97" s="42"/>
+      <c r="BQ97" s="42"/>
+      <c r="BR97" s="42"/>
+      <c r="BS97" s="42"/>
+      <c r="BT97" s="42"/>
+      <c r="BU97" s="43"/>
+    </row>
+    <row r="98" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C98" s="122">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="D98" s="123"/>
+      <c r="E98" s="124" t="s">
+        <v>112</v>
+      </c>
+      <c r="F98" s="125"/>
+      <c r="G98" s="125"/>
+      <c r="H98" s="125"/>
+      <c r="I98" s="125"/>
+      <c r="J98" s="125"/>
+      <c r="K98" s="125"/>
+      <c r="L98" s="125"/>
+      <c r="M98" s="125"/>
+      <c r="N98" s="125"/>
+      <c r="O98" s="125"/>
+      <c r="P98" s="125"/>
+      <c r="Q98" s="125"/>
+      <c r="R98" s="125"/>
+      <c r="S98" s="125"/>
+      <c r="T98" s="125"/>
+      <c r="U98" s="125"/>
+      <c r="V98" s="125"/>
+      <c r="W98" s="125"/>
+      <c r="X98" s="125"/>
+      <c r="Y98" s="126"/>
+      <c r="Z98" s="124" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA98" s="125"/>
+      <c r="AB98" s="125"/>
+      <c r="AC98" s="125"/>
+      <c r="AD98" s="125"/>
+      <c r="AE98" s="125"/>
+      <c r="AF98" s="125"/>
+      <c r="AG98" s="125"/>
+      <c r="AH98" s="125"/>
+      <c r="AI98" s="125"/>
+      <c r="AJ98" s="125"/>
+      <c r="AK98" s="125"/>
+      <c r="AL98" s="125"/>
+      <c r="AM98" s="125"/>
+      <c r="AN98" s="125"/>
+      <c r="AO98" s="125"/>
+      <c r="AP98" s="125"/>
+      <c r="AQ98" s="125"/>
+      <c r="AR98" s="125"/>
+      <c r="AS98" s="125"/>
+      <c r="AT98" s="125"/>
+      <c r="AU98" s="125"/>
+      <c r="AV98" s="125"/>
+      <c r="AW98" s="125"/>
+      <c r="AX98" s="125"/>
+      <c r="AY98" s="125"/>
+      <c r="AZ98" s="125"/>
+      <c r="BA98" s="125"/>
+      <c r="BB98" s="125"/>
+      <c r="BC98" s="125"/>
+      <c r="BD98" s="125"/>
+      <c r="BE98" s="126"/>
+      <c r="BF98" s="71"/>
+      <c r="BG98" s="72"/>
+      <c r="BH98" s="72"/>
+      <c r="BI98" s="72"/>
+      <c r="BJ98" s="72"/>
+      <c r="BK98" s="72"/>
+      <c r="BL98" s="72"/>
+      <c r="BM98" s="72"/>
+      <c r="BN98" s="72"/>
+      <c r="BO98" s="72"/>
+      <c r="BP98" s="72"/>
+      <c r="BQ98" s="72"/>
+      <c r="BR98" s="72"/>
+      <c r="BS98" s="72"/>
+      <c r="BT98" s="72"/>
+      <c r="BU98" s="73"/>
+    </row>
+    <row r="99" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C99" s="122">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="D99" s="123"/>
+      <c r="E99" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="F99" s="88"/>
+      <c r="G99" s="88"/>
+      <c r="H99" s="88"/>
+      <c r="I99" s="88"/>
+      <c r="J99" s="88"/>
+      <c r="K99" s="88"/>
+      <c r="L99" s="88"/>
+      <c r="M99" s="88"/>
+      <c r="N99" s="88"/>
+      <c r="O99" s="88"/>
+      <c r="P99" s="88"/>
+      <c r="Q99" s="88"/>
+      <c r="R99" s="88"/>
+      <c r="S99" s="88"/>
+      <c r="T99" s="88"/>
+      <c r="U99" s="88"/>
+      <c r="V99" s="88"/>
+      <c r="W99" s="88"/>
+      <c r="X99" s="88"/>
+      <c r="Y99" s="89"/>
+      <c r="Z99" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA99" s="88"/>
+      <c r="AB99" s="88"/>
+      <c r="AC99" s="88"/>
+      <c r="AD99" s="88"/>
+      <c r="AE99" s="88"/>
+      <c r="AF99" s="88"/>
+      <c r="AG99" s="88"/>
+      <c r="AH99" s="88"/>
+      <c r="AI99" s="88"/>
+      <c r="AJ99" s="88"/>
+      <c r="AK99" s="88"/>
+      <c r="AL99" s="88"/>
+      <c r="AM99" s="88"/>
+      <c r="AN99" s="88"/>
+      <c r="AO99" s="88"/>
+      <c r="AP99" s="88"/>
+      <c r="AQ99" s="88"/>
+      <c r="AR99" s="88"/>
+      <c r="AS99" s="88"/>
+      <c r="AT99" s="88"/>
+      <c r="AU99" s="88"/>
+      <c r="AV99" s="88"/>
+      <c r="AW99" s="88"/>
+      <c r="AX99" s="88"/>
+      <c r="AY99" s="88"/>
+      <c r="AZ99" s="88"/>
+      <c r="BA99" s="88"/>
+      <c r="BB99" s="88"/>
+      <c r="BC99" s="88"/>
+      <c r="BD99" s="88"/>
+      <c r="BE99" s="89"/>
+      <c r="BF99" s="87"/>
+      <c r="BG99" s="88"/>
+      <c r="BH99" s="88"/>
+      <c r="BI99" s="88"/>
+      <c r="BJ99" s="88"/>
+      <c r="BK99" s="88"/>
+      <c r="BL99" s="88"/>
+      <c r="BM99" s="88"/>
+      <c r="BN99" s="88"/>
+      <c r="BO99" s="88"/>
+      <c r="BP99" s="88"/>
+      <c r="BQ99" s="88"/>
+      <c r="BR99" s="88"/>
+      <c r="BS99" s="88"/>
+      <c r="BT99" s="88"/>
+      <c r="BU99" s="89"/>
+    </row>
+    <row r="100" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C100" s="122">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="D100" s="123"/>
+      <c r="E100" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" s="88"/>
+      <c r="G100" s="88"/>
+      <c r="H100" s="88"/>
+      <c r="I100" s="88"/>
+      <c r="J100" s="88"/>
+      <c r="K100" s="88"/>
+      <c r="L100" s="88"/>
+      <c r="M100" s="88"/>
+      <c r="N100" s="88"/>
+      <c r="O100" s="88"/>
+      <c r="P100" s="88"/>
+      <c r="Q100" s="88"/>
+      <c r="R100" s="88"/>
+      <c r="S100" s="88"/>
+      <c r="T100" s="88"/>
+      <c r="U100" s="88"/>
+      <c r="V100" s="88"/>
+      <c r="W100" s="88"/>
+      <c r="X100" s="88"/>
+      <c r="Y100" s="89"/>
+      <c r="Z100" s="87" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA100" s="88"/>
+      <c r="AB100" s="88"/>
+      <c r="AC100" s="88"/>
+      <c r="AD100" s="88"/>
+      <c r="AE100" s="88"/>
+      <c r="AF100" s="88"/>
+      <c r="AG100" s="88"/>
+      <c r="AH100" s="88"/>
+      <c r="AI100" s="88"/>
+      <c r="AJ100" s="88"/>
+      <c r="AK100" s="88"/>
+      <c r="AL100" s="88"/>
+      <c r="AM100" s="88"/>
+      <c r="AN100" s="88"/>
+      <c r="AO100" s="88"/>
+      <c r="AP100" s="88"/>
+      <c r="AQ100" s="88"/>
+      <c r="AR100" s="88"/>
+      <c r="AS100" s="88"/>
+      <c r="AT100" s="88"/>
+      <c r="AU100" s="88"/>
+      <c r="AV100" s="88"/>
+      <c r="AW100" s="88"/>
+      <c r="AX100" s="88"/>
+      <c r="AY100" s="88"/>
+      <c r="AZ100" s="88"/>
+      <c r="BA100" s="88"/>
+      <c r="BB100" s="88"/>
+      <c r="BC100" s="88"/>
+      <c r="BD100" s="88"/>
+      <c r="BE100" s="89"/>
+      <c r="BF100" s="87"/>
+      <c r="BG100" s="88"/>
+      <c r="BH100" s="88"/>
+      <c r="BI100" s="88"/>
+      <c r="BJ100" s="88"/>
+      <c r="BK100" s="88"/>
+      <c r="BL100" s="88"/>
+      <c r="BM100" s="88"/>
+      <c r="BN100" s="88"/>
+      <c r="BO100" s="88"/>
+      <c r="BP100" s="88"/>
+      <c r="BQ100" s="88"/>
+      <c r="BR100" s="88"/>
+      <c r="BS100" s="88"/>
+      <c r="BT100" s="88"/>
+      <c r="BU100" s="89"/>
+    </row>
+    <row r="101" spans="3:73" x14ac:dyDescent="0.25">
+      <c r="C101" s="122">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="D101" s="123"/>
+      <c r="E101" s="124" t="s">
+        <v>105</v>
+      </c>
+      <c r="F101" s="125"/>
+      <c r="G101" s="125"/>
+      <c r="H101" s="125"/>
+      <c r="I101" s="125"/>
+      <c r="J101" s="125"/>
+      <c r="K101" s="125"/>
+      <c r="L101" s="125"/>
+      <c r="M101" s="125"/>
+      <c r="N101" s="125"/>
+      <c r="O101" s="125"/>
+      <c r="P101" s="125"/>
+      <c r="Q101" s="125"/>
+      <c r="R101" s="125"/>
+      <c r="S101" s="125"/>
+      <c r="T101" s="125"/>
+      <c r="U101" s="125"/>
+      <c r="V101" s="125"/>
+      <c r="W101" s="125"/>
+      <c r="X101" s="125"/>
+      <c r="Y101" s="126"/>
+      <c r="Z101" s="124" t="s">
+        <v>114</v>
+      </c>
+      <c r="AA101" s="125"/>
+      <c r="AB101" s="125"/>
+      <c r="AC101" s="125"/>
+      <c r="AD101" s="125"/>
+      <c r="AE101" s="125"/>
+      <c r="AF101" s="125"/>
+      <c r="AG101" s="125"/>
+      <c r="AH101" s="125"/>
+      <c r="AI101" s="125"/>
+      <c r="AJ101" s="125"/>
+      <c r="AK101" s="125"/>
+      <c r="AL101" s="125"/>
+      <c r="AM101" s="125"/>
+      <c r="AN101" s="125"/>
+      <c r="AO101" s="125"/>
+      <c r="AP101" s="125"/>
+      <c r="AQ101" s="125"/>
+      <c r="AR101" s="125"/>
+      <c r="AS101" s="125"/>
+      <c r="AT101" s="125"/>
+      <c r="AU101" s="125"/>
+      <c r="AV101" s="125"/>
+      <c r="AW101" s="125"/>
+      <c r="AX101" s="125"/>
+      <c r="AY101" s="125"/>
+      <c r="AZ101" s="125"/>
+      <c r="BA101" s="125"/>
+      <c r="BB101" s="125"/>
+      <c r="BC101" s="125"/>
+      <c r="BD101" s="125"/>
+      <c r="BE101" s="126"/>
+      <c r="BF101" s="38"/>
+      <c r="BG101" s="39"/>
+      <c r="BH101" s="39"/>
+      <c r="BI101" s="39"/>
+      <c r="BJ101" s="39"/>
+      <c r="BK101" s="39"/>
+      <c r="BL101" s="39"/>
+      <c r="BM101" s="39"/>
+      <c r="BN101" s="39"/>
+      <c r="BO101" s="39"/>
+      <c r="BP101" s="39"/>
+      <c r="BQ101" s="39"/>
+      <c r="BR101" s="39"/>
+      <c r="BS101" s="39"/>
+      <c r="BT101" s="39"/>
+      <c r="BU101" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="94">
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:Y96"/>
-    <mergeCell ref="Z96:BE96"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:Y95"/>
-    <mergeCell ref="Z95:BE95"/>
-    <mergeCell ref="BF80:BU80"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="BF88:BU88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="BF89:BU89"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="BF90:BU90"/>
-    <mergeCell ref="E90:M90"/>
-    <mergeCell ref="BQ15:BS15"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="BD77:BE77"/>
-    <mergeCell ref="BD79:BE79"/>
-    <mergeCell ref="BF86:BU86"/>
-    <mergeCell ref="F50:AG51"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="N76:AE76"/>
-    <mergeCell ref="AF76:AN76"/>
-    <mergeCell ref="AO76:AS76"/>
-    <mergeCell ref="AT76:AW76"/>
-    <mergeCell ref="BD76:BE76"/>
-    <mergeCell ref="AX76:BC76"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="N75:AE75"/>
-    <mergeCell ref="BF87:BU87"/>
-    <mergeCell ref="Z94:BE94"/>
-    <mergeCell ref="N78:AE78"/>
-    <mergeCell ref="AF78:AN78"/>
-    <mergeCell ref="AO78:AS78"/>
-    <mergeCell ref="AT78:AW78"/>
-    <mergeCell ref="AX78:BC78"/>
-    <mergeCell ref="BD78:BE78"/>
-    <mergeCell ref="BF78:BU78"/>
+  <mergeCells count="103">
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="C80:D80"/>
     <mergeCell ref="N80:AE80"/>
     <mergeCell ref="AF80:AN80"/>
     <mergeCell ref="AO80:AS80"/>
     <mergeCell ref="AT80:AW80"/>
+    <mergeCell ref="BF76:BU76"/>
+    <mergeCell ref="BF79:BU79"/>
+    <mergeCell ref="BF82:BU82"/>
+    <mergeCell ref="AF76:AN76"/>
+    <mergeCell ref="AF79:AN79"/>
+    <mergeCell ref="AF82:AN82"/>
+    <mergeCell ref="AO76:AS76"/>
+    <mergeCell ref="AO79:AS79"/>
+    <mergeCell ref="AO82:AS82"/>
+    <mergeCell ref="AT76:AW76"/>
+    <mergeCell ref="AT79:AW79"/>
+    <mergeCell ref="AT82:AW82"/>
+    <mergeCell ref="AX76:BC76"/>
+    <mergeCell ref="AX79:BC79"/>
+    <mergeCell ref="AX80:BC80"/>
+    <mergeCell ref="BD80:BE80"/>
+    <mergeCell ref="BD76:BE76"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E76:M76"/>
+    <mergeCell ref="E84:M84"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E101:Y101"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="N76:AE76"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="N82:AE82"/>
+    <mergeCell ref="N79:AE79"/>
+    <mergeCell ref="C90:D90"/>
     <mergeCell ref="BF81:BU81"/>
-    <mergeCell ref="AX79:BC79"/>
-    <mergeCell ref="AX81:BC81"/>
-    <mergeCell ref="BD74:BE74"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E74:M74"/>
-    <mergeCell ref="E81:M81"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E94:Y94"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="N74:AE74"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="N79:AE79"/>
-    <mergeCell ref="N77:AE77"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="BD80:BE80"/>
-    <mergeCell ref="BF74:BU74"/>
-    <mergeCell ref="BF77:BU77"/>
-    <mergeCell ref="BF79:BU79"/>
-    <mergeCell ref="AF74:AN74"/>
-    <mergeCell ref="AF77:AN77"/>
-    <mergeCell ref="AF79:AN79"/>
-    <mergeCell ref="AO74:AS74"/>
-    <mergeCell ref="AO77:AS77"/>
-    <mergeCell ref="AO79:AS79"/>
-    <mergeCell ref="AT82:AW82"/>
+    <mergeCell ref="N83:AE83"/>
+    <mergeCell ref="AF83:AN83"/>
+    <mergeCell ref="AO83:AS83"/>
+    <mergeCell ref="AT83:AW83"/>
     <mergeCell ref="AX82:BC82"/>
-    <mergeCell ref="BD82:BE82"/>
-    <mergeCell ref="BF82:BU82"/>
-    <mergeCell ref="BD81:BE81"/>
-    <mergeCell ref="AT74:AW74"/>
-    <mergeCell ref="AT77:AW77"/>
-    <mergeCell ref="AT79:AW79"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="AX74:BC74"/>
-    <mergeCell ref="AX77:BC77"/>
-    <mergeCell ref="E82:M82"/>
-    <mergeCell ref="N82:AE82"/>
-    <mergeCell ref="AF82:AN82"/>
-    <mergeCell ref="AO82:AS82"/>
+    <mergeCell ref="BD83:BE83"/>
+    <mergeCell ref="AX83:BC83"/>
+    <mergeCell ref="Z101:BE101"/>
     <mergeCell ref="N81:AE81"/>
     <mergeCell ref="AF81:AN81"/>
     <mergeCell ref="AO81:AS81"/>
-    <mergeCell ref="AX80:BC80"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="AX81:BC81"/>
+    <mergeCell ref="BD81:BE81"/>
+    <mergeCell ref="AX84:BC84"/>
+    <mergeCell ref="AT85:AW85"/>
+    <mergeCell ref="AX85:BC85"/>
+    <mergeCell ref="BD85:BE85"/>
+    <mergeCell ref="BD84:BE84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="N85:AE85"/>
+    <mergeCell ref="AF85:AN85"/>
+    <mergeCell ref="AO85:AS85"/>
+    <mergeCell ref="AO78:AS78"/>
+    <mergeCell ref="AT78:AW78"/>
+    <mergeCell ref="BD78:BE78"/>
+    <mergeCell ref="AX78:BC78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="N77:AE77"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="BF93:BU93"/>
+    <mergeCell ref="E93:M93"/>
+    <mergeCell ref="BQ15:BS15"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="BD79:BE79"/>
+    <mergeCell ref="BD82:BE82"/>
+    <mergeCell ref="BF89:BU89"/>
+    <mergeCell ref="F50:AG51"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="N78:AE78"/>
+    <mergeCell ref="AF78:AN78"/>
+    <mergeCell ref="BF83:BU83"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="BF91:BU91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="BF92:BU92"/>
+    <mergeCell ref="BF90:BU90"/>
+    <mergeCell ref="BF84:BU84"/>
+    <mergeCell ref="BF85:BU85"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="N84:AE84"/>
+    <mergeCell ref="AF84:AN84"/>
+    <mergeCell ref="AO84:AS84"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:Y98"/>
+    <mergeCell ref="Z98:BE98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:Y97"/>
+    <mergeCell ref="Z97:BE97"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="44" max="73" man="1"/>
-    <brk id="91" max="73" man="1"/>
+    <brk id="94" max="73" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>

--- a/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(トークテーマ投稿画面).xlsx
+++ b/20.開発/50.画面/20.画面定義書/【eternal】画面定義書(トークテーマ投稿画面).xlsx
@@ -1,15 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21126"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taiki/develop/eternal/documents/20.開発/50.画面/20.画面定義書/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5543FB33-76F8-443B-AA05-6B09864A5947}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38260" yWindow="460" windowWidth="38400" windowHeight="21060" activeTab="2"/>
+    <workbookView xWindow="38265" yWindow="465" windowWidth="38400" windowHeight="21060" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -21,9 +17,9 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'画面仕様(トークテーマ投稿画面 - 入力)'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(トークテーマ投稿画面 - 入力)'!$A$1:$BV$102</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">変更履歴!$A$1:$F$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'画面仕様(トークテーマ投稿画面 - 入力)'!$A$1:$BV$97</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AZ$35</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'画面仕様(トークテーマ投稿画面 - 入力)'!$1:$4</definedName>
     <definedName name="改訂者">変更履歴!$E$5:$E$25</definedName>
     <definedName name="改訂日" localSheetId="2">[1]変更履歴!$D$5:$D$25</definedName>
@@ -31,7 +27,7 @@
     <definedName name="版" localSheetId="2">[1]変更履歴!$B$5:$B$25</definedName>
     <definedName name="版">変更履歴!$B$5:$B$25</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -44,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="134">
   <si>
     <t>Confidential</t>
     <phoneticPr fontId="6"/>
@@ -928,22 +924,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>キエル</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>TODO：Phase2では新規タグ追加機能を追加する</t>
-    <rPh sb="13" eb="15">
-      <t>シンキタグ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キノウヲ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ツイカスル</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -961,18 +941,39 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>1.0.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>画面仕様
+・項目の桁数を修正</t>
+    <rPh sb="0" eb="4">
+      <t>ガメンシヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケタスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="&quot;改訂日 &quot;yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;"/>
     <numFmt numFmtId="177" formatCode="&quot;バージョン &quot;@"/>
     <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="179" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1936,6 +1937,12 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1963,7 +1970,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1971,6 +1984,33 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1993,12 +2033,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2016,45 +2050,12 @@
     </xf>
     <xf numFmtId="0" fontId="23" fillId="4" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="1"/>
-    <cellStyle name="標準 2 2" xfId="2"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="標準 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -2096,7 +2097,7 @@
         <xdr:cNvPr id="3" name="グループ化 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2104,8 +2105,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="74705" y="113556"/>
-          <a:ext cx="17362396" cy="585701"/>
+          <a:off x="77880" y="123081"/>
+          <a:ext cx="17133796" cy="579351"/>
           <a:chOff x="78440" y="633133"/>
           <a:chExt cx="16932090" cy="573749"/>
         </a:xfrm>
@@ -2115,7 +2116,7 @@
           <xdr:cNvPr id="4" name="正方形/長方形 3">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2180,7 +2181,7 @@
           <xdr:cNvPr id="5" name="正方形/長方形 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2245,7 +2246,7 @@
           <xdr:cNvPr id="6" name="正方形/長方形 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2310,7 +2311,7 @@
           <xdr:cNvPr id="7" name="正方形/長方形 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2375,7 +2376,7 @@
           <xdr:cNvPr id="8" name="正方形/長方形 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2440,7 +2441,7 @@
           <xdr:cNvPr id="9" name="正方形/長方形 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2505,7 +2506,7 @@
           <xdr:cNvPr id="10" name="正方形/長方形 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2577,7 +2578,7 @@
           <xdr:cNvPr id="11" name="正方形/長方形 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2649,7 +2650,7 @@
           <xdr:cNvPr id="12" name="正方形/長方形 11">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000C000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2703,7 +2704,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年10月7日 日曜日</a:t>
+              <a:t>2018年10月7日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2721,7 +2722,7 @@
           <xdr:cNvPr id="13" name="正方形/長方形 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000D000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2793,7 +2794,7 @@
           <xdr:cNvPr id="14" name="正方形/長方形 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000E000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2847,7 +2848,7 @@
                 <a:cs typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
               </a:rPr>
               <a:pPr algn="ctr"/>
-              <a:t>2018年11月17日 土曜日</a:t>
+              <a:t>2019年1月14日</a:t>
             </a:fld>
             <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
               <a:solidFill>
@@ -2865,7 +2866,7 @@
           <xdr:cNvPr id="15" name="正方形/長方形 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000F000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -2950,7 +2951,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2988,7 +2995,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="円/楕円 16"/>
+        <xdr:cNvPr id="17" name="円/楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3052,7 +3065,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="ドーナツ 17"/>
+        <xdr:cNvPr id="18" name="ドーナツ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3143,7 +3162,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvPr id="19" name="角丸四角形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3213,7 +3238,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="角丸四角形 19"/>
+        <xdr:cNvPr id="20" name="角丸四角形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3283,7 +3314,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="角丸四角形 20"/>
+        <xdr:cNvPr id="21" name="角丸四角形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3353,7 +3390,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
+        <xdr:cNvPr id="28" name="角丸四角形 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3423,7 +3466,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28"/>
+        <xdr:cNvPr id="29" name="角丸四角形 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3493,7 +3542,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="角丸四角形 29"/>
+        <xdr:cNvPr id="30" name="角丸四角形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3563,7 +3618,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="角丸四角形 30"/>
+        <xdr:cNvPr id="31" name="角丸四角形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3633,7 +3694,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="角丸四角形 31"/>
+        <xdr:cNvPr id="32" name="角丸四角形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3703,7 +3770,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="角丸四角形 32"/>
+        <xdr:cNvPr id="33" name="角丸四角形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3773,7 +3846,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvPr id="34" name="角丸四角形 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3856,7 +3935,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvPr id="36" name="角丸四角形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3939,7 +4024,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="角丸四角形 36"/>
+        <xdr:cNvPr id="37" name="角丸四角形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4012,7 +4103,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4074,7 +4171,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="角丸四角形 40"/>
+        <xdr:cNvPr id="41" name="角丸四角形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4149,12 +4252,18 @@
         </xdr:to>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="42" name="図 41"/>
+            <xdr:cNvPr id="42" name="図 41">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvPicPr>
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="$D$47:$AI$71" spid="_x0000_s1059"/>
+                  <a14:cameraTool cellRange="$D$47:$AI$71" spid="_x0000_s1060"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4214,7 +4323,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="角丸四角形 42"/>
+        <xdr:cNvPr id="43" name="角丸四角形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4276,23 +4391,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="表紙"/>
       <sheetName val="変更履歴"/>
-      <sheetName val="画面仕様(XXX画面)"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="B5" t="str">
-            <v>0.0.1</v>
-          </cell>
-          <cell r="D5">
-            <v>42736</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -4584,61 +4686,61 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AY35"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.1640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.1640625" style="1"/>
-    <col min="3" max="3" width="3.1640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="3.1640625" style="1"/>
+    <col min="1" max="1" width="1.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.125" style="1"/>
+    <col min="3" max="3" width="3.125" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="3.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26">
       <c r="A1" s="11"/>
     </row>
-    <row r="2" spans="1:26" ht="26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" ht="24.75">
       <c r="B2" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" ht="35.25">
       <c r="C10" s="3" t="str">
         <f ca="1">SUBSTITUTE(MID(CELL("filename",A1),FIND("[",CELL("filename",A1))+1,FIND("]",CELL("filename",A1))-FIND("[",CELL("filename",A1))-1),".xlsx","")</f>
         <v>【eternal】画面定義書(トークテーマ投稿画面)</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="121"/>
-      <c r="I13" s="121"/>
-      <c r="J13" s="121"/>
-      <c r="K13" s="121"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="121"/>
-      <c r="O13" s="121"/>
-      <c r="P13" s="121"/>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121"/>
-      <c r="U13" s="121"/>
-      <c r="V13" s="121"/>
-      <c r="W13" s="121"/>
-      <c r="X13" s="121"/>
-      <c r="Y13" s="121"/>
-      <c r="Z13" s="121"/>
-    </row>
-    <row r="21" spans="2:51" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26">
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="123"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
+      <c r="M13" s="123"/>
+      <c r="N13" s="123"/>
+      <c r="O13" s="123"/>
+      <c r="P13" s="123"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="123"/>
+      <c r="S13" s="123"/>
+      <c r="T13" s="123"/>
+      <c r="U13" s="123"/>
+      <c r="V13" s="123"/>
+      <c r="W13" s="123"/>
+      <c r="X13" s="123"/>
+      <c r="Y13" s="123"/>
+      <c r="Z13" s="123"/>
+    </row>
+    <row r="21" spans="2:51" ht="3" customHeight="1">
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -4690,44 +4792,44 @@
       <c r="AX21" s="4"/>
       <c r="AY21" s="4"/>
     </row>
-    <row r="22" spans="2:51" ht="20" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:51" ht="19.5">
       <c r="C22" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AO27" s="118">
+    <row r="27" spans="2:51">
+      <c r="AO27" s="120">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(改訂日),COLUMN(改訂日),4,1),1)&amp;COUNTA(改訂日)+4)</f>
-        <v>43421</v>
-      </c>
-      <c r="AP27" s="119"/>
-      <c r="AQ27" s="119"/>
-      <c r="AR27" s="119"/>
-      <c r="AS27" s="119"/>
-      <c r="AT27" s="119"/>
-      <c r="AU27" s="119"/>
-      <c r="AV27" s="119"/>
-      <c r="AW27" s="119"/>
-      <c r="AX27" s="119"/>
-      <c r="AY27" s="119"/>
-    </row>
-    <row r="28" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="AR28" s="120" t="str">
+        <v>43479</v>
+      </c>
+      <c r="AP27" s="121"/>
+      <c r="AQ27" s="121"/>
+      <c r="AR27" s="121"/>
+      <c r="AS27" s="121"/>
+      <c r="AT27" s="121"/>
+      <c r="AU27" s="121"/>
+      <c r="AV27" s="121"/>
+      <c r="AW27" s="121"/>
+      <c r="AX27" s="121"/>
+      <c r="AY27" s="121"/>
+    </row>
+    <row r="28" spans="2:51">
+      <c r="AR28" s="122" t="str">
         <f ca="1">INDIRECT("変更履歴!"&amp;LEFT(ADDRESS(ROW(版),COLUMN(版),4,1),1)&amp;COUNTA(版)+4)</f>
-        <v>1.0.1</v>
-      </c>
-      <c r="AS28" s="120"/>
-      <c r="AT28" s="120"/>
-      <c r="AU28" s="120"/>
-      <c r="AV28" s="120"/>
-      <c r="AW28" s="120"/>
-      <c r="AX28" s="120"/>
-      <c r="AY28" s="120"/>
-    </row>
-    <row r="31" spans="2:51" x14ac:dyDescent="0.25">
+        <v>1.0.2</v>
+      </c>
+      <c r="AS28" s="122"/>
+      <c r="AT28" s="122"/>
+      <c r="AU28" s="122"/>
+      <c r="AV28" s="122"/>
+      <c r="AW28" s="122"/>
+      <c r="AX28" s="122"/>
+      <c r="AY28" s="122"/>
+    </row>
+    <row r="31" spans="2:51">
       <c r="AR31" s="6"/>
     </row>
-    <row r="35" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="6" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AO27:AY27"/>
@@ -4736,36 +4838,36 @@
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="84" fitToWidth="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="75" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B2:E25"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="9" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="1.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="79.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="1.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="1.625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5">
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
@@ -4779,7 +4881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5">
       <c r="B5" s="36" t="s">
         <v>66</v>
       </c>
@@ -4793,12 +4895,12 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="38" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="37.5">
       <c r="B6" s="36" t="s">
         <v>116</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D6" s="9">
         <v>43421</v>
@@ -4807,115 +4909,123 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="36"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="37.5">
+      <c r="B7" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="9">
+        <v>43479</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
       <c r="B8" s="36"/>
       <c r="C8" s="10"/>
       <c r="D8" s="9"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5">
       <c r="B9" s="36"/>
       <c r="C9" s="10"/>
       <c r="D9" s="9"/>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5">
       <c r="B10" s="36"/>
       <c r="C10" s="10"/>
       <c r="D10" s="9"/>
       <c r="E10" s="8"/>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5">
       <c r="B11" s="36"/>
       <c r="C11" s="10"/>
       <c r="D11" s="9"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5">
       <c r="B12" s="36"/>
       <c r="C12" s="10"/>
       <c r="D12" s="9"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5">
       <c r="B13" s="8"/>
       <c r="C13" s="10"/>
       <c r="D13" s="9"/>
       <c r="E13" s="8"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5">
       <c r="B14" s="8"/>
       <c r="C14" s="10"/>
       <c r="D14" s="9"/>
       <c r="E14" s="8"/>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5">
       <c r="B15" s="8"/>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
       <c r="E15" s="8"/>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5">
       <c r="B16" s="8"/>
       <c r="C16" s="10"/>
       <c r="D16" s="9"/>
       <c r="E16" s="8"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5">
       <c r="B17" s="8"/>
       <c r="C17" s="10"/>
       <c r="D17" s="9"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5">
       <c r="B18" s="8"/>
       <c r="C18" s="10"/>
       <c r="D18" s="9"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5">
       <c r="B19" s="8"/>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5">
       <c r="B20" s="8"/>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5">
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
       <c r="D21" s="9"/>
       <c r="E21" s="8"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5">
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
       <c r="D22" s="9"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5">
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
       <c r="D23" s="9"/>
       <c r="E23" s="8"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5">
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="9"/>
@@ -4924,33 +5034,33 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:EK101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="12" defaultColWidth="3.1640625" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="0.83203125" style="12" customWidth="1"/>
-    <col min="2" max="74" width="3.1640625" style="12" customWidth="1"/>
-    <col min="75" max="75" width="3.1640625" style="12"/>
-    <col min="76" max="82" width="8.6640625" style="12" customWidth="1"/>
-    <col min="83" max="16384" width="3.1640625" style="12"/>
+    <col min="1" max="1" width="0.875" style="12" customWidth="1"/>
+    <col min="2" max="74" width="3.125" style="12" customWidth="1"/>
+    <col min="75" max="75" width="3.125" style="12"/>
+    <col min="76" max="82" width="8.625" style="12" customWidth="1"/>
+    <col min="83" max="16384" width="3.125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:141" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:141" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:141" ht="6.75" customHeight="1"/>
+    <row r="2" spans="2:141">
       <c r="BX2" s="13" t="s">
         <v>11</v>
       </c>
@@ -4970,7 +5080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:141" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:141">
       <c r="BX3" s="13" t="s">
         <v>67</v>
       </c>
@@ -4985,25 +5095,25 @@
         <v>33</v>
       </c>
       <c r="CB3" s="14">
-        <v>43421</v>
+        <v>43479</v>
       </c>
       <c r="CC3" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="2:141" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:141" ht="18" customHeight="1"/>
+    <row r="5" spans="2:141">
       <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:141">
       <c r="B6" s="15"/>
       <c r="C6" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:141">
       <c r="B7" s="15"/>
       <c r="C7" s="37" t="s">
         <v>32</v>
@@ -5079,7 +5189,7 @@
       <c r="BT7" s="16"/>
       <c r="BU7" s="17"/>
     </row>
-    <row r="8" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:141">
       <c r="B8" s="15"/>
       <c r="C8" s="18"/>
       <c r="D8" s="19" t="s">
@@ -5155,7 +5265,7 @@
       <c r="BT8" s="19"/>
       <c r="BU8" s="20"/>
     </row>
-    <row r="9" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:141">
       <c r="B9" s="15"/>
       <c r="C9" s="18"/>
       <c r="D9" s="19"/>
@@ -5229,7 +5339,7 @@
       <c r="BT9" s="19"/>
       <c r="BU9" s="20"/>
     </row>
-    <row r="10" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:141">
       <c r="B10" s="15"/>
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
@@ -5303,10 +5413,10 @@
       <c r="BT10" s="22"/>
       <c r="BU10" s="23"/>
     </row>
-    <row r="11" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:141">
       <c r="B11" s="15"/>
     </row>
-    <row r="12" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:141">
       <c r="C12" s="22" t="s">
         <v>13</v>
       </c>
@@ -5347,7 +5457,7 @@
       <c r="AL12" s="22"/>
       <c r="AM12" s="22"/>
     </row>
-    <row r="13" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:141">
       <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
@@ -5427,7 +5537,7 @@
       <c r="EJ13" s="19"/>
       <c r="EK13" s="19"/>
     </row>
-    <row r="14" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:141">
       <c r="C14" s="24"/>
       <c r="D14" s="48"/>
       <c r="E14" s="49"/>
@@ -5507,7 +5617,7 @@
       <c r="EJ14" s="19"/>
       <c r="EK14" s="19"/>
     </row>
-    <row r="15" spans="2:141" ht="23" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:141" ht="22.5">
       <c r="C15" s="24"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
@@ -5580,11 +5690,11 @@
       <c r="BN15" s="60"/>
       <c r="BO15" s="61"/>
       <c r="BP15" s="27"/>
-      <c r="BQ15" s="133" t="s">
+      <c r="BQ15" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="BR15" s="134"/>
-      <c r="BS15" s="135"/>
+      <c r="BR15" s="147"/>
+      <c r="BS15" s="148"/>
       <c r="BT15" s="54"/>
       <c r="BU15" s="20"/>
       <c r="EE15" s="19"/>
@@ -5595,7 +5705,7 @@
       <c r="EJ15" s="19"/>
       <c r="EK15" s="19"/>
     </row>
-    <row r="16" spans="2:141" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:141">
       <c r="C16" s="24"/>
       <c r="D16" s="55"/>
       <c r="E16" s="56"/>
@@ -5675,7 +5785,7 @@
       <c r="EJ16" s="19"/>
       <c r="EK16" s="19"/>
     </row>
-    <row r="17" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:141">
       <c r="C17" s="24"/>
       <c r="BO17" s="19"/>
       <c r="BP17" s="19"/>
@@ -5692,7 +5802,7 @@
       <c r="EJ17" s="19"/>
       <c r="EK17" s="19"/>
     </row>
-    <row r="18" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:141">
       <c r="C18" s="24"/>
       <c r="E18" s="19"/>
       <c r="F18" s="19"/>
@@ -5771,7 +5881,7 @@
       <c r="EJ18" s="19"/>
       <c r="EK18" s="19"/>
     </row>
-    <row r="19" spans="3:141" ht="23" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:141" ht="22.5">
       <c r="C19" s="24"/>
       <c r="D19" s="65"/>
       <c r="E19" s="27"/>
@@ -5842,7 +5952,7 @@
       <c r="EJ19" s="19"/>
       <c r="EK19" s="19"/>
     </row>
-    <row r="20" spans="3:141" ht="23" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:141" ht="22.5">
       <c r="C20" s="24"/>
       <c r="D20" s="65"/>
       <c r="E20" s="53" t="s">
@@ -5923,7 +6033,7 @@
       <c r="EJ20" s="19"/>
       <c r="EK20" s="19"/>
     </row>
-    <row r="21" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:141">
       <c r="C21" s="24"/>
       <c r="D21" s="65"/>
       <c r="E21" s="27"/>
@@ -6000,7 +6110,7 @@
       <c r="EJ21" s="19"/>
       <c r="EK21" s="19"/>
     </row>
-    <row r="22" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:141">
       <c r="C22" s="24"/>
       <c r="D22" s="65"/>
       <c r="E22" s="69" t="s">
@@ -6071,7 +6181,7 @@
       <c r="EJ22" s="19"/>
       <c r="EK22" s="19"/>
     </row>
-    <row r="23" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:141">
       <c r="C23" s="24"/>
       <c r="D23" s="65"/>
       <c r="E23" s="65"/>
@@ -6127,7 +6237,7 @@
       <c r="EJ23" s="19"/>
       <c r="EK23" s="19"/>
     </row>
-    <row r="24" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:141">
       <c r="C24" s="24"/>
       <c r="D24" s="65"/>
       <c r="E24" s="65" t="s">
@@ -6198,7 +6308,7 @@
       <c r="EJ24" s="19"/>
       <c r="EK24" s="19"/>
     </row>
-    <row r="25" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:141">
       <c r="C25" s="24"/>
       <c r="D25" s="65"/>
       <c r="E25" s="65"/>
@@ -6265,7 +6375,7 @@
       <c r="EJ25" s="19"/>
       <c r="EK25" s="19"/>
     </row>
-    <row r="26" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:141">
       <c r="C26" s="24"/>
       <c r="D26" s="65"/>
       <c r="E26" s="65"/>
@@ -6332,7 +6442,7 @@
       <c r="EJ26" s="19"/>
       <c r="EK26" s="19"/>
     </row>
-    <row r="27" spans="3:141" ht="23" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:141" ht="22.5">
       <c r="C27" s="24"/>
       <c r="D27" s="65"/>
       <c r="E27" s="65"/>
@@ -6406,7 +6516,7 @@
       <c r="EJ27" s="19"/>
       <c r="EK27" s="19"/>
     </row>
-    <row r="28" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:141">
       <c r="C28" s="24"/>
       <c r="D28" s="65"/>
       <c r="E28" s="65"/>
@@ -6486,7 +6596,7 @@
       <c r="EJ28" s="19"/>
       <c r="EK28" s="19"/>
     </row>
-    <row r="29" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:141">
       <c r="C29" s="24"/>
       <c r="D29" s="65"/>
       <c r="E29" s="65"/>
@@ -6566,7 +6676,7 @@
       <c r="EJ29" s="19"/>
       <c r="EK29" s="19"/>
     </row>
-    <row r="30" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:141">
       <c r="C30" s="24"/>
       <c r="D30" s="65"/>
       <c r="E30" s="65"/>
@@ -6636,7 +6746,7 @@
       <c r="EJ30" s="19"/>
       <c r="EK30" s="19"/>
     </row>
-    <row r="31" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:141">
       <c r="C31" s="24"/>
       <c r="D31" s="65"/>
       <c r="E31" s="65" t="s">
@@ -6696,7 +6806,7 @@
       <c r="EJ31" s="19"/>
       <c r="EK31" s="19"/>
     </row>
-    <row r="32" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:141">
       <c r="C32" s="24"/>
       <c r="D32" s="65"/>
       <c r="E32" s="65"/>
@@ -6765,7 +6875,7 @@
       <c r="EJ32" s="19"/>
       <c r="EK32" s="19"/>
     </row>
-    <row r="33" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:141">
       <c r="C33" s="24"/>
       <c r="D33" s="65"/>
       <c r="E33" s="65"/>
@@ -6774,11 +6884,11 @@
       <c r="H33" s="65"/>
       <c r="I33" s="65"/>
       <c r="J33" s="65"/>
-      <c r="K33" s="136" t="s">
+      <c r="K33" s="149" t="s">
         <v>27</v>
       </c>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
       <c r="N33" s="65"/>
       <c r="AD33" s="19"/>
       <c r="AE33" s="19"/>
@@ -6832,7 +6942,7 @@
       <c r="EJ33" s="19"/>
       <c r="EK33" s="19"/>
     </row>
-    <row r="34" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:141">
       <c r="C34" s="24"/>
       <c r="D34" s="65"/>
       <c r="E34" s="65"/>
@@ -6897,7 +7007,7 @@
       <c r="EJ34" s="19"/>
       <c r="EK34" s="19"/>
     </row>
-    <row r="35" spans="3:141" ht="23" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:141" ht="22.5">
       <c r="C35" s="24"/>
       <c r="U35" s="47"/>
       <c r="V35" s="16"/>
@@ -6956,7 +7066,7 @@
       <c r="EJ35" s="19"/>
       <c r="EK35" s="19"/>
     </row>
-    <row r="36" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:141">
       <c r="C36" s="24"/>
       <c r="U36" s="18"/>
       <c r="X36" s="64" t="s">
@@ -7021,7 +7131,7 @@
       <c r="EJ36" s="19"/>
       <c r="EK36" s="19"/>
     </row>
-    <row r="37" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:141">
       <c r="C37" s="24"/>
       <c r="U37" s="18"/>
       <c r="V37" s="19"/>
@@ -7086,7 +7196,7 @@
       <c r="EJ37" s="19"/>
       <c r="EK37" s="19"/>
     </row>
-    <row r="38" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:141">
       <c r="C38" s="24"/>
       <c r="U38" s="21"/>
       <c r="V38" s="22"/>
@@ -7143,7 +7253,7 @@
       <c r="EJ38" s="19"/>
       <c r="EK38" s="19"/>
     </row>
-    <row r="39" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:141">
       <c r="C39" s="24"/>
       <c r="U39" s="63" t="s">
         <v>39</v>
@@ -7188,7 +7298,7 @@
       <c r="EJ39" s="19"/>
       <c r="EK39" s="19"/>
     </row>
-    <row r="40" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:141">
       <c r="C40" s="24"/>
       <c r="U40" s="62" t="s">
         <v>38</v>
@@ -7246,7 +7356,7 @@
       <c r="EJ40" s="19"/>
       <c r="EK40" s="19"/>
     </row>
-    <row r="41" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:141">
       <c r="C41" s="24"/>
       <c r="BG41" s="18"/>
       <c r="BH41" s="19"/>
@@ -7271,7 +7381,7 @@
       <c r="EJ41" s="19"/>
       <c r="EK41" s="19"/>
     </row>
-    <row r="42" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:141">
       <c r="C42" s="24"/>
       <c r="AJ42" s="70"/>
       <c r="BG42" s="21"/>
@@ -7299,7 +7409,7 @@
       <c r="EJ42" s="19"/>
       <c r="EK42" s="19"/>
     </row>
-    <row r="43" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:141">
       <c r="C43" s="24"/>
       <c r="BO43" s="19"/>
       <c r="BP43" s="19"/>
@@ -7311,7 +7421,7 @@
       <c r="BV43" s="18"/>
       <c r="BW43" s="19"/>
     </row>
-    <row r="44" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:141">
       <c r="C44" s="28"/>
       <c r="D44" s="29"/>
       <c r="E44" s="30"/>
@@ -7386,7 +7496,7 @@
       <c r="BV44" s="18"/>
       <c r="BW44" s="19"/>
     </row>
-    <row r="45" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:141">
       <c r="C45" s="19"/>
       <c r="D45" s="19"/>
       <c r="E45" s="19"/>
@@ -7459,7 +7569,7 @@
       <c r="BT45" s="19"/>
       <c r="BU45" s="19"/>
     </row>
-    <row r="46" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:141">
       <c r="C46" s="19" t="s">
         <v>72</v>
       </c>
@@ -7502,7 +7612,7 @@
       <c r="BT46" s="19"/>
       <c r="BU46" s="19"/>
     </row>
-    <row r="47" spans="3:141" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:141">
       <c r="C47" s="19"/>
       <c r="D47" s="94"/>
       <c r="E47" s="95"/>
@@ -7574,7 +7684,7 @@
       <c r="BT47" s="19"/>
       <c r="BU47" s="19"/>
     </row>
-    <row r="48" spans="3:141" ht="26" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:141" ht="24.75">
       <c r="C48" s="19"/>
       <c r="D48" s="97"/>
       <c r="E48" s="98"/>
@@ -7650,7 +7760,7 @@
       <c r="BT48" s="19"/>
       <c r="BU48" s="19"/>
     </row>
-    <row r="49" spans="3:73" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:73" ht="18.95" customHeight="1">
       <c r="C49" s="19"/>
       <c r="D49" s="97"/>
       <c r="E49" s="98"/>
@@ -7722,40 +7832,40 @@
       <c r="BT49" s="19"/>
       <c r="BU49" s="19"/>
     </row>
-    <row r="50" spans="3:73" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:73" ht="18.95" customHeight="1">
       <c r="C50" s="19"/>
       <c r="D50" s="97"/>
       <c r="E50" s="98"/>
-      <c r="F50" s="139" t="s">
+      <c r="F50" s="150" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="140"/>
-      <c r="H50" s="140"/>
-      <c r="I50" s="140"/>
-      <c r="J50" s="140"/>
-      <c r="K50" s="140"/>
-      <c r="L50" s="140"/>
-      <c r="M50" s="140"/>
-      <c r="N50" s="140"/>
-      <c r="O50" s="140"/>
-      <c r="P50" s="140"/>
-      <c r="Q50" s="140"/>
-      <c r="R50" s="140"/>
-      <c r="S50" s="140"/>
-      <c r="T50" s="140"/>
-      <c r="U50" s="140"/>
-      <c r="V50" s="140"/>
-      <c r="W50" s="140"/>
-      <c r="X50" s="140"/>
-      <c r="Y50" s="140"/>
-      <c r="Z50" s="140"/>
-      <c r="AA50" s="140"/>
-      <c r="AB50" s="140"/>
-      <c r="AC50" s="140"/>
-      <c r="AD50" s="140"/>
-      <c r="AE50" s="140"/>
-      <c r="AF50" s="140"/>
-      <c r="AG50" s="141"/>
+      <c r="G50" s="151"/>
+      <c r="H50" s="151"/>
+      <c r="I50" s="151"/>
+      <c r="J50" s="151"/>
+      <c r="K50" s="151"/>
+      <c r="L50" s="151"/>
+      <c r="M50" s="151"/>
+      <c r="N50" s="151"/>
+      <c r="O50" s="151"/>
+      <c r="P50" s="151"/>
+      <c r="Q50" s="151"/>
+      <c r="R50" s="151"/>
+      <c r="S50" s="151"/>
+      <c r="T50" s="151"/>
+      <c r="U50" s="151"/>
+      <c r="V50" s="151"/>
+      <c r="W50" s="151"/>
+      <c r="X50" s="151"/>
+      <c r="Y50" s="151"/>
+      <c r="Z50" s="151"/>
+      <c r="AA50" s="151"/>
+      <c r="AB50" s="151"/>
+      <c r="AC50" s="151"/>
+      <c r="AD50" s="151"/>
+      <c r="AE50" s="151"/>
+      <c r="AF50" s="151"/>
+      <c r="AG50" s="152"/>
       <c r="AH50" s="98"/>
       <c r="AI50" s="101"/>
       <c r="AK50" s="19"/>
@@ -7796,38 +7906,38 @@
       <c r="BT50" s="19"/>
       <c r="BU50" s="19"/>
     </row>
-    <row r="51" spans="3:73" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:73" ht="23.1" customHeight="1">
       <c r="C51" s="19"/>
       <c r="D51" s="97"/>
       <c r="E51" s="98"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="143"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="143"/>
-      <c r="J51" s="143"/>
-      <c r="K51" s="143"/>
-      <c r="L51" s="143"/>
-      <c r="M51" s="143"/>
-      <c r="N51" s="143"/>
-      <c r="O51" s="143"/>
-      <c r="P51" s="143"/>
-      <c r="Q51" s="143"/>
-      <c r="R51" s="143"/>
-      <c r="S51" s="143"/>
-      <c r="T51" s="143"/>
-      <c r="U51" s="143"/>
-      <c r="V51" s="143"/>
-      <c r="W51" s="143"/>
-      <c r="X51" s="143"/>
-      <c r="Y51" s="143"/>
-      <c r="Z51" s="143"/>
-      <c r="AA51" s="143"/>
-      <c r="AB51" s="143"/>
-      <c r="AC51" s="143"/>
-      <c r="AD51" s="143"/>
-      <c r="AE51" s="143"/>
-      <c r="AF51" s="143"/>
-      <c r="AG51" s="144"/>
+      <c r="F51" s="153"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
+      <c r="K51" s="154"/>
+      <c r="L51" s="154"/>
+      <c r="M51" s="154"/>
+      <c r="N51" s="154"/>
+      <c r="O51" s="154"/>
+      <c r="P51" s="154"/>
+      <c r="Q51" s="154"/>
+      <c r="R51" s="154"/>
+      <c r="S51" s="154"/>
+      <c r="T51" s="154"/>
+      <c r="U51" s="154"/>
+      <c r="V51" s="154"/>
+      <c r="W51" s="154"/>
+      <c r="X51" s="154"/>
+      <c r="Y51" s="154"/>
+      <c r="Z51" s="154"/>
+      <c r="AA51" s="154"/>
+      <c r="AB51" s="154"/>
+      <c r="AC51" s="154"/>
+      <c r="AD51" s="154"/>
+      <c r="AE51" s="154"/>
+      <c r="AF51" s="154"/>
+      <c r="AG51" s="155"/>
       <c r="AH51" s="98"/>
       <c r="AI51" s="101"/>
       <c r="AK51" s="19"/>
@@ -7868,7 +7978,7 @@
       <c r="BT51" s="19"/>
       <c r="BU51" s="19"/>
     </row>
-    <row r="52" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:73">
       <c r="C52" s="19"/>
       <c r="D52" s="97"/>
       <c r="E52" s="98"/>
@@ -7940,7 +8050,7 @@
       <c r="BT52" s="19"/>
       <c r="BU52" s="19"/>
     </row>
-    <row r="53" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:73">
       <c r="C53" s="19"/>
       <c r="D53" s="97"/>
       <c r="E53" s="98"/>
@@ -7954,7 +8064,7 @@
       <c r="K53" s="102"/>
       <c r="L53" s="102"/>
       <c r="M53" s="102"/>
-      <c r="N53" s="154" t="s">
+      <c r="N53" s="118" t="s">
         <v>70</v>
       </c>
       <c r="O53" s="98"/>
@@ -7978,9 +8088,7 @@
       <c r="AG53" s="98"/>
       <c r="AH53" s="98"/>
       <c r="AI53" s="101"/>
-      <c r="AK53" s="155" t="s">
-        <v>131</v>
-      </c>
+      <c r="AK53" s="119"/>
       <c r="AL53" s="19"/>
       <c r="AM53" s="19"/>
       <c r="AN53" s="19"/>
@@ -8018,7 +8126,7 @@
       <c r="BT53" s="19"/>
       <c r="BU53" s="19"/>
     </row>
-    <row r="54" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:73">
       <c r="C54" s="19"/>
       <c r="D54" s="97"/>
       <c r="E54" s="98"/>
@@ -8090,7 +8198,7 @@
       <c r="BT54" s="19"/>
       <c r="BU54" s="19"/>
     </row>
-    <row r="55" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:73">
       <c r="C55" s="19"/>
       <c r="D55" s="97"/>
       <c r="E55" s="98"/>
@@ -8162,7 +8270,7 @@
       <c r="BT55" s="19"/>
       <c r="BU55" s="19"/>
     </row>
-    <row r="56" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:73">
       <c r="C56" s="19"/>
       <c r="D56" s="97"/>
       <c r="E56" s="98"/>
@@ -8234,7 +8342,7 @@
       <c r="BT56" s="19"/>
       <c r="BU56" s="19"/>
     </row>
-    <row r="57" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:73">
       <c r="C57" s="19"/>
       <c r="D57" s="97"/>
       <c r="E57" s="98"/>
@@ -8308,7 +8416,7 @@
       <c r="BT57" s="19"/>
       <c r="BU57" s="19"/>
     </row>
-    <row r="58" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:73">
       <c r="C58" s="19"/>
       <c r="D58" s="97"/>
       <c r="E58" s="98"/>
@@ -8382,7 +8490,7 @@
       <c r="BT58" s="19"/>
       <c r="BU58" s="19"/>
     </row>
-    <row r="59" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:73">
       <c r="C59" s="19"/>
       <c r="D59" s="97"/>
       <c r="E59" s="98"/>
@@ -8454,7 +8562,7 @@
       <c r="BT59" s="19"/>
       <c r="BU59" s="19"/>
     </row>
-    <row r="60" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:73">
       <c r="C60" s="19"/>
       <c r="D60" s="97"/>
       <c r="E60" s="98"/>
@@ -8526,7 +8634,7 @@
       <c r="BT60" s="19"/>
       <c r="BU60" s="19"/>
     </row>
-    <row r="61" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:73">
       <c r="C61" s="19"/>
       <c r="D61" s="97"/>
       <c r="E61" s="98"/>
@@ -8598,7 +8706,7 @@
       <c r="BT61" s="19"/>
       <c r="BU61" s="19"/>
     </row>
-    <row r="62" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:73">
       <c r="C62" s="19"/>
       <c r="D62" s="97"/>
       <c r="E62" s="98"/>
@@ -8670,7 +8778,7 @@
       <c r="BT62" s="19"/>
       <c r="BU62" s="19"/>
     </row>
-    <row r="63" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:73">
       <c r="C63" s="19"/>
       <c r="D63" s="97"/>
       <c r="E63" s="98"/>
@@ -8744,7 +8852,7 @@
       <c r="BT63" s="19"/>
       <c r="BU63" s="19"/>
     </row>
-    <row r="64" spans="3:73" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:73">
       <c r="C64" s="19"/>
       <c r="D64" s="97"/>
       <c r="E64" s="98"/>
@@ -8816,7 +8924,7 @@
       <c r="BT64" s="19"/>
       <c r="BU64" s="19"/>
     </row>
-    <row r="65" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:73">
       <c r="C65" s="19"/>
       <c r="D65" s="97"/>
       <c r="E65" s="98"/>
@@ -8890,7 +8998,7 @@
       <c r="BT65" s="19"/>
       <c r="BU65" s="19"/>
     </row>
-    <row r="66" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:73">
       <c r="C66" s="19"/>
       <c r="D66" s="97"/>
       <c r="E66" s="98"/>
@@ -8964,7 +9072,7 @@
       <c r="BT66" s="19"/>
       <c r="BU66" s="19"/>
     </row>
-    <row r="67" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:73">
       <c r="C67" s="19"/>
       <c r="D67" s="97"/>
       <c r="E67" s="98"/>
@@ -9036,7 +9144,7 @@
       <c r="BT67" s="19"/>
       <c r="BU67" s="19"/>
     </row>
-    <row r="68" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:73">
       <c r="C68" s="19"/>
       <c r="D68" s="97"/>
       <c r="E68" s="98"/>
@@ -9108,7 +9216,7 @@
       <c r="BT68" s="19"/>
       <c r="BU68" s="19"/>
     </row>
-    <row r="69" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:73">
       <c r="C69" s="19"/>
       <c r="D69" s="97"/>
       <c r="E69" s="98"/>
@@ -9180,7 +9288,7 @@
       <c r="BT69" s="19"/>
       <c r="BU69" s="19"/>
     </row>
-    <row r="70" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:73">
       <c r="C70" s="19"/>
       <c r="D70" s="97"/>
       <c r="E70" s="98"/>
@@ -9252,7 +9360,7 @@
       <c r="BT70" s="19"/>
       <c r="BU70" s="19"/>
     </row>
-    <row r="71" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:73">
       <c r="C71" s="19"/>
       <c r="D71" s="114"/>
       <c r="E71" s="100"/>
@@ -9324,7 +9432,7 @@
       <c r="BT71" s="19"/>
       <c r="BU71" s="19"/>
     </row>
-    <row r="72" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:73">
       <c r="C72" s="19"/>
       <c r="D72" s="19"/>
       <c r="E72" s="19"/>
@@ -9397,7 +9505,7 @@
       <c r="BT72" s="19"/>
       <c r="BU72" s="19"/>
     </row>
-    <row r="73" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:73">
       <c r="C73" s="19"/>
       <c r="D73" s="19"/>
       <c r="E73" s="19"/>
@@ -9470,7 +9578,7 @@
       <c r="BT73" s="19"/>
       <c r="BU73" s="19"/>
     </row>
-    <row r="74" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:73">
       <c r="C74" s="19" t="s">
         <v>73</v>
       </c>
@@ -9545,11 +9653,11 @@
       <c r="BT74" s="19"/>
       <c r="BU74" s="19"/>
     </row>
-    <row r="75" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C75" s="137" t="s">
+    <row r="75" spans="2:73">
+      <c r="C75" s="136" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="138"/>
+      <c r="D75" s="137"/>
       <c r="E75" s="32" t="s">
         <v>19</v>
       </c>
@@ -9636,104 +9744,104 @@
       <c r="BT75" s="34"/>
       <c r="BU75" s="33"/>
     </row>
-    <row r="76" spans="2:73" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:73" ht="36.950000000000003" customHeight="1">
       <c r="B76" s="35"/>
-      <c r="C76" s="122">
+      <c r="C76" s="124">
         <f t="shared" ref="C76:C82" si="0">ROW()-ROW($C$75)</f>
         <v>1</v>
       </c>
-      <c r="D76" s="123"/>
-      <c r="E76" s="127" t="s">
+      <c r="D76" s="125"/>
+      <c r="E76" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="F76" s="128"/>
-      <c r="G76" s="128"/>
-      <c r="H76" s="128"/>
-      <c r="I76" s="128"/>
-      <c r="J76" s="128"/>
-      <c r="K76" s="128"/>
-      <c r="L76" s="128"/>
-      <c r="M76" s="129"/>
-      <c r="N76" s="145" t="s">
+      <c r="F76" s="132"/>
+      <c r="G76" s="132"/>
+      <c r="H76" s="132"/>
+      <c r="I76" s="132"/>
+      <c r="J76" s="132"/>
+      <c r="K76" s="132"/>
+      <c r="L76" s="132"/>
+      <c r="M76" s="133"/>
+      <c r="N76" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="O76" s="146"/>
-      <c r="P76" s="146"/>
-      <c r="Q76" s="146"/>
-      <c r="R76" s="146"/>
-      <c r="S76" s="146"/>
-      <c r="T76" s="146"/>
-      <c r="U76" s="146"/>
-      <c r="V76" s="146"/>
-      <c r="W76" s="146"/>
-      <c r="X76" s="146"/>
-      <c r="Y76" s="146"/>
-      <c r="Z76" s="146"/>
-      <c r="AA76" s="146"/>
-      <c r="AB76" s="146"/>
-      <c r="AC76" s="146"/>
-      <c r="AD76" s="146"/>
-      <c r="AE76" s="147"/>
-      <c r="AF76" s="124" t="s">
+      <c r="O76" s="139"/>
+      <c r="P76" s="139"/>
+      <c r="Q76" s="139"/>
+      <c r="R76" s="139"/>
+      <c r="S76" s="139"/>
+      <c r="T76" s="139"/>
+      <c r="U76" s="139"/>
+      <c r="V76" s="139"/>
+      <c r="W76" s="139"/>
+      <c r="X76" s="139"/>
+      <c r="Y76" s="139"/>
+      <c r="Z76" s="139"/>
+      <c r="AA76" s="139"/>
+      <c r="AB76" s="139"/>
+      <c r="AC76" s="139"/>
+      <c r="AD76" s="139"/>
+      <c r="AE76" s="140"/>
+      <c r="AF76" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="AG76" s="125"/>
-      <c r="AH76" s="125"/>
-      <c r="AI76" s="125"/>
-      <c r="AJ76" s="125"/>
-      <c r="AK76" s="125"/>
-      <c r="AL76" s="125"/>
-      <c r="AM76" s="125"/>
-      <c r="AN76" s="126"/>
-      <c r="AO76" s="124" t="s">
+      <c r="AG76" s="127"/>
+      <c r="AH76" s="127"/>
+      <c r="AI76" s="127"/>
+      <c r="AJ76" s="127"/>
+      <c r="AK76" s="127"/>
+      <c r="AL76" s="127"/>
+      <c r="AM76" s="127"/>
+      <c r="AN76" s="128"/>
+      <c r="AO76" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="AP76" s="125"/>
-      <c r="AQ76" s="125"/>
-      <c r="AR76" s="125"/>
-      <c r="AS76" s="126"/>
-      <c r="AT76" s="148" t="s">
+      <c r="AP76" s="127"/>
+      <c r="AQ76" s="127"/>
+      <c r="AR76" s="127"/>
+      <c r="AS76" s="128"/>
+      <c r="AT76" s="129" t="s">
         <v>52</v>
       </c>
-      <c r="AU76" s="125"/>
-      <c r="AV76" s="125"/>
-      <c r="AW76" s="126"/>
-      <c r="AX76" s="124" t="s">
+      <c r="AU76" s="127"/>
+      <c r="AV76" s="127"/>
+      <c r="AW76" s="128"/>
+      <c r="AX76" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="AY76" s="125"/>
-      <c r="AZ76" s="125"/>
-      <c r="BA76" s="125"/>
-      <c r="BB76" s="125"/>
-      <c r="BC76" s="126"/>
-      <c r="BD76" s="124" t="s">
+      <c r="AY76" s="127"/>
+      <c r="AZ76" s="127"/>
+      <c r="BA76" s="127"/>
+      <c r="BB76" s="127"/>
+      <c r="BC76" s="128"/>
+      <c r="BD76" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="BE76" s="126"/>
-      <c r="BF76" s="151"/>
-      <c r="BG76" s="125"/>
-      <c r="BH76" s="125"/>
-      <c r="BI76" s="125"/>
-      <c r="BJ76" s="125"/>
-      <c r="BK76" s="125"/>
-      <c r="BL76" s="125"/>
-      <c r="BM76" s="125"/>
-      <c r="BN76" s="125"/>
-      <c r="BO76" s="125"/>
-      <c r="BP76" s="125"/>
-      <c r="BQ76" s="125"/>
-      <c r="BR76" s="125"/>
-      <c r="BS76" s="125"/>
-      <c r="BT76" s="125"/>
-      <c r="BU76" s="126"/>
-    </row>
-    <row r="77" spans="2:73" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE76" s="128"/>
+      <c r="BF76" s="130"/>
+      <c r="BG76" s="127"/>
+      <c r="BH76" s="127"/>
+      <c r="BI76" s="127"/>
+      <c r="BJ76" s="127"/>
+      <c r="BK76" s="127"/>
+      <c r="BL76" s="127"/>
+      <c r="BM76" s="127"/>
+      <c r="BN76" s="127"/>
+      <c r="BO76" s="127"/>
+      <c r="BP76" s="127"/>
+      <c r="BQ76" s="127"/>
+      <c r="BR76" s="127"/>
+      <c r="BS76" s="127"/>
+      <c r="BT76" s="127"/>
+      <c r="BU76" s="128"/>
+    </row>
+    <row r="77" spans="2:73" ht="36.950000000000003" customHeight="1">
       <c r="B77" s="35"/>
-      <c r="C77" s="122">
+      <c r="C77" s="124">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D77" s="123"/>
+      <c r="D77" s="125"/>
       <c r="E77" s="74" t="s">
         <v>107</v>
       </c>
@@ -9745,26 +9853,26 @@
       <c r="K77" s="75"/>
       <c r="L77" s="75"/>
       <c r="M77" s="76"/>
-      <c r="N77" s="145" t="s">
+      <c r="N77" s="138" t="s">
         <v>108</v>
       </c>
-      <c r="O77" s="146"/>
-      <c r="P77" s="146"/>
-      <c r="Q77" s="146"/>
-      <c r="R77" s="146"/>
-      <c r="S77" s="146"/>
-      <c r="T77" s="146"/>
-      <c r="U77" s="146"/>
-      <c r="V77" s="146"/>
-      <c r="W77" s="146"/>
-      <c r="X77" s="146"/>
-      <c r="Y77" s="146"/>
-      <c r="Z77" s="146"/>
-      <c r="AA77" s="146"/>
-      <c r="AB77" s="146"/>
-      <c r="AC77" s="146"/>
-      <c r="AD77" s="146"/>
-      <c r="AE77" s="147"/>
+      <c r="O77" s="139"/>
+      <c r="P77" s="139"/>
+      <c r="Q77" s="139"/>
+      <c r="R77" s="139"/>
+      <c r="S77" s="139"/>
+      <c r="T77" s="139"/>
+      <c r="U77" s="139"/>
+      <c r="V77" s="139"/>
+      <c r="W77" s="139"/>
+      <c r="X77" s="139"/>
+      <c r="Y77" s="139"/>
+      <c r="Z77" s="139"/>
+      <c r="AA77" s="139"/>
+      <c r="AB77" s="139"/>
+      <c r="AC77" s="139"/>
+      <c r="AD77" s="139"/>
+      <c r="AE77" s="140"/>
       <c r="AF77" s="71" t="s">
         <v>109</v>
       </c>
@@ -9818,13 +9926,13 @@
       <c r="BT77" s="72"/>
       <c r="BU77" s="73"/>
     </row>
-    <row r="78" spans="2:73" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:73" ht="36.950000000000003" customHeight="1">
       <c r="B78" s="35"/>
-      <c r="C78" s="122">
+      <c r="C78" s="124">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D78" s="123"/>
+      <c r="D78" s="125"/>
       <c r="E78" s="74" t="s">
         <v>94</v>
       </c>
@@ -9836,62 +9944,62 @@
       <c r="K78" s="75"/>
       <c r="L78" s="75"/>
       <c r="M78" s="76"/>
-      <c r="N78" s="145" t="s">
+      <c r="N78" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="O78" s="146"/>
-      <c r="P78" s="146"/>
-      <c r="Q78" s="146"/>
-      <c r="R78" s="146"/>
-      <c r="S78" s="146"/>
-      <c r="T78" s="146"/>
-      <c r="U78" s="146"/>
-      <c r="V78" s="146"/>
-      <c r="W78" s="146"/>
-      <c r="X78" s="146"/>
-      <c r="Y78" s="146"/>
-      <c r="Z78" s="146"/>
-      <c r="AA78" s="146"/>
-      <c r="AB78" s="146"/>
-      <c r="AC78" s="146"/>
-      <c r="AD78" s="146"/>
-      <c r="AE78" s="147"/>
-      <c r="AF78" s="124" t="s">
+      <c r="O78" s="139"/>
+      <c r="P78" s="139"/>
+      <c r="Q78" s="139"/>
+      <c r="R78" s="139"/>
+      <c r="S78" s="139"/>
+      <c r="T78" s="139"/>
+      <c r="U78" s="139"/>
+      <c r="V78" s="139"/>
+      <c r="W78" s="139"/>
+      <c r="X78" s="139"/>
+      <c r="Y78" s="139"/>
+      <c r="Z78" s="139"/>
+      <c r="AA78" s="139"/>
+      <c r="AB78" s="139"/>
+      <c r="AC78" s="139"/>
+      <c r="AD78" s="139"/>
+      <c r="AE78" s="140"/>
+      <c r="AF78" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="AG78" s="125"/>
-      <c r="AH78" s="125"/>
-      <c r="AI78" s="125"/>
-      <c r="AJ78" s="125"/>
-      <c r="AK78" s="125"/>
-      <c r="AL78" s="125"/>
-      <c r="AM78" s="125"/>
-      <c r="AN78" s="126"/>
-      <c r="AO78" s="124" t="s">
+      <c r="AG78" s="127"/>
+      <c r="AH78" s="127"/>
+      <c r="AI78" s="127"/>
+      <c r="AJ78" s="127"/>
+      <c r="AK78" s="127"/>
+      <c r="AL78" s="127"/>
+      <c r="AM78" s="127"/>
+      <c r="AN78" s="128"/>
+      <c r="AO78" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="AP78" s="125"/>
-      <c r="AQ78" s="125"/>
-      <c r="AR78" s="125"/>
-      <c r="AS78" s="126"/>
-      <c r="AT78" s="148">
+      <c r="AP78" s="127"/>
+      <c r="AQ78" s="127"/>
+      <c r="AR78" s="127"/>
+      <c r="AS78" s="128"/>
+      <c r="AT78" s="129">
         <v>30</v>
       </c>
-      <c r="AU78" s="125"/>
-      <c r="AV78" s="125"/>
-      <c r="AW78" s="126"/>
-      <c r="AX78" s="145" t="s">
+      <c r="AU78" s="127"/>
+      <c r="AV78" s="127"/>
+      <c r="AW78" s="128"/>
+      <c r="AX78" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="AY78" s="146"/>
-      <c r="AZ78" s="146"/>
-      <c r="BA78" s="146"/>
-      <c r="BB78" s="146"/>
-      <c r="BC78" s="147"/>
-      <c r="BD78" s="124" t="s">
+      <c r="AY78" s="139"/>
+      <c r="AZ78" s="139"/>
+      <c r="BA78" s="139"/>
+      <c r="BB78" s="139"/>
+      <c r="BC78" s="140"/>
+      <c r="BD78" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="BE78" s="126"/>
+      <c r="BE78" s="128"/>
       <c r="BF78" s="78"/>
       <c r="BG78" s="72"/>
       <c r="BH78" s="72"/>
@@ -9909,13 +10017,13 @@
       <c r="BT78" s="72"/>
       <c r="BU78" s="73"/>
     </row>
-    <row r="79" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:73">
       <c r="B79" s="35"/>
-      <c r="C79" s="122">
+      <c r="C79" s="124">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D79" s="123"/>
+      <c r="D79" s="125"/>
       <c r="E79" s="44" t="s">
         <v>121</v>
       </c>
@@ -9927,88 +10035,88 @@
       <c r="K79" s="45"/>
       <c r="L79" s="45"/>
       <c r="M79" s="46"/>
-      <c r="N79" s="124" t="s">
+      <c r="N79" s="126" t="s">
         <v>77</v>
       </c>
-      <c r="O79" s="125"/>
-      <c r="P79" s="125"/>
-      <c r="Q79" s="125"/>
-      <c r="R79" s="125"/>
-      <c r="S79" s="125"/>
-      <c r="T79" s="125"/>
-      <c r="U79" s="125"/>
-      <c r="V79" s="125"/>
-      <c r="W79" s="125"/>
-      <c r="X79" s="125"/>
-      <c r="Y79" s="125"/>
-      <c r="Z79" s="125"/>
-      <c r="AA79" s="125"/>
-      <c r="AB79" s="125"/>
-      <c r="AC79" s="125"/>
-      <c r="AD79" s="125"/>
-      <c r="AE79" s="126"/>
-      <c r="AF79" s="124" t="s">
+      <c r="O79" s="127"/>
+      <c r="P79" s="127"/>
+      <c r="Q79" s="127"/>
+      <c r="R79" s="127"/>
+      <c r="S79" s="127"/>
+      <c r="T79" s="127"/>
+      <c r="U79" s="127"/>
+      <c r="V79" s="127"/>
+      <c r="W79" s="127"/>
+      <c r="X79" s="127"/>
+      <c r="Y79" s="127"/>
+      <c r="Z79" s="127"/>
+      <c r="AA79" s="127"/>
+      <c r="AB79" s="127"/>
+      <c r="AC79" s="127"/>
+      <c r="AD79" s="127"/>
+      <c r="AE79" s="128"/>
+      <c r="AF79" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="AG79" s="125"/>
-      <c r="AH79" s="125"/>
-      <c r="AI79" s="125"/>
-      <c r="AJ79" s="125"/>
-      <c r="AK79" s="125"/>
-      <c r="AL79" s="125"/>
-      <c r="AM79" s="125"/>
-      <c r="AN79" s="126"/>
-      <c r="AO79" s="124" t="s">
+      <c r="AG79" s="127"/>
+      <c r="AH79" s="127"/>
+      <c r="AI79" s="127"/>
+      <c r="AJ79" s="127"/>
+      <c r="AK79" s="127"/>
+      <c r="AL79" s="127"/>
+      <c r="AM79" s="127"/>
+      <c r="AN79" s="128"/>
+      <c r="AO79" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="AP79" s="125"/>
-      <c r="AQ79" s="125"/>
-      <c r="AR79" s="125"/>
-      <c r="AS79" s="126"/>
-      <c r="AT79" s="148">
+      <c r="AP79" s="127"/>
+      <c r="AQ79" s="127"/>
+      <c r="AR79" s="127"/>
+      <c r="AS79" s="128"/>
+      <c r="AT79" s="129">
         <v>10</v>
       </c>
-      <c r="AU79" s="125"/>
-      <c r="AV79" s="125"/>
-      <c r="AW79" s="126"/>
-      <c r="AX79" s="124" t="s">
+      <c r="AU79" s="127"/>
+      <c r="AV79" s="127"/>
+      <c r="AW79" s="128"/>
+      <c r="AX79" s="126" t="s">
         <v>76</v>
       </c>
-      <c r="AY79" s="125"/>
-      <c r="AZ79" s="125"/>
-      <c r="BA79" s="125"/>
-      <c r="BB79" s="125"/>
-      <c r="BC79" s="126"/>
-      <c r="BD79" s="124" t="s">
+      <c r="AY79" s="127"/>
+      <c r="AZ79" s="127"/>
+      <c r="BA79" s="127"/>
+      <c r="BB79" s="127"/>
+      <c r="BC79" s="128"/>
+      <c r="BD79" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="BE79" s="126"/>
-      <c r="BF79" s="151" t="s">
+      <c r="BE79" s="128"/>
+      <c r="BF79" s="130" t="s">
         <v>123</v>
       </c>
-      <c r="BG79" s="125"/>
-      <c r="BH79" s="125"/>
-      <c r="BI79" s="125"/>
-      <c r="BJ79" s="125"/>
-      <c r="BK79" s="125"/>
-      <c r="BL79" s="125"/>
-      <c r="BM79" s="125"/>
-      <c r="BN79" s="125"/>
-      <c r="BO79" s="125"/>
-      <c r="BP79" s="125"/>
-      <c r="BQ79" s="125"/>
-      <c r="BR79" s="125"/>
-      <c r="BS79" s="125"/>
-      <c r="BT79" s="125"/>
-      <c r="BU79" s="126"/>
-    </row>
-    <row r="80" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BG79" s="127"/>
+      <c r="BH79" s="127"/>
+      <c r="BI79" s="127"/>
+      <c r="BJ79" s="127"/>
+      <c r="BK79" s="127"/>
+      <c r="BL79" s="127"/>
+      <c r="BM79" s="127"/>
+      <c r="BN79" s="127"/>
+      <c r="BO79" s="127"/>
+      <c r="BP79" s="127"/>
+      <c r="BQ79" s="127"/>
+      <c r="BR79" s="127"/>
+      <c r="BS79" s="127"/>
+      <c r="BT79" s="127"/>
+      <c r="BU79" s="128"/>
+    </row>
+    <row r="80" spans="2:73">
       <c r="B80" s="35"/>
-      <c r="C80" s="122">
+      <c r="C80" s="124">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D80" s="123"/>
+      <c r="D80" s="125"/>
       <c r="E80" s="90" t="s">
         <v>125</v>
       </c>
@@ -10020,62 +10128,62 @@
       <c r="K80" s="91"/>
       <c r="L80" s="91"/>
       <c r="M80" s="92"/>
-      <c r="N80" s="124" t="s">
+      <c r="N80" s="126" t="s">
         <v>126</v>
       </c>
-      <c r="O80" s="125"/>
-      <c r="P80" s="125"/>
-      <c r="Q80" s="125"/>
-      <c r="R80" s="125"/>
-      <c r="S80" s="125"/>
-      <c r="T80" s="125"/>
-      <c r="U80" s="125"/>
-      <c r="V80" s="125"/>
-      <c r="W80" s="125"/>
-      <c r="X80" s="125"/>
-      <c r="Y80" s="125"/>
-      <c r="Z80" s="125"/>
-      <c r="AA80" s="125"/>
-      <c r="AB80" s="125"/>
-      <c r="AC80" s="125"/>
-      <c r="AD80" s="125"/>
-      <c r="AE80" s="126"/>
-      <c r="AF80" s="124" t="s">
+      <c r="O80" s="127"/>
+      <c r="P80" s="127"/>
+      <c r="Q80" s="127"/>
+      <c r="R80" s="127"/>
+      <c r="S80" s="127"/>
+      <c r="T80" s="127"/>
+      <c r="U80" s="127"/>
+      <c r="V80" s="127"/>
+      <c r="W80" s="127"/>
+      <c r="X80" s="127"/>
+      <c r="Y80" s="127"/>
+      <c r="Z80" s="127"/>
+      <c r="AA80" s="127"/>
+      <c r="AB80" s="127"/>
+      <c r="AC80" s="127"/>
+      <c r="AD80" s="127"/>
+      <c r="AE80" s="128"/>
+      <c r="AF80" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="AG80" s="125"/>
-      <c r="AH80" s="125"/>
-      <c r="AI80" s="125"/>
-      <c r="AJ80" s="125"/>
-      <c r="AK80" s="125"/>
-      <c r="AL80" s="125"/>
-      <c r="AM80" s="125"/>
-      <c r="AN80" s="126"/>
-      <c r="AO80" s="124" t="s">
+      <c r="AG80" s="127"/>
+      <c r="AH80" s="127"/>
+      <c r="AI80" s="127"/>
+      <c r="AJ80" s="127"/>
+      <c r="AK80" s="127"/>
+      <c r="AL80" s="127"/>
+      <c r="AM80" s="127"/>
+      <c r="AN80" s="128"/>
+      <c r="AO80" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="AP80" s="125"/>
-      <c r="AQ80" s="125"/>
-      <c r="AR80" s="125"/>
-      <c r="AS80" s="126"/>
-      <c r="AT80" s="148" t="s">
+      <c r="AP80" s="127"/>
+      <c r="AQ80" s="127"/>
+      <c r="AR80" s="127"/>
+      <c r="AS80" s="128"/>
+      <c r="AT80" s="129" t="s">
         <v>124</v>
       </c>
-      <c r="AU80" s="125"/>
-      <c r="AV80" s="125"/>
-      <c r="AW80" s="126"/>
-      <c r="AX80" s="124" t="s">
+      <c r="AU80" s="127"/>
+      <c r="AV80" s="127"/>
+      <c r="AW80" s="128"/>
+      <c r="AX80" s="126" t="s">
         <v>49</v>
       </c>
-      <c r="AY80" s="125"/>
-      <c r="AZ80" s="125"/>
-      <c r="BA80" s="125"/>
-      <c r="BB80" s="125"/>
-      <c r="BC80" s="126"/>
-      <c r="BD80" s="124" t="s">
+      <c r="AY80" s="127"/>
+      <c r="AZ80" s="127"/>
+      <c r="BA80" s="127"/>
+      <c r="BB80" s="127"/>
+      <c r="BC80" s="128"/>
+      <c r="BD80" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="BE80" s="126"/>
+      <c r="BE80" s="128"/>
       <c r="BF80" s="93"/>
       <c r="BG80" s="88"/>
       <c r="BH80" s="88"/>
@@ -10093,13 +10201,13 @@
       <c r="BT80" s="88"/>
       <c r="BU80" s="89"/>
     </row>
-    <row r="81" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:73">
       <c r="B81" s="35"/>
-      <c r="C81" s="122">
+      <c r="C81" s="124">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D81" s="123"/>
+      <c r="D81" s="125"/>
       <c r="E81" s="44" t="s">
         <v>122</v>
       </c>
@@ -10111,86 +10219,86 @@
       <c r="K81" s="45"/>
       <c r="L81" s="45"/>
       <c r="M81" s="46"/>
-      <c r="N81" s="124" t="s">
+      <c r="N81" s="126" t="s">
         <v>79</v>
       </c>
-      <c r="O81" s="125"/>
-      <c r="P81" s="125"/>
-      <c r="Q81" s="125"/>
-      <c r="R81" s="125"/>
-      <c r="S81" s="125"/>
-      <c r="T81" s="125"/>
-      <c r="U81" s="125"/>
-      <c r="V81" s="125"/>
-      <c r="W81" s="125"/>
-      <c r="X81" s="125"/>
-      <c r="Y81" s="125"/>
-      <c r="Z81" s="125"/>
-      <c r="AA81" s="125"/>
-      <c r="AB81" s="125"/>
-      <c r="AC81" s="125"/>
-      <c r="AD81" s="125"/>
-      <c r="AE81" s="126"/>
-      <c r="AF81" s="124" t="s">
+      <c r="O81" s="127"/>
+      <c r="P81" s="127"/>
+      <c r="Q81" s="127"/>
+      <c r="R81" s="127"/>
+      <c r="S81" s="127"/>
+      <c r="T81" s="127"/>
+      <c r="U81" s="127"/>
+      <c r="V81" s="127"/>
+      <c r="W81" s="127"/>
+      <c r="X81" s="127"/>
+      <c r="Y81" s="127"/>
+      <c r="Z81" s="127"/>
+      <c r="AA81" s="127"/>
+      <c r="AB81" s="127"/>
+      <c r="AC81" s="127"/>
+      <c r="AD81" s="127"/>
+      <c r="AE81" s="128"/>
+      <c r="AF81" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="AG81" s="125"/>
-      <c r="AH81" s="125"/>
-      <c r="AI81" s="125"/>
-      <c r="AJ81" s="125"/>
-      <c r="AK81" s="125"/>
-      <c r="AL81" s="125"/>
-      <c r="AM81" s="125"/>
-      <c r="AN81" s="126"/>
-      <c r="AO81" s="124" t="s">
+      <c r="AG81" s="127"/>
+      <c r="AH81" s="127"/>
+      <c r="AI81" s="127"/>
+      <c r="AJ81" s="127"/>
+      <c r="AK81" s="127"/>
+      <c r="AL81" s="127"/>
+      <c r="AM81" s="127"/>
+      <c r="AN81" s="128"/>
+      <c r="AO81" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="AP81" s="125"/>
-      <c r="AQ81" s="125"/>
-      <c r="AR81" s="125"/>
-      <c r="AS81" s="126"/>
-      <c r="AT81" s="148">
-        <v>5</v>
-      </c>
-      <c r="AU81" s="125"/>
-      <c r="AV81" s="125"/>
-      <c r="AW81" s="126"/>
-      <c r="AX81" s="124" t="s">
+      <c r="AP81" s="127"/>
+      <c r="AQ81" s="127"/>
+      <c r="AR81" s="127"/>
+      <c r="AS81" s="128"/>
+      <c r="AT81" s="129">
+        <v>4</v>
+      </c>
+      <c r="AU81" s="127"/>
+      <c r="AV81" s="127"/>
+      <c r="AW81" s="128"/>
+      <c r="AX81" s="126" t="s">
         <v>50</v>
       </c>
-      <c r="AY81" s="125"/>
-      <c r="AZ81" s="125"/>
-      <c r="BA81" s="125"/>
-      <c r="BB81" s="125"/>
-      <c r="BC81" s="126"/>
-      <c r="BD81" s="124" t="s">
+      <c r="AY81" s="127"/>
+      <c r="AZ81" s="127"/>
+      <c r="BA81" s="127"/>
+      <c r="BB81" s="127"/>
+      <c r="BC81" s="128"/>
+      <c r="BD81" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="BE81" s="126"/>
-      <c r="BF81" s="127"/>
-      <c r="BG81" s="128"/>
-      <c r="BH81" s="128"/>
-      <c r="BI81" s="128"/>
-      <c r="BJ81" s="128"/>
-      <c r="BK81" s="128"/>
-      <c r="BL81" s="128"/>
-      <c r="BM81" s="128"/>
-      <c r="BN81" s="128"/>
-      <c r="BO81" s="128"/>
-      <c r="BP81" s="128"/>
-      <c r="BQ81" s="128"/>
-      <c r="BR81" s="128"/>
-      <c r="BS81" s="128"/>
-      <c r="BT81" s="128"/>
-      <c r="BU81" s="129"/>
-    </row>
-    <row r="82" spans="2:73" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE81" s="128"/>
+      <c r="BF81" s="131"/>
+      <c r="BG81" s="132"/>
+      <c r="BH81" s="132"/>
+      <c r="BI81" s="132"/>
+      <c r="BJ81" s="132"/>
+      <c r="BK81" s="132"/>
+      <c r="BL81" s="132"/>
+      <c r="BM81" s="132"/>
+      <c r="BN81" s="132"/>
+      <c r="BO81" s="132"/>
+      <c r="BP81" s="132"/>
+      <c r="BQ81" s="132"/>
+      <c r="BR81" s="132"/>
+      <c r="BS81" s="132"/>
+      <c r="BT81" s="132"/>
+      <c r="BU81" s="133"/>
+    </row>
+    <row r="82" spans="2:73" ht="39" customHeight="1">
       <c r="B82" s="35"/>
-      <c r="C82" s="122">
+      <c r="C82" s="124">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="D82" s="123"/>
+      <c r="D82" s="125"/>
       <c r="E82" s="74" t="s">
         <v>78</v>
       </c>
@@ -10202,86 +10310,86 @@
       <c r="K82" s="45"/>
       <c r="L82" s="45"/>
       <c r="M82" s="46"/>
-      <c r="N82" s="124" t="s">
+      <c r="N82" s="126" t="s">
         <v>127</v>
       </c>
-      <c r="O82" s="125"/>
-      <c r="P82" s="125"/>
-      <c r="Q82" s="125"/>
-      <c r="R82" s="125"/>
-      <c r="S82" s="125"/>
-      <c r="T82" s="125"/>
-      <c r="U82" s="125"/>
-      <c r="V82" s="125"/>
-      <c r="W82" s="125"/>
-      <c r="X82" s="125"/>
-      <c r="Y82" s="125"/>
-      <c r="Z82" s="125"/>
-      <c r="AA82" s="125"/>
-      <c r="AB82" s="125"/>
-      <c r="AC82" s="125"/>
-      <c r="AD82" s="125"/>
-      <c r="AE82" s="126"/>
-      <c r="AF82" s="124" t="s">
+      <c r="O82" s="127"/>
+      <c r="P82" s="127"/>
+      <c r="Q82" s="127"/>
+      <c r="R82" s="127"/>
+      <c r="S82" s="127"/>
+      <c r="T82" s="127"/>
+      <c r="U82" s="127"/>
+      <c r="V82" s="127"/>
+      <c r="W82" s="127"/>
+      <c r="X82" s="127"/>
+      <c r="Y82" s="127"/>
+      <c r="Z82" s="127"/>
+      <c r="AA82" s="127"/>
+      <c r="AB82" s="127"/>
+      <c r="AC82" s="127"/>
+      <c r="AD82" s="127"/>
+      <c r="AE82" s="128"/>
+      <c r="AF82" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="AG82" s="125"/>
-      <c r="AH82" s="125"/>
-      <c r="AI82" s="125"/>
-      <c r="AJ82" s="125"/>
-      <c r="AK82" s="125"/>
-      <c r="AL82" s="125"/>
-      <c r="AM82" s="125"/>
-      <c r="AN82" s="126"/>
-      <c r="AO82" s="124" t="s">
+      <c r="AG82" s="127"/>
+      <c r="AH82" s="127"/>
+      <c r="AI82" s="127"/>
+      <c r="AJ82" s="127"/>
+      <c r="AK82" s="127"/>
+      <c r="AL82" s="127"/>
+      <c r="AM82" s="127"/>
+      <c r="AN82" s="128"/>
+      <c r="AO82" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="AP82" s="125"/>
-      <c r="AQ82" s="125"/>
-      <c r="AR82" s="125"/>
-      <c r="AS82" s="126"/>
-      <c r="AT82" s="148">
-        <v>200</v>
-      </c>
-      <c r="AU82" s="149"/>
-      <c r="AV82" s="149"/>
-      <c r="AW82" s="150"/>
-      <c r="AX82" s="151" t="s">
+      <c r="AP82" s="127"/>
+      <c r="AQ82" s="127"/>
+      <c r="AR82" s="127"/>
+      <c r="AS82" s="128"/>
+      <c r="AT82" s="129">
+        <v>500</v>
+      </c>
+      <c r="AU82" s="134"/>
+      <c r="AV82" s="134"/>
+      <c r="AW82" s="135"/>
+      <c r="AX82" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="AY82" s="152"/>
-      <c r="AZ82" s="152"/>
-      <c r="BA82" s="152"/>
-      <c r="BB82" s="152"/>
-      <c r="BC82" s="153"/>
-      <c r="BD82" s="124" t="s">
+      <c r="AY82" s="141"/>
+      <c r="AZ82" s="141"/>
+      <c r="BA82" s="141"/>
+      <c r="BB82" s="141"/>
+      <c r="BC82" s="142"/>
+      <c r="BD82" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="BE82" s="126"/>
-      <c r="BF82" s="127"/>
-      <c r="BG82" s="128"/>
-      <c r="BH82" s="128"/>
-      <c r="BI82" s="128"/>
-      <c r="BJ82" s="128"/>
-      <c r="BK82" s="128"/>
-      <c r="BL82" s="128"/>
-      <c r="BM82" s="128"/>
-      <c r="BN82" s="128"/>
-      <c r="BO82" s="128"/>
-      <c r="BP82" s="128"/>
-      <c r="BQ82" s="128"/>
-      <c r="BR82" s="128"/>
-      <c r="BS82" s="128"/>
-      <c r="BT82" s="128"/>
-      <c r="BU82" s="129"/>
-    </row>
-    <row r="83" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BE82" s="128"/>
+      <c r="BF82" s="131"/>
+      <c r="BG82" s="132"/>
+      <c r="BH82" s="132"/>
+      <c r="BI82" s="132"/>
+      <c r="BJ82" s="132"/>
+      <c r="BK82" s="132"/>
+      <c r="BL82" s="132"/>
+      <c r="BM82" s="132"/>
+      <c r="BN82" s="132"/>
+      <c r="BO82" s="132"/>
+      <c r="BP82" s="132"/>
+      <c r="BQ82" s="132"/>
+      <c r="BR82" s="132"/>
+      <c r="BS82" s="132"/>
+      <c r="BT82" s="132"/>
+      <c r="BU82" s="133"/>
+    </row>
+    <row r="83" spans="2:73">
       <c r="B83" s="35"/>
-      <c r="C83" s="122">
+      <c r="C83" s="124">
         <f t="shared" ref="C83:C85" si="1">ROW()-ROW($C$75)</f>
         <v>8</v>
       </c>
-      <c r="D83" s="123"/>
+      <c r="D83" s="125"/>
       <c r="E83" s="44" t="s">
         <v>83</v>
       </c>
@@ -10293,262 +10401,262 @@
       <c r="K83" s="45"/>
       <c r="L83" s="45"/>
       <c r="M83" s="46"/>
-      <c r="N83" s="124" t="s">
+      <c r="N83" s="126" t="s">
         <v>84</v>
       </c>
-      <c r="O83" s="125"/>
-      <c r="P83" s="125"/>
-      <c r="Q83" s="125"/>
-      <c r="R83" s="125"/>
-      <c r="S83" s="125"/>
-      <c r="T83" s="125"/>
-      <c r="U83" s="125"/>
-      <c r="V83" s="125"/>
-      <c r="W83" s="125"/>
-      <c r="X83" s="125"/>
-      <c r="Y83" s="125"/>
-      <c r="Z83" s="125"/>
-      <c r="AA83" s="125"/>
-      <c r="AB83" s="125"/>
-      <c r="AC83" s="125"/>
-      <c r="AD83" s="125"/>
-      <c r="AE83" s="126"/>
-      <c r="AF83" s="124" t="s">
+      <c r="O83" s="127"/>
+      <c r="P83" s="127"/>
+      <c r="Q83" s="127"/>
+      <c r="R83" s="127"/>
+      <c r="S83" s="127"/>
+      <c r="T83" s="127"/>
+      <c r="U83" s="127"/>
+      <c r="V83" s="127"/>
+      <c r="W83" s="127"/>
+      <c r="X83" s="127"/>
+      <c r="Y83" s="127"/>
+      <c r="Z83" s="127"/>
+      <c r="AA83" s="127"/>
+      <c r="AB83" s="127"/>
+      <c r="AC83" s="127"/>
+      <c r="AD83" s="127"/>
+      <c r="AE83" s="128"/>
+      <c r="AF83" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="AG83" s="125"/>
-      <c r="AH83" s="125"/>
-      <c r="AI83" s="125"/>
-      <c r="AJ83" s="125"/>
-      <c r="AK83" s="125"/>
-      <c r="AL83" s="125"/>
-      <c r="AM83" s="125"/>
-      <c r="AN83" s="126"/>
-      <c r="AO83" s="124" t="s">
+      <c r="AG83" s="127"/>
+      <c r="AH83" s="127"/>
+      <c r="AI83" s="127"/>
+      <c r="AJ83" s="127"/>
+      <c r="AK83" s="127"/>
+      <c r="AL83" s="127"/>
+      <c r="AM83" s="127"/>
+      <c r="AN83" s="128"/>
+      <c r="AO83" s="126" t="s">
         <v>48</v>
       </c>
-      <c r="AP83" s="125"/>
-      <c r="AQ83" s="125"/>
-      <c r="AR83" s="125"/>
-      <c r="AS83" s="126"/>
-      <c r="AT83" s="148">
-        <v>8</v>
-      </c>
-      <c r="AU83" s="149"/>
-      <c r="AV83" s="149"/>
-      <c r="AW83" s="150"/>
-      <c r="AX83" s="124" t="s">
+      <c r="AP83" s="127"/>
+      <c r="AQ83" s="127"/>
+      <c r="AR83" s="127"/>
+      <c r="AS83" s="128"/>
+      <c r="AT83" s="129">
+        <v>10</v>
+      </c>
+      <c r="AU83" s="134"/>
+      <c r="AV83" s="134"/>
+      <c r="AW83" s="135"/>
+      <c r="AX83" s="126" t="s">
         <v>97</v>
       </c>
-      <c r="AY83" s="125"/>
-      <c r="AZ83" s="125"/>
-      <c r="BA83" s="125"/>
-      <c r="BB83" s="125"/>
-      <c r="BC83" s="126"/>
-      <c r="BD83" s="124" t="s">
+      <c r="AY83" s="127"/>
+      <c r="AZ83" s="127"/>
+      <c r="BA83" s="127"/>
+      <c r="BB83" s="127"/>
+      <c r="BC83" s="128"/>
+      <c r="BD83" s="126" t="s">
         <v>51</v>
       </c>
-      <c r="BE83" s="126"/>
-      <c r="BF83" s="127"/>
-      <c r="BG83" s="128"/>
-      <c r="BH83" s="128"/>
-      <c r="BI83" s="128"/>
-      <c r="BJ83" s="128"/>
-      <c r="BK83" s="128"/>
-      <c r="BL83" s="128"/>
-      <c r="BM83" s="128"/>
-      <c r="BN83" s="128"/>
-      <c r="BO83" s="128"/>
-      <c r="BP83" s="128"/>
-      <c r="BQ83" s="128"/>
-      <c r="BR83" s="128"/>
-      <c r="BS83" s="128"/>
-      <c r="BT83" s="128"/>
-      <c r="BU83" s="129"/>
-    </row>
-    <row r="84" spans="2:73" ht="37" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="BE83" s="128"/>
+      <c r="BF83" s="131"/>
+      <c r="BG83" s="132"/>
+      <c r="BH83" s="132"/>
+      <c r="BI83" s="132"/>
+      <c r="BJ83" s="132"/>
+      <c r="BK83" s="132"/>
+      <c r="BL83" s="132"/>
+      <c r="BM83" s="132"/>
+      <c r="BN83" s="132"/>
+      <c r="BO83" s="132"/>
+      <c r="BP83" s="132"/>
+      <c r="BQ83" s="132"/>
+      <c r="BR83" s="132"/>
+      <c r="BS83" s="132"/>
+      <c r="BT83" s="132"/>
+      <c r="BU83" s="133"/>
+    </row>
+    <row r="84" spans="2:73" ht="36.950000000000003" customHeight="1">
       <c r="B84" s="35"/>
-      <c r="C84" s="122">
+      <c r="C84" s="124">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D84" s="123"/>
-      <c r="E84" s="127" t="s">
+      <c r="D84" s="125"/>
+      <c r="E84" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="F84" s="128"/>
-      <c r="G84" s="128"/>
-      <c r="H84" s="128"/>
-      <c r="I84" s="128"/>
-      <c r="J84" s="128"/>
-      <c r="K84" s="128"/>
-      <c r="L84" s="128"/>
-      <c r="M84" s="129"/>
-      <c r="N84" s="145" t="s">
+      <c r="F84" s="132"/>
+      <c r="G84" s="132"/>
+      <c r="H84" s="132"/>
+      <c r="I84" s="132"/>
+      <c r="J84" s="132"/>
+      <c r="K84" s="132"/>
+      <c r="L84" s="132"/>
+      <c r="M84" s="133"/>
+      <c r="N84" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="O84" s="146"/>
-      <c r="P84" s="146"/>
-      <c r="Q84" s="146"/>
-      <c r="R84" s="146"/>
-      <c r="S84" s="146"/>
-      <c r="T84" s="146"/>
-      <c r="U84" s="146"/>
-      <c r="V84" s="146"/>
-      <c r="W84" s="146"/>
-      <c r="X84" s="146"/>
-      <c r="Y84" s="146"/>
-      <c r="Z84" s="146"/>
-      <c r="AA84" s="146"/>
-      <c r="AB84" s="146"/>
-      <c r="AC84" s="146"/>
-      <c r="AD84" s="146"/>
-      <c r="AE84" s="147"/>
-      <c r="AF84" s="124" t="s">
+      <c r="O84" s="139"/>
+      <c r="P84" s="139"/>
+      <c r="Q84" s="139"/>
+      <c r="R84" s="139"/>
+      <c r="S84" s="139"/>
+      <c r="T84" s="139"/>
+      <c r="U84" s="139"/>
+      <c r="V84" s="139"/>
+      <c r="W84" s="139"/>
+      <c r="X84" s="139"/>
+      <c r="Y84" s="139"/>
+      <c r="Z84" s="139"/>
+      <c r="AA84" s="139"/>
+      <c r="AB84" s="139"/>
+      <c r="AC84" s="139"/>
+      <c r="AD84" s="139"/>
+      <c r="AE84" s="140"/>
+      <c r="AF84" s="126" t="s">
         <v>80</v>
       </c>
-      <c r="AG84" s="125"/>
-      <c r="AH84" s="125"/>
-      <c r="AI84" s="125"/>
-      <c r="AJ84" s="125"/>
-      <c r="AK84" s="125"/>
-      <c r="AL84" s="125"/>
-      <c r="AM84" s="125"/>
-      <c r="AN84" s="126"/>
-      <c r="AO84" s="124" t="s">
+      <c r="AG84" s="127"/>
+      <c r="AH84" s="127"/>
+      <c r="AI84" s="127"/>
+      <c r="AJ84" s="127"/>
+      <c r="AK84" s="127"/>
+      <c r="AL84" s="127"/>
+      <c r="AM84" s="127"/>
+      <c r="AN84" s="128"/>
+      <c r="AO84" s="126" t="s">
         <v>88</v>
       </c>
-      <c r="AP84" s="125"/>
-      <c r="AQ84" s="125"/>
-      <c r="AR84" s="125"/>
-      <c r="AS84" s="126"/>
-      <c r="AT84" s="148" t="s">
+      <c r="AP84" s="127"/>
+      <c r="AQ84" s="127"/>
+      <c r="AR84" s="127"/>
+      <c r="AS84" s="128"/>
+      <c r="AT84" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="AU84" s="149"/>
-      <c r="AV84" s="149"/>
-      <c r="AW84" s="150"/>
-      <c r="AX84" s="151" t="s">
+      <c r="AU84" s="134"/>
+      <c r="AV84" s="134"/>
+      <c r="AW84" s="135"/>
+      <c r="AX84" s="130" t="s">
         <v>98</v>
       </c>
-      <c r="AY84" s="152"/>
-      <c r="AZ84" s="152"/>
-      <c r="BA84" s="152"/>
-      <c r="BB84" s="152"/>
-      <c r="BC84" s="153"/>
-      <c r="BD84" s="124" t="s">
+      <c r="AY84" s="141"/>
+      <c r="AZ84" s="141"/>
+      <c r="BA84" s="141"/>
+      <c r="BB84" s="141"/>
+      <c r="BC84" s="142"/>
+      <c r="BD84" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="BE84" s="126"/>
-      <c r="BF84" s="127"/>
-      <c r="BG84" s="128"/>
-      <c r="BH84" s="128"/>
-      <c r="BI84" s="128"/>
-      <c r="BJ84" s="128"/>
-      <c r="BK84" s="128"/>
-      <c r="BL84" s="128"/>
-      <c r="BM84" s="128"/>
-      <c r="BN84" s="128"/>
-      <c r="BO84" s="128"/>
-      <c r="BP84" s="128"/>
-      <c r="BQ84" s="128"/>
-      <c r="BR84" s="128"/>
-      <c r="BS84" s="128"/>
-      <c r="BT84" s="128"/>
-      <c r="BU84" s="129"/>
-    </row>
-    <row r="85" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BE84" s="128"/>
+      <c r="BF84" s="131"/>
+      <c r="BG84" s="132"/>
+      <c r="BH84" s="132"/>
+      <c r="BI84" s="132"/>
+      <c r="BJ84" s="132"/>
+      <c r="BK84" s="132"/>
+      <c r="BL84" s="132"/>
+      <c r="BM84" s="132"/>
+      <c r="BN84" s="132"/>
+      <c r="BO84" s="132"/>
+      <c r="BP84" s="132"/>
+      <c r="BQ84" s="132"/>
+      <c r="BR84" s="132"/>
+      <c r="BS84" s="132"/>
+      <c r="BT84" s="132"/>
+      <c r="BU84" s="133"/>
+    </row>
+    <row r="85" spans="2:73">
       <c r="B85" s="35"/>
-      <c r="C85" s="122">
+      <c r="C85" s="124">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="D85" s="123"/>
-      <c r="E85" s="127" t="s">
+      <c r="D85" s="125"/>
+      <c r="E85" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="F85" s="128"/>
-      <c r="G85" s="128"/>
-      <c r="H85" s="128"/>
-      <c r="I85" s="128"/>
-      <c r="J85" s="128"/>
-      <c r="K85" s="128"/>
-      <c r="L85" s="128"/>
-      <c r="M85" s="129"/>
-      <c r="N85" s="145" t="s">
+      <c r="F85" s="132"/>
+      <c r="G85" s="132"/>
+      <c r="H85" s="132"/>
+      <c r="I85" s="132"/>
+      <c r="J85" s="132"/>
+      <c r="K85" s="132"/>
+      <c r="L85" s="132"/>
+      <c r="M85" s="133"/>
+      <c r="N85" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="O85" s="146"/>
-      <c r="P85" s="146"/>
-      <c r="Q85" s="146"/>
-      <c r="R85" s="146"/>
-      <c r="S85" s="146"/>
-      <c r="T85" s="146"/>
-      <c r="U85" s="146"/>
-      <c r="V85" s="146"/>
-      <c r="W85" s="146"/>
-      <c r="X85" s="146"/>
-      <c r="Y85" s="146"/>
-      <c r="Z85" s="146"/>
-      <c r="AA85" s="146"/>
-      <c r="AB85" s="146"/>
-      <c r="AC85" s="146"/>
-      <c r="AD85" s="146"/>
-      <c r="AE85" s="147"/>
-      <c r="AF85" s="124" t="s">
+      <c r="O85" s="139"/>
+      <c r="P85" s="139"/>
+      <c r="Q85" s="139"/>
+      <c r="R85" s="139"/>
+      <c r="S85" s="139"/>
+      <c r="T85" s="139"/>
+      <c r="U85" s="139"/>
+      <c r="V85" s="139"/>
+      <c r="W85" s="139"/>
+      <c r="X85" s="139"/>
+      <c r="Y85" s="139"/>
+      <c r="Z85" s="139"/>
+      <c r="AA85" s="139"/>
+      <c r="AB85" s="139"/>
+      <c r="AC85" s="139"/>
+      <c r="AD85" s="139"/>
+      <c r="AE85" s="140"/>
+      <c r="AF85" s="126" t="s">
         <v>91</v>
       </c>
-      <c r="AG85" s="125"/>
-      <c r="AH85" s="125"/>
-      <c r="AI85" s="125"/>
-      <c r="AJ85" s="125"/>
-      <c r="AK85" s="125"/>
-      <c r="AL85" s="125"/>
-      <c r="AM85" s="125"/>
-      <c r="AN85" s="126"/>
-      <c r="AO85" s="124" t="s">
+      <c r="AG85" s="127"/>
+      <c r="AH85" s="127"/>
+      <c r="AI85" s="127"/>
+      <c r="AJ85" s="127"/>
+      <c r="AK85" s="127"/>
+      <c r="AL85" s="127"/>
+      <c r="AM85" s="127"/>
+      <c r="AN85" s="128"/>
+      <c r="AO85" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="AP85" s="125"/>
-      <c r="AQ85" s="125"/>
-      <c r="AR85" s="125"/>
-      <c r="AS85" s="126"/>
-      <c r="AT85" s="148" t="s">
+      <c r="AP85" s="127"/>
+      <c r="AQ85" s="127"/>
+      <c r="AR85" s="127"/>
+      <c r="AS85" s="128"/>
+      <c r="AT85" s="129" t="s">
         <v>53</v>
       </c>
-      <c r="AU85" s="149"/>
-      <c r="AV85" s="149"/>
-      <c r="AW85" s="150"/>
-      <c r="AX85" s="124" t="s">
+      <c r="AU85" s="134"/>
+      <c r="AV85" s="134"/>
+      <c r="AW85" s="135"/>
+      <c r="AX85" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="AY85" s="125"/>
-      <c r="AZ85" s="125"/>
-      <c r="BA85" s="125"/>
-      <c r="BB85" s="125"/>
-      <c r="BC85" s="126"/>
-      <c r="BD85" s="124" t="s">
+      <c r="AY85" s="127"/>
+      <c r="AZ85" s="127"/>
+      <c r="BA85" s="127"/>
+      <c r="BB85" s="127"/>
+      <c r="BC85" s="128"/>
+      <c r="BD85" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="BE85" s="126"/>
-      <c r="BF85" s="124"/>
-      <c r="BG85" s="125"/>
-      <c r="BH85" s="125"/>
-      <c r="BI85" s="125"/>
-      <c r="BJ85" s="125"/>
-      <c r="BK85" s="125"/>
-      <c r="BL85" s="125"/>
-      <c r="BM85" s="125"/>
-      <c r="BN85" s="125"/>
-      <c r="BO85" s="125"/>
-      <c r="BP85" s="125"/>
-      <c r="BQ85" s="125"/>
-      <c r="BR85" s="125"/>
-      <c r="BS85" s="125"/>
-      <c r="BT85" s="125"/>
-      <c r="BU85" s="126"/>
-    </row>
-    <row r="86" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BE85" s="128"/>
+      <c r="BF85" s="126"/>
+      <c r="BG85" s="127"/>
+      <c r="BH85" s="127"/>
+      <c r="BI85" s="127"/>
+      <c r="BJ85" s="127"/>
+      <c r="BK85" s="127"/>
+      <c r="BL85" s="127"/>
+      <c r="BM85" s="127"/>
+      <c r="BN85" s="127"/>
+      <c r="BO85" s="127"/>
+      <c r="BP85" s="127"/>
+      <c r="BQ85" s="127"/>
+      <c r="BR85" s="127"/>
+      <c r="BS85" s="127"/>
+      <c r="BT85" s="127"/>
+      <c r="BU85" s="128"/>
+    </row>
+    <row r="86" spans="2:73">
       <c r="C86" s="19"/>
       <c r="D86" s="19"/>
       <c r="E86" s="19"/>
@@ -10621,7 +10729,7 @@
       <c r="BT86" s="19"/>
       <c r="BU86" s="19"/>
     </row>
-    <row r="87" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:73">
       <c r="C87" s="19" t="s">
         <v>29</v>
       </c>
@@ -10696,11 +10804,11 @@
       <c r="BT87" s="19"/>
       <c r="BU87" s="19"/>
     </row>
-    <row r="88" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C88" s="137" t="s">
+    <row r="88" spans="2:73">
+      <c r="C88" s="136" t="s">
         <v>30</v>
       </c>
-      <c r="D88" s="138"/>
+      <c r="D88" s="137"/>
       <c r="E88" s="32" t="s">
         <v>19</v>
       </c>
@@ -10779,12 +10887,12 @@
       <c r="BT88" s="34"/>
       <c r="BU88" s="33"/>
     </row>
-    <row r="89" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C89" s="122">
+    <row r="89" spans="2:73">
+      <c r="C89" s="124">
         <f t="shared" ref="C89:C93" si="2">ROW()-ROW($C$88)</f>
         <v>1</v>
       </c>
-      <c r="D89" s="123"/>
+      <c r="D89" s="125"/>
       <c r="E89" s="74" t="s">
         <v>94</v>
       </c>
@@ -10844,29 +10952,29 @@
       <c r="BC89" s="39"/>
       <c r="BD89" s="39"/>
       <c r="BE89" s="39"/>
-      <c r="BF89" s="130"/>
-      <c r="BG89" s="131"/>
-      <c r="BH89" s="131"/>
-      <c r="BI89" s="131"/>
-      <c r="BJ89" s="131"/>
-      <c r="BK89" s="131"/>
-      <c r="BL89" s="131"/>
-      <c r="BM89" s="131"/>
-      <c r="BN89" s="131"/>
-      <c r="BO89" s="131"/>
-      <c r="BP89" s="131"/>
-      <c r="BQ89" s="131"/>
-      <c r="BR89" s="131"/>
-      <c r="BS89" s="131"/>
-      <c r="BT89" s="131"/>
-      <c r="BU89" s="132"/>
-    </row>
-    <row r="90" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C90" s="122">
+      <c r="BF89" s="143"/>
+      <c r="BG89" s="144"/>
+      <c r="BH89" s="144"/>
+      <c r="BI89" s="144"/>
+      <c r="BJ89" s="144"/>
+      <c r="BK89" s="144"/>
+      <c r="BL89" s="144"/>
+      <c r="BM89" s="144"/>
+      <c r="BN89" s="144"/>
+      <c r="BO89" s="144"/>
+      <c r="BP89" s="144"/>
+      <c r="BQ89" s="144"/>
+      <c r="BR89" s="144"/>
+      <c r="BS89" s="144"/>
+      <c r="BT89" s="144"/>
+      <c r="BU89" s="145"/>
+    </row>
+    <row r="90" spans="2:73">
+      <c r="C90" s="124">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="D90" s="123"/>
+      <c r="D90" s="125"/>
       <c r="E90" s="74" t="s">
         <v>76</v>
       </c>
@@ -10926,29 +11034,29 @@
       <c r="BC90" s="72"/>
       <c r="BD90" s="72"/>
       <c r="BE90" s="72"/>
-      <c r="BF90" s="130"/>
-      <c r="BG90" s="131"/>
-      <c r="BH90" s="131"/>
-      <c r="BI90" s="131"/>
-      <c r="BJ90" s="131"/>
-      <c r="BK90" s="131"/>
-      <c r="BL90" s="131"/>
-      <c r="BM90" s="131"/>
-      <c r="BN90" s="131"/>
-      <c r="BO90" s="131"/>
-      <c r="BP90" s="131"/>
-      <c r="BQ90" s="131"/>
-      <c r="BR90" s="131"/>
-      <c r="BS90" s="131"/>
-      <c r="BT90" s="131"/>
-      <c r="BU90" s="132"/>
-    </row>
-    <row r="91" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C91" s="122">
+      <c r="BF90" s="143"/>
+      <c r="BG90" s="144"/>
+      <c r="BH90" s="144"/>
+      <c r="BI90" s="144"/>
+      <c r="BJ90" s="144"/>
+      <c r="BK90" s="144"/>
+      <c r="BL90" s="144"/>
+      <c r="BM90" s="144"/>
+      <c r="BN90" s="144"/>
+      <c r="BO90" s="144"/>
+      <c r="BP90" s="144"/>
+      <c r="BQ90" s="144"/>
+      <c r="BR90" s="144"/>
+      <c r="BS90" s="144"/>
+      <c r="BT90" s="144"/>
+      <c r="BU90" s="145"/>
+    </row>
+    <row r="91" spans="2:73">
+      <c r="C91" s="124">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="D91" s="123"/>
+      <c r="D91" s="125"/>
       <c r="E91" s="74" t="s">
         <v>78</v>
       </c>
@@ -11008,29 +11116,29 @@
       <c r="BC91" s="72"/>
       <c r="BD91" s="72"/>
       <c r="BE91" s="72"/>
-      <c r="BF91" s="130"/>
-      <c r="BG91" s="131"/>
-      <c r="BH91" s="131"/>
-      <c r="BI91" s="131"/>
-      <c r="BJ91" s="131"/>
-      <c r="BK91" s="131"/>
-      <c r="BL91" s="131"/>
-      <c r="BM91" s="131"/>
-      <c r="BN91" s="131"/>
-      <c r="BO91" s="131"/>
-      <c r="BP91" s="131"/>
-      <c r="BQ91" s="131"/>
-      <c r="BR91" s="131"/>
-      <c r="BS91" s="131"/>
-      <c r="BT91" s="131"/>
-      <c r="BU91" s="132"/>
-    </row>
-    <row r="92" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C92" s="122">
+      <c r="BF91" s="143"/>
+      <c r="BG91" s="144"/>
+      <c r="BH91" s="144"/>
+      <c r="BI91" s="144"/>
+      <c r="BJ91" s="144"/>
+      <c r="BK91" s="144"/>
+      <c r="BL91" s="144"/>
+      <c r="BM91" s="144"/>
+      <c r="BN91" s="144"/>
+      <c r="BO91" s="144"/>
+      <c r="BP91" s="144"/>
+      <c r="BQ91" s="144"/>
+      <c r="BR91" s="144"/>
+      <c r="BS91" s="144"/>
+      <c r="BT91" s="144"/>
+      <c r="BU91" s="145"/>
+    </row>
+    <row r="92" spans="2:73">
+      <c r="C92" s="124">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="D92" s="123"/>
+      <c r="D92" s="125"/>
       <c r="E92" s="74" t="s">
         <v>83</v>
       </c>
@@ -11090,40 +11198,40 @@
       <c r="BC92" s="72"/>
       <c r="BD92" s="72"/>
       <c r="BE92" s="72"/>
-      <c r="BF92" s="130"/>
-      <c r="BG92" s="131"/>
-      <c r="BH92" s="131"/>
-      <c r="BI92" s="131"/>
-      <c r="BJ92" s="131"/>
-      <c r="BK92" s="131"/>
-      <c r="BL92" s="131"/>
-      <c r="BM92" s="131"/>
-      <c r="BN92" s="131"/>
-      <c r="BO92" s="131"/>
-      <c r="BP92" s="131"/>
-      <c r="BQ92" s="131"/>
-      <c r="BR92" s="131"/>
-      <c r="BS92" s="131"/>
-      <c r="BT92" s="131"/>
-      <c r="BU92" s="132"/>
-    </row>
-    <row r="93" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C93" s="122">
+      <c r="BF92" s="143"/>
+      <c r="BG92" s="144"/>
+      <c r="BH92" s="144"/>
+      <c r="BI92" s="144"/>
+      <c r="BJ92" s="144"/>
+      <c r="BK92" s="144"/>
+      <c r="BL92" s="144"/>
+      <c r="BM92" s="144"/>
+      <c r="BN92" s="144"/>
+      <c r="BO92" s="144"/>
+      <c r="BP92" s="144"/>
+      <c r="BQ92" s="144"/>
+      <c r="BR92" s="144"/>
+      <c r="BS92" s="144"/>
+      <c r="BT92" s="144"/>
+      <c r="BU92" s="145"/>
+    </row>
+    <row r="93" spans="2:73">
+      <c r="C93" s="124">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D93" s="123"/>
-      <c r="E93" s="127" t="s">
+      <c r="D93" s="125"/>
+      <c r="E93" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="F93" s="128"/>
-      <c r="G93" s="128"/>
-      <c r="H93" s="128"/>
-      <c r="I93" s="128"/>
-      <c r="J93" s="128"/>
-      <c r="K93" s="128"/>
-      <c r="L93" s="128"/>
-      <c r="M93" s="129"/>
+      <c r="F93" s="132"/>
+      <c r="G93" s="132"/>
+      <c r="H93" s="132"/>
+      <c r="I93" s="132"/>
+      <c r="J93" s="132"/>
+      <c r="K93" s="132"/>
+      <c r="L93" s="132"/>
+      <c r="M93" s="133"/>
       <c r="N93" s="71" t="s">
         <v>104</v>
       </c>
@@ -11172,24 +11280,24 @@
       <c r="BC93" s="72"/>
       <c r="BD93" s="72"/>
       <c r="BE93" s="72"/>
-      <c r="BF93" s="130"/>
-      <c r="BG93" s="131"/>
-      <c r="BH93" s="131"/>
-      <c r="BI93" s="131"/>
-      <c r="BJ93" s="131"/>
-      <c r="BK93" s="131"/>
-      <c r="BL93" s="131"/>
-      <c r="BM93" s="131"/>
-      <c r="BN93" s="131"/>
-      <c r="BO93" s="131"/>
-      <c r="BP93" s="131"/>
-      <c r="BQ93" s="131"/>
-      <c r="BR93" s="131"/>
-      <c r="BS93" s="131"/>
-      <c r="BT93" s="131"/>
-      <c r="BU93" s="132"/>
-    </row>
-    <row r="94" spans="2:73" x14ac:dyDescent="0.25">
+      <c r="BF93" s="143"/>
+      <c r="BG93" s="144"/>
+      <c r="BH93" s="144"/>
+      <c r="BI93" s="144"/>
+      <c r="BJ93" s="144"/>
+      <c r="BK93" s="144"/>
+      <c r="BL93" s="144"/>
+      <c r="BM93" s="144"/>
+      <c r="BN93" s="144"/>
+      <c r="BO93" s="144"/>
+      <c r="BP93" s="144"/>
+      <c r="BQ93" s="144"/>
+      <c r="BR93" s="144"/>
+      <c r="BS93" s="144"/>
+      <c r="BT93" s="144"/>
+      <c r="BU93" s="145"/>
+    </row>
+    <row r="94" spans="2:73">
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
       <c r="E94" s="19"/>
@@ -11262,7 +11370,7 @@
       <c r="BT94" s="19"/>
       <c r="BU94" s="19"/>
     </row>
-    <row r="95" spans="2:73" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:73">
       <c r="C95" s="19" t="s">
         <v>26</v>
       </c>
@@ -11337,11 +11445,11 @@
       <c r="BT95" s="19"/>
       <c r="BU95" s="19"/>
     </row>
-    <row r="96" spans="2:73" x14ac:dyDescent="0.25">
-      <c r="C96" s="137" t="s">
+    <row r="96" spans="2:73">
+      <c r="C96" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="138"/>
+      <c r="D96" s="137"/>
       <c r="E96" s="32" t="s">
         <v>24</v>
       </c>
@@ -11418,69 +11526,69 @@
       <c r="BT96" s="34"/>
       <c r="BU96" s="33"/>
     </row>
-    <row r="97" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C97" s="122">
+    <row r="97" spans="3:73">
+      <c r="C97" s="124">
         <f t="shared" ref="C97:C101" si="3">ROW()-ROW($C$96)</f>
         <v>1</v>
       </c>
-      <c r="D97" s="123"/>
-      <c r="E97" s="124" t="s">
+      <c r="D97" s="125"/>
+      <c r="E97" s="126" t="s">
         <v>110</v>
       </c>
-      <c r="F97" s="125"/>
-      <c r="G97" s="125"/>
-      <c r="H97" s="125"/>
-      <c r="I97" s="125"/>
-      <c r="J97" s="125"/>
-      <c r="K97" s="125"/>
-      <c r="L97" s="125"/>
-      <c r="M97" s="125"/>
-      <c r="N97" s="125"/>
-      <c r="O97" s="125"/>
-      <c r="P97" s="125"/>
-      <c r="Q97" s="125"/>
-      <c r="R97" s="125"/>
-      <c r="S97" s="125"/>
-      <c r="T97" s="125"/>
-      <c r="U97" s="125"/>
-      <c r="V97" s="125"/>
-      <c r="W97" s="125"/>
-      <c r="X97" s="125"/>
-      <c r="Y97" s="126"/>
-      <c r="Z97" s="124" t="s">
+      <c r="F97" s="127"/>
+      <c r="G97" s="127"/>
+      <c r="H97" s="127"/>
+      <c r="I97" s="127"/>
+      <c r="J97" s="127"/>
+      <c r="K97" s="127"/>
+      <c r="L97" s="127"/>
+      <c r="M97" s="127"/>
+      <c r="N97" s="127"/>
+      <c r="O97" s="127"/>
+      <c r="P97" s="127"/>
+      <c r="Q97" s="127"/>
+      <c r="R97" s="127"/>
+      <c r="S97" s="127"/>
+      <c r="T97" s="127"/>
+      <c r="U97" s="127"/>
+      <c r="V97" s="127"/>
+      <c r="W97" s="127"/>
+      <c r="X97" s="127"/>
+      <c r="Y97" s="128"/>
+      <c r="Z97" s="126" t="s">
         <v>111</v>
       </c>
-      <c r="AA97" s="125"/>
-      <c r="AB97" s="125"/>
-      <c r="AC97" s="125"/>
-      <c r="AD97" s="125"/>
-      <c r="AE97" s="125"/>
-      <c r="AF97" s="125"/>
-      <c r="AG97" s="125"/>
-      <c r="AH97" s="125"/>
-      <c r="AI97" s="125"/>
-      <c r="AJ97" s="125"/>
-      <c r="AK97" s="125"/>
-      <c r="AL97" s="125"/>
-      <c r="AM97" s="125"/>
-      <c r="AN97" s="125"/>
-      <c r="AO97" s="125"/>
-      <c r="AP97" s="125"/>
-      <c r="AQ97" s="125"/>
-      <c r="AR97" s="125"/>
-      <c r="AS97" s="125"/>
-      <c r="AT97" s="125"/>
-      <c r="AU97" s="125"/>
-      <c r="AV97" s="125"/>
-      <c r="AW97" s="125"/>
-      <c r="AX97" s="125"/>
-      <c r="AY97" s="125"/>
-      <c r="AZ97" s="125"/>
-      <c r="BA97" s="125"/>
-      <c r="BB97" s="125"/>
-      <c r="BC97" s="125"/>
-      <c r="BD97" s="125"/>
-      <c r="BE97" s="126"/>
+      <c r="AA97" s="127"/>
+      <c r="AB97" s="127"/>
+      <c r="AC97" s="127"/>
+      <c r="AD97" s="127"/>
+      <c r="AE97" s="127"/>
+      <c r="AF97" s="127"/>
+      <c r="AG97" s="127"/>
+      <c r="AH97" s="127"/>
+      <c r="AI97" s="127"/>
+      <c r="AJ97" s="127"/>
+      <c r="AK97" s="127"/>
+      <c r="AL97" s="127"/>
+      <c r="AM97" s="127"/>
+      <c r="AN97" s="127"/>
+      <c r="AO97" s="127"/>
+      <c r="AP97" s="127"/>
+      <c r="AQ97" s="127"/>
+      <c r="AR97" s="127"/>
+      <c r="AS97" s="127"/>
+      <c r="AT97" s="127"/>
+      <c r="AU97" s="127"/>
+      <c r="AV97" s="127"/>
+      <c r="AW97" s="127"/>
+      <c r="AX97" s="127"/>
+      <c r="AY97" s="127"/>
+      <c r="AZ97" s="127"/>
+      <c r="BA97" s="127"/>
+      <c r="BB97" s="127"/>
+      <c r="BC97" s="127"/>
+      <c r="BD97" s="127"/>
+      <c r="BE97" s="128"/>
       <c r="BF97" s="41"/>
       <c r="BG97" s="42"/>
       <c r="BH97" s="42"/>
@@ -11498,69 +11606,69 @@
       <c r="BT97" s="42"/>
       <c r="BU97" s="43"/>
     </row>
-    <row r="98" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C98" s="122">
+    <row r="98" spans="3:73">
+      <c r="C98" s="124">
         <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="D98" s="123"/>
-      <c r="E98" s="124" t="s">
+      <c r="D98" s="125"/>
+      <c r="E98" s="126" t="s">
         <v>112</v>
       </c>
-      <c r="F98" s="125"/>
-      <c r="G98" s="125"/>
-      <c r="H98" s="125"/>
-      <c r="I98" s="125"/>
-      <c r="J98" s="125"/>
-      <c r="K98" s="125"/>
-      <c r="L98" s="125"/>
-      <c r="M98" s="125"/>
-      <c r="N98" s="125"/>
-      <c r="O98" s="125"/>
-      <c r="P98" s="125"/>
-      <c r="Q98" s="125"/>
-      <c r="R98" s="125"/>
-      <c r="S98" s="125"/>
-      <c r="T98" s="125"/>
-      <c r="U98" s="125"/>
-      <c r="V98" s="125"/>
-      <c r="W98" s="125"/>
-      <c r="X98" s="125"/>
-      <c r="Y98" s="126"/>
-      <c r="Z98" s="124" t="s">
+      <c r="F98" s="127"/>
+      <c r="G98" s="127"/>
+      <c r="H98" s="127"/>
+      <c r="I98" s="127"/>
+      <c r="J98" s="127"/>
+      <c r="K98" s="127"/>
+      <c r="L98" s="127"/>
+      <c r="M98" s="127"/>
+      <c r="N98" s="127"/>
+      <c r="O98" s="127"/>
+      <c r="P98" s="127"/>
+      <c r="Q98" s="127"/>
+      <c r="R98" s="127"/>
+      <c r="S98" s="127"/>
+      <c r="T98" s="127"/>
+      <c r="U98" s="127"/>
+      <c r="V98" s="127"/>
+      <c r="W98" s="127"/>
+      <c r="X98" s="127"/>
+      <c r="Y98" s="128"/>
+      <c r="Z98" s="126" t="s">
         <v>113</v>
       </c>
-      <c r="AA98" s="125"/>
-      <c r="AB98" s="125"/>
-      <c r="AC98" s="125"/>
-      <c r="AD98" s="125"/>
-      <c r="AE98" s="125"/>
-      <c r="AF98" s="125"/>
-      <c r="AG98" s="125"/>
-      <c r="AH98" s="125"/>
-      <c r="AI98" s="125"/>
-      <c r="AJ98" s="125"/>
-      <c r="AK98" s="125"/>
-      <c r="AL98" s="125"/>
-      <c r="AM98" s="125"/>
-      <c r="AN98" s="125"/>
-      <c r="AO98" s="125"/>
-      <c r="AP98" s="125"/>
-      <c r="AQ98" s="125"/>
-      <c r="AR98" s="125"/>
-      <c r="AS98" s="125"/>
-      <c r="AT98" s="125"/>
-      <c r="AU98" s="125"/>
-      <c r="AV98" s="125"/>
-      <c r="AW98" s="125"/>
-      <c r="AX98" s="125"/>
-      <c r="AY98" s="125"/>
-      <c r="AZ98" s="125"/>
-      <c r="BA98" s="125"/>
-      <c r="BB98" s="125"/>
-      <c r="BC98" s="125"/>
-      <c r="BD98" s="125"/>
-      <c r="BE98" s="126"/>
+      <c r="AA98" s="127"/>
+      <c r="AB98" s="127"/>
+      <c r="AC98" s="127"/>
+      <c r="AD98" s="127"/>
+      <c r="AE98" s="127"/>
+      <c r="AF98" s="127"/>
+      <c r="AG98" s="127"/>
+      <c r="AH98" s="127"/>
+      <c r="AI98" s="127"/>
+      <c r="AJ98" s="127"/>
+      <c r="AK98" s="127"/>
+      <c r="AL98" s="127"/>
+      <c r="AM98" s="127"/>
+      <c r="AN98" s="127"/>
+      <c r="AO98" s="127"/>
+      <c r="AP98" s="127"/>
+      <c r="AQ98" s="127"/>
+      <c r="AR98" s="127"/>
+      <c r="AS98" s="127"/>
+      <c r="AT98" s="127"/>
+      <c r="AU98" s="127"/>
+      <c r="AV98" s="127"/>
+      <c r="AW98" s="127"/>
+      <c r="AX98" s="127"/>
+      <c r="AY98" s="127"/>
+      <c r="AZ98" s="127"/>
+      <c r="BA98" s="127"/>
+      <c r="BB98" s="127"/>
+      <c r="BC98" s="127"/>
+      <c r="BD98" s="127"/>
+      <c r="BE98" s="128"/>
       <c r="BF98" s="71"/>
       <c r="BG98" s="72"/>
       <c r="BH98" s="72"/>
@@ -11578,12 +11686,12 @@
       <c r="BT98" s="72"/>
       <c r="BU98" s="73"/>
     </row>
-    <row r="99" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C99" s="122">
+    <row r="99" spans="3:73">
+      <c r="C99" s="124">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="D99" s="123"/>
+      <c r="D99" s="125"/>
       <c r="E99" s="87" t="s">
         <v>128</v>
       </c>
@@ -11658,12 +11766,12 @@
       <c r="BT99" s="88"/>
       <c r="BU99" s="89"/>
     </row>
-    <row r="100" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C100" s="122">
+    <row r="100" spans="3:73">
+      <c r="C100" s="124">
         <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="D100" s="123"/>
+      <c r="D100" s="125"/>
       <c r="E100" s="87" t="s">
         <v>129</v>
       </c>
@@ -11738,69 +11846,69 @@
       <c r="BT100" s="88"/>
       <c r="BU100" s="89"/>
     </row>
-    <row r="101" spans="3:73" x14ac:dyDescent="0.25">
-      <c r="C101" s="122">
+    <row r="101" spans="3:73">
+      <c r="C101" s="124">
         <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="D101" s="123"/>
-      <c r="E101" s="124" t="s">
+      <c r="D101" s="125"/>
+      <c r="E101" s="126" t="s">
         <v>105</v>
       </c>
-      <c r="F101" s="125"/>
-      <c r="G101" s="125"/>
-      <c r="H101" s="125"/>
-      <c r="I101" s="125"/>
-      <c r="J101" s="125"/>
-      <c r="K101" s="125"/>
-      <c r="L101" s="125"/>
-      <c r="M101" s="125"/>
-      <c r="N101" s="125"/>
-      <c r="O101" s="125"/>
-      <c r="P101" s="125"/>
-      <c r="Q101" s="125"/>
-      <c r="R101" s="125"/>
-      <c r="S101" s="125"/>
-      <c r="T101" s="125"/>
-      <c r="U101" s="125"/>
-      <c r="V101" s="125"/>
-      <c r="W101" s="125"/>
-      <c r="X101" s="125"/>
-      <c r="Y101" s="126"/>
-      <c r="Z101" s="124" t="s">
+      <c r="F101" s="127"/>
+      <c r="G101" s="127"/>
+      <c r="H101" s="127"/>
+      <c r="I101" s="127"/>
+      <c r="J101" s="127"/>
+      <c r="K101" s="127"/>
+      <c r="L101" s="127"/>
+      <c r="M101" s="127"/>
+      <c r="N101" s="127"/>
+      <c r="O101" s="127"/>
+      <c r="P101" s="127"/>
+      <c r="Q101" s="127"/>
+      <c r="R101" s="127"/>
+      <c r="S101" s="127"/>
+      <c r="T101" s="127"/>
+      <c r="U101" s="127"/>
+      <c r="V101" s="127"/>
+      <c r="W101" s="127"/>
+      <c r="X101" s="127"/>
+      <c r="Y101" s="128"/>
+      <c r="Z101" s="126" t="s">
         <v>114</v>
       </c>
-      <c r="AA101" s="125"/>
-      <c r="AB101" s="125"/>
-      <c r="AC101" s="125"/>
-      <c r="AD101" s="125"/>
-      <c r="AE101" s="125"/>
-      <c r="AF101" s="125"/>
-      <c r="AG101" s="125"/>
-      <c r="AH101" s="125"/>
-      <c r="AI101" s="125"/>
-      <c r="AJ101" s="125"/>
-      <c r="AK101" s="125"/>
-      <c r="AL101" s="125"/>
-      <c r="AM101" s="125"/>
-      <c r="AN101" s="125"/>
-      <c r="AO101" s="125"/>
-      <c r="AP101" s="125"/>
-      <c r="AQ101" s="125"/>
-      <c r="AR101" s="125"/>
-      <c r="AS101" s="125"/>
-      <c r="AT101" s="125"/>
-      <c r="AU101" s="125"/>
-      <c r="AV101" s="125"/>
-      <c r="AW101" s="125"/>
-      <c r="AX101" s="125"/>
-      <c r="AY101" s="125"/>
-      <c r="AZ101" s="125"/>
-      <c r="BA101" s="125"/>
-      <c r="BB101" s="125"/>
-      <c r="BC101" s="125"/>
-      <c r="BD101" s="125"/>
-      <c r="BE101" s="126"/>
+      <c r="AA101" s="127"/>
+      <c r="AB101" s="127"/>
+      <c r="AC101" s="127"/>
+      <c r="AD101" s="127"/>
+      <c r="AE101" s="127"/>
+      <c r="AF101" s="127"/>
+      <c r="AG101" s="127"/>
+      <c r="AH101" s="127"/>
+      <c r="AI101" s="127"/>
+      <c r="AJ101" s="127"/>
+      <c r="AK101" s="127"/>
+      <c r="AL101" s="127"/>
+      <c r="AM101" s="127"/>
+      <c r="AN101" s="127"/>
+      <c r="AO101" s="127"/>
+      <c r="AP101" s="127"/>
+      <c r="AQ101" s="127"/>
+      <c r="AR101" s="127"/>
+      <c r="AS101" s="127"/>
+      <c r="AT101" s="127"/>
+      <c r="AU101" s="127"/>
+      <c r="AV101" s="127"/>
+      <c r="AW101" s="127"/>
+      <c r="AX101" s="127"/>
+      <c r="AY101" s="127"/>
+      <c r="AZ101" s="127"/>
+      <c r="BA101" s="127"/>
+      <c r="BB101" s="127"/>
+      <c r="BC101" s="127"/>
+      <c r="BD101" s="127"/>
+      <c r="BE101" s="128"/>
       <c r="BF101" s="38"/>
       <c r="BG101" s="39"/>
       <c r="BH101" s="39"/>
@@ -11820,6 +11928,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="BQ15:BS15"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="BD79:BE79"/>
+    <mergeCell ref="BD82:BE82"/>
+    <mergeCell ref="BF89:BU89"/>
+    <mergeCell ref="F50:AG51"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="N78:AE78"/>
+    <mergeCell ref="AF78:AN78"/>
+    <mergeCell ref="BF83:BU83"/>
+    <mergeCell ref="BF84:BU84"/>
+    <mergeCell ref="BF85:BU85"/>
+    <mergeCell ref="E85:M85"/>
+    <mergeCell ref="N84:AE84"/>
+    <mergeCell ref="AF84:AN84"/>
+    <mergeCell ref="AO84:AS84"/>
+    <mergeCell ref="AO78:AS78"/>
+    <mergeCell ref="AT78:AW78"/>
+    <mergeCell ref="BD78:BE78"/>
+    <mergeCell ref="AX78:BC78"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="N77:AE77"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="BF93:BU93"/>
+    <mergeCell ref="E93:M93"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="BF91:BU91"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="BF92:BU92"/>
+    <mergeCell ref="BF90:BU90"/>
+    <mergeCell ref="BF81:BU81"/>
+    <mergeCell ref="N83:AE83"/>
+    <mergeCell ref="AF83:AN83"/>
+    <mergeCell ref="AO83:AS83"/>
+    <mergeCell ref="AT83:AW83"/>
+    <mergeCell ref="AX82:BC82"/>
+    <mergeCell ref="BD83:BE83"/>
+    <mergeCell ref="AX83:BC83"/>
+    <mergeCell ref="Z101:BE101"/>
+    <mergeCell ref="N81:AE81"/>
+    <mergeCell ref="AF81:AN81"/>
+    <mergeCell ref="AO81:AS81"/>
+    <mergeCell ref="AT81:AW81"/>
+    <mergeCell ref="AX81:BC81"/>
+    <mergeCell ref="BD81:BE81"/>
+    <mergeCell ref="AX84:BC84"/>
+    <mergeCell ref="AT85:AW85"/>
+    <mergeCell ref="AX85:BC85"/>
+    <mergeCell ref="BD85:BE85"/>
+    <mergeCell ref="BD84:BE84"/>
+    <mergeCell ref="AT84:AW84"/>
+    <mergeCell ref="N85:AE85"/>
+    <mergeCell ref="AF85:AN85"/>
+    <mergeCell ref="AO85:AS85"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E76:M76"/>
+    <mergeCell ref="E84:M84"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E101:Y101"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="N76:AE76"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="N82:AE82"/>
+    <mergeCell ref="N79:AE79"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C98:D98"/>
+    <mergeCell ref="E98:Y98"/>
+    <mergeCell ref="Z98:BE98"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="E97:Y97"/>
+    <mergeCell ref="Z97:BE97"/>
     <mergeCell ref="C99:D99"/>
     <mergeCell ref="C100:D100"/>
     <mergeCell ref="C80:D80"/>
@@ -11844,89 +12031,10 @@
     <mergeCell ref="AX80:BC80"/>
     <mergeCell ref="BD80:BE80"/>
     <mergeCell ref="BD76:BE76"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E76:M76"/>
-    <mergeCell ref="E84:M84"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E101:Y101"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="N76:AE76"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="N82:AE82"/>
-    <mergeCell ref="N79:AE79"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="BF81:BU81"/>
-    <mergeCell ref="N83:AE83"/>
-    <mergeCell ref="AF83:AN83"/>
-    <mergeCell ref="AO83:AS83"/>
-    <mergeCell ref="AT83:AW83"/>
-    <mergeCell ref="AX82:BC82"/>
-    <mergeCell ref="BD83:BE83"/>
-    <mergeCell ref="AX83:BC83"/>
-    <mergeCell ref="Z101:BE101"/>
-    <mergeCell ref="N81:AE81"/>
-    <mergeCell ref="AF81:AN81"/>
-    <mergeCell ref="AO81:AS81"/>
-    <mergeCell ref="AT81:AW81"/>
-    <mergeCell ref="AX81:BC81"/>
-    <mergeCell ref="BD81:BE81"/>
-    <mergeCell ref="AX84:BC84"/>
-    <mergeCell ref="AT85:AW85"/>
-    <mergeCell ref="AX85:BC85"/>
-    <mergeCell ref="BD85:BE85"/>
-    <mergeCell ref="BD84:BE84"/>
-    <mergeCell ref="AT84:AW84"/>
-    <mergeCell ref="N85:AE85"/>
-    <mergeCell ref="AF85:AN85"/>
-    <mergeCell ref="AO85:AS85"/>
-    <mergeCell ref="AO78:AS78"/>
-    <mergeCell ref="AT78:AW78"/>
-    <mergeCell ref="BD78:BE78"/>
-    <mergeCell ref="AX78:BC78"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="N77:AE77"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="BF93:BU93"/>
-    <mergeCell ref="E93:M93"/>
-    <mergeCell ref="BQ15:BS15"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="BD79:BE79"/>
-    <mergeCell ref="BD82:BE82"/>
-    <mergeCell ref="BF89:BU89"/>
-    <mergeCell ref="F50:AG51"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="N78:AE78"/>
-    <mergeCell ref="AF78:AN78"/>
-    <mergeCell ref="BF83:BU83"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="BF91:BU91"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="BF92:BU92"/>
-    <mergeCell ref="BF90:BU90"/>
-    <mergeCell ref="BF84:BU84"/>
-    <mergeCell ref="BF85:BU85"/>
-    <mergeCell ref="E85:M85"/>
-    <mergeCell ref="N84:AE84"/>
-    <mergeCell ref="AF84:AN84"/>
-    <mergeCell ref="AO84:AS84"/>
-    <mergeCell ref="C98:D98"/>
-    <mergeCell ref="E98:Y98"/>
-    <mergeCell ref="Z98:BE98"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="E97:Y97"/>
-    <mergeCell ref="Z97:BE97"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="58" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="53" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="2" manualBreakCount="2">
     <brk id="44" max="73" man="1"/>
     <brk id="94" max="73" man="1"/>
